--- a/Deloitte ClassWork.xlsx
+++ b/Deloitte ClassWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arnab Docs\Six Sigma\SS Study Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76363B80-F6D4-4C44-9528-EC04E6F28A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D9E66-FA8D-4FAB-8C0C-63E0FAE3CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -297,6 +297,90 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Chemical Agent</t>
+  </si>
+  <si>
+    <r>
+      <t>S = 106.47 - 0.0658</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> + 9.3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> - 7.4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -310,7 +394,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +458,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -430,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -964,6 +1061,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -973,7 +1085,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1016,6 +1128,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1051,6 +1166,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1112,6 +1230,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
@@ -3749,7 +3887,7 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>177755</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>22385</xdr:rowOff>
@@ -4377,13 +4515,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>266552</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>129499</xdr:rowOff>
@@ -4926,13 +5064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>307374</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>177799</xdr:rowOff>
@@ -5428,13 +5566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>273049</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -5496,6 +5634,66 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3025238-0F11-246B-29AF-DD18E2C155AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="4114800"/>
+          <a:ext cx="3206750" cy="2101850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5767,7 +5965,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6167,74 +6365,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F1C9A5-F75B-4B9E-82B2-3C439654534C}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.36328125" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="35">
         <v>6</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="36">
         <v>82</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="26">
         <f>B3*C3</f>
         <v>492</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="24">
         <f>B3^2</f>
         <v>36</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="27">
         <f>C3^2</f>
         <v>6724</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="37">
         <v>86</v>
       </c>
       <c r="D4" s="19">
@@ -6250,14 +6449,14 @@
         <v>7396</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="37">
         <v>43</v>
       </c>
       <c r="D5" s="19">
@@ -6273,14 +6472,14 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="37">
         <v>74</v>
       </c>
       <c r="D6" s="19">
@@ -6295,22 +6494,23 @@
         <f t="shared" si="2"/>
         <v>5476</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>58</v>
       </c>
       <c r="D7" s="19">
@@ -6325,22 +6525,23 @@
         <f t="shared" si="2"/>
         <v>3364</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="60">
         <v>1</v>
       </c>
-      <c r="J7" s="58"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="32" t="s">
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>90</v>
       </c>
       <c r="D8" s="19">
@@ -6355,66 +6556,67 @@
         <f t="shared" si="2"/>
         <v>8100</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="75">
         <v>-0.94421517068791805</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="75"/>
+      <c r="K8" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="40">
         <v>8</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="41">
         <v>78</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="42">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="43">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="44">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="51">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="53">
         <f t="shared" ref="B10:F10" si="3">SUM(B3:B9)</f>
         <v>57</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="54">
         <f t="shared" si="3"/>
         <v>511</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="55">
         <f t="shared" si="3"/>
         <v>3745</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="54">
         <f t="shared" si="3"/>
         <v>579</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="56">
         <f t="shared" si="3"/>
         <v>38993</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -6422,53 +6624,60 @@
         <f>COUNTA(A3:A9)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="K12" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="63"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="74">
         <f>(C12*D10-B10*C10)/SQRT((C12*E10-B10^2)*(C12*F10-C10^2))</f>
         <v>-0.94421517068791783</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="32">
         <v>6</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="36">
         <v>82</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="46">
         <f>$C$18+$C$19*E13</f>
         <v>80.761194029850742</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="78">
         <f>(F13-G13)^2</f>
         <v>1.5346402316774443</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="I13" s="78">
+        <f>F13-G13</f>
+        <v>1.238805970149258</v>
+      </c>
+      <c r="K13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="58">
+      <c r="L13" s="60">
         <v>0.94421517068791783</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -6476,28 +6685,33 @@
         <f>CORREL(B3:B9,C3:C9)</f>
         <v>-0.94421517068791805</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="33">
         <v>2</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="37">
         <v>86</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="47">
         <f t="shared" ref="G14:G19" si="4">$C$18+$C$19*E14</f>
         <v>95.24875621890547</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="51">
         <f t="shared" ref="H14:H19" si="5">(F14-G14)^2</f>
         <v>85.539491596742607</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="I14" s="78">
+        <f t="shared" ref="I14:I19" si="6">F14-G14</f>
+        <v>-9.24875621890547</v>
+      </c>
+      <c r="J14" s="79"/>
+      <c r="K14" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="63">
+      <c r="L14" s="65">
         <v>0.89154228855721385</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -6505,28 +6719,33 @@
         <f>CORREL(C3:C9,B3:B9)</f>
         <v>-0.94421517068791805</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="33">
         <v>15</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="37">
         <v>43</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="47">
         <f t="shared" si="4"/>
         <v>48.164179104477604</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="51">
         <f t="shared" si="5"/>
         <v>26.66874582312311</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="I15" s="78">
+        <f t="shared" si="6"/>
+        <v>-5.1641791044776042</v>
+      </c>
+      <c r="J15" s="79"/>
+      <c r="K15" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="58">
+      <c r="L15" s="60">
         <v>0.86985074626865655</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -6537,28 +6756,33 @@
         <f>(C10*E10-B10*D10)/(C12*E10-B10^2)</f>
         <v>102.49253731343283</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="33">
         <v>9</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="37">
         <v>74</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="47">
         <f t="shared" si="4"/>
         <v>69.895522388059703</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="51">
         <f t="shared" si="5"/>
         <v>16.846736466919122</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="I16" s="78">
+        <f t="shared" si="6"/>
+        <v>4.1044776119402968</v>
+      </c>
+      <c r="J16" s="79"/>
+      <c r="K16" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="58">
+      <c r="L16" s="60">
         <v>6.054643380717124</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -6569,28 +6793,33 @@
         <f>(C12*D10-B10*C10)/(C12*E10-B10^2)</f>
         <v>-3.6218905472636815</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="33">
         <v>12</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="37">
         <v>58</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="47">
         <f t="shared" si="4"/>
         <v>59.02985074626865</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="51">
         <f t="shared" si="5"/>
         <v>1.0605925595900956</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="I17" s="78">
+        <f t="shared" si="6"/>
+        <v>-1.0298507462686501</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="59">
+      <c r="L17" s="61">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6601,22 +6830,27 @@
         <f>INTERCEPT(C3:C9,B3:B9)</f>
         <v>102.49253731343283</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="33">
         <v>5</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="37">
         <v>90</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="47">
         <f t="shared" si="4"/>
         <v>84.383084577114431</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="51">
         <f t="shared" si="5"/>
         <v>31.549738867849769</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="78">
+        <f t="shared" si="6"/>
+        <v>5.6169154228855689</v>
+      </c>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -6627,219 +6861,347 @@
         <f>SLOPE(C3:C9,B3:B9)</f>
         <v>-3.621890547263682</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="34">
         <v>8</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="39">
         <v>78</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="48">
         <f t="shared" si="4"/>
         <v>73.517412935323378</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="52">
         <f t="shared" si="5"/>
         <v>20.093586792406175</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="78">
+        <f t="shared" si="6"/>
+        <v>4.4825870646766219</v>
+      </c>
+      <c r="J19" s="79"/>
+      <c r="K19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="64">
         <f>C13^2</f>
         <v>0.89154228855721385</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="76">
         <f>SUM(H13:H19)</f>
         <v>183.29353233830832</v>
       </c>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60" t="s">
+      <c r="I20" s="76">
+        <f>SUM(I13:I19)</f>
+        <v>2.1316282072803006E-14</v>
+      </c>
+      <c r="J20" s="79"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="M20" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="60" t="s">
+      <c r="N20" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="N20" s="60" t="s">
+      <c r="O20" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="60" t="s">
+      <c r="P20" s="62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J21" s="58" t="s">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K21" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="58">
+      <c r="L21" s="60">
         <v>1</v>
       </c>
-      <c r="L21" s="58">
+      <c r="M21" s="60">
         <v>1506.7064676616915</v>
       </c>
-      <c r="M21" s="58">
+      <c r="N21" s="60">
         <v>1506.7064676616915</v>
       </c>
-      <c r="N21" s="58">
+      <c r="O21" s="60">
         <v>41.100917431192663</v>
       </c>
-      <c r="O21" s="58">
+      <c r="P21" s="60">
         <v>1.3697467655579901E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="57" t="s">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="K22" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="58">
+      <c r="L22" s="60">
         <v>5</v>
       </c>
-      <c r="L22" s="75">
+      <c r="M22" s="77">
         <v>183.29353233830844</v>
       </c>
-      <c r="M22" s="58">
+      <c r="N22" s="60">
         <v>36.658706467661688</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="31">
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="32">
         <v>7</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="57">
         <f>$C$18+$C$19*E23</f>
         <v>77.139303482587053</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="50">
         <f>FORECAST(E23,$F$13:$F$19,$E$13:$E$19)</f>
         <v>77.139303482587053</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="K23" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="59">
+      <c r="L23" s="61">
         <v>6</v>
       </c>
-      <c r="L23" s="59">
+      <c r="M23" s="61">
         <v>1690</v>
       </c>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="33">
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="34">
         <v>10</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="58">
         <f>$C$18+$C$19*E24</f>
         <v>66.273631840796014</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="52">
         <f>FORECAST(E24,$F$13:$F$19,$E$13:$E$19)</f>
         <v>66.273631840796014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="J25" s="60"/>
-      <c r="K25" s="60" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K25" s="62"/>
+      <c r="L25" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="M25" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="N25" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="O25" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="O25" s="60" t="s">
+      <c r="P25" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="60" t="s">
+      <c r="Q25" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="R25" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="S25" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="J26" s="58" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K26" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="58">
+      <c r="L26" s="60">
         <v>102.49253731343283</v>
       </c>
-      <c r="L26" s="58">
+      <c r="M26" s="60">
         <v>5.1380677404490225</v>
       </c>
-      <c r="M26" s="58">
+      <c r="N26" s="60">
         <v>19.947681208359445</v>
       </c>
-      <c r="N26" s="58">
+      <c r="O26" s="60">
         <v>5.8508415074810417E-6</v>
       </c>
-      <c r="O26" s="58">
+      <c r="P26" s="60">
         <v>89.284713709565651</v>
       </c>
-      <c r="P26" s="58">
+      <c r="Q26" s="60">
         <v>115.70036091730002</v>
       </c>
-      <c r="Q26" s="58">
+      <c r="R26" s="60">
         <v>89.284713709565651</v>
       </c>
-      <c r="R26" s="58">
+      <c r="S26" s="60">
         <v>115.70036091730002</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J27" s="59" t="s">
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K27" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="59">
+      <c r="L27" s="61">
         <v>-3.6218905472636815</v>
       </c>
-      <c r="L27" s="59">
+      <c r="M27" s="61">
         <v>0.56494941577112823</v>
       </c>
-      <c r="M27" s="59">
+      <c r="N27" s="61">
         <v>-6.4109997216653083</v>
       </c>
-      <c r="N27" s="59">
+      <c r="O27" s="61">
         <v>1.3697467655579901E-3</v>
       </c>
-      <c r="O27" s="59">
+      <c r="P27" s="61">
         <v>-5.0741392534982923</v>
       </c>
-      <c r="P27" s="59">
+      <c r="Q27" s="61">
         <v>-2.1696418410290708</v>
       </c>
-      <c r="Q27" s="59">
+      <c r="R27" s="61">
         <v>-5.0741392534982923</v>
       </c>
-      <c r="R27" s="59">
+      <c r="S27" s="61">
         <v>-2.1696418410290708</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="80">
+        <v>6</v>
+      </c>
+      <c r="D43" s="80">
+        <v>2</v>
+      </c>
+      <c r="E43" s="80">
+        <v>15</v>
+      </c>
+      <c r="F43" s="80">
+        <v>9</v>
+      </c>
+      <c r="G43" s="80">
+        <v>12</v>
+      </c>
+      <c r="H43" s="80">
+        <v>5</v>
+      </c>
+      <c r="I43" s="81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="38">
+        <v>82</v>
+      </c>
+      <c r="D44" s="38">
+        <v>86</v>
+      </c>
+      <c r="E44" s="38">
+        <v>43</v>
+      </c>
+      <c r="F44" s="38">
+        <v>74</v>
+      </c>
+      <c r="G44" s="38">
+        <v>58</v>
+      </c>
+      <c r="H44" s="38">
+        <v>90</v>
+      </c>
+      <c r="I44" s="39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="32">
+        <v>6</v>
+      </c>
+      <c r="C47" s="36">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="33">
+        <v>2</v>
+      </c>
+      <c r="C48" s="37">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="33">
+        <v>15</v>
+      </c>
+      <c r="C49" s="37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="33">
+        <v>9</v>
+      </c>
+      <c r="C50" s="37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="33">
+        <v>12</v>
+      </c>
+      <c r="C51" s="37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="33">
+        <v>5</v>
+      </c>
+      <c r="C52" s="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="34">
+        <v>8</v>
+      </c>
+      <c r="C53" s="39">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6850,20 +7212,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE346C2-1589-4C9C-954B-1816DBE1B705}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
@@ -6876,22 +7240,22 @@
       <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="30" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6911,23 +7275,23 @@
       <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="24">
         <v>3.2</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="24">
         <v>22</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="25">
         <v>550</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="26">
         <f>$H$18+$H$19*K2+$H$20*L2</f>
         <v>555.36373267414149</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="25">
         <f>(M2-N2)^2</f>
         <v>28.769628199652999</v>
       </c>
@@ -6945,7 +7309,7 @@
       <c r="E3">
         <v>550</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="1">
@@ -6954,14 +7318,14 @@
       <c r="L3" s="1">
         <v>27</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="21">
         <v>570</v>
       </c>
       <c r="N3" s="19">
         <f t="shared" ref="N3:N6" si="0">$H$18+$H$19*K3+$H$20*L3</f>
         <v>584.20852829522391</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="21">
         <f t="shared" ref="O3:O6" si="1">(M3-N3)^2</f>
         <v>201.88227631617858</v>
       </c>
@@ -6979,11 +7343,11 @@
       <c r="E4">
         <v>570</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="J4" s="32" t="s">
+      <c r="H4" s="63"/>
+      <c r="J4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="1">
@@ -6992,14 +7356,14 @@
       <c r="L4" s="1">
         <v>24</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="21">
         <v>525</v>
       </c>
       <c r="N4" s="19">
         <f t="shared" si="0"/>
         <v>523.08157499779293</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="21">
         <f t="shared" si="1"/>
         <v>3.6803544890932072</v>
       </c>
@@ -7017,13 +7381,13 @@
       <c r="E5">
         <v>525</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="60">
         <v>0.98928820282730667</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="33" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="1">
@@ -7032,14 +7396,14 @@
       <c r="L5" s="1">
         <v>28</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="21">
         <v>670</v>
       </c>
       <c r="N5" s="19">
         <f t="shared" si="0"/>
         <v>660.08960889909076</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="21">
         <f t="shared" si="1"/>
         <v>98.215851772980997</v>
       </c>
@@ -7057,29 +7421,29 @@
       <c r="E6">
         <v>670</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="60">
         <v>0.97869114825328229</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="22">
         <v>23</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="23">
         <v>490</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="73">
         <f t="shared" si="0"/>
         <v>482.25655513375125</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="23">
         <f t="shared" si="1"/>
         <v>59.960938396634141</v>
       </c>
@@ -7097,34 +7461,34 @@
       <c r="E7">
         <v>490</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="60">
         <v>0.95738229650656459</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="66">
         <f>SUM(O2:O6)</f>
         <v>392.50904917453994</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="60">
         <v>14.009087214635695</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="70" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7135,271 +7499,792 @@
       <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="61">
         <v>5</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="68">
         <v>3.5</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="69">
         <v>29</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="71">
         <f>$H$18+$H$19*K9+$H$20*L9</f>
         <v>683.38659839321986</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="22">
         <v>2.6</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="23">
         <v>37</v>
       </c>
-      <c r="M10" s="70">
+      <c r="M10" s="72">
         <f>$H$18+$H$19*K10+$H$20*L10</f>
         <v>720.77425620199529</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="G11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="60">
         <v>0.370743176051961</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="60">
         <v>1</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60" t="s">
+      <c r="E12" s="60"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="62" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="61">
         <v>0.84476908232675274</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="61">
         <v>0.7913390215117152</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="60">
         <v>2</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="60">
         <v>18027.49095082546</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="60">
         <v>9013.7454754127302</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="60">
         <v>45.928854350588743</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="60">
         <v>2.1308851746717622E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="60">
         <v>2</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="65">
         <v>392.50904917453863</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="60">
         <v>196.25452458726932</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="61">
         <v>4</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="61">
         <v>18420</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="G17" s="60"/>
-      <c r="H17" s="60" t="s">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G17" s="62"/>
+      <c r="H17" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="G18" s="58" t="s">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G18" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="60">
         <v>-44.81018804626126</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="60">
         <v>69.246866630890381</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="60">
         <v>-0.64710780756499753</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="60">
         <v>0.58391574508017841</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="60">
         <v>-342.75540778225883</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="60">
         <v>253.13503168973631</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="60">
         <v>-342.75540778225883</v>
       </c>
-      <c r="O18" s="58">
+      <c r="O18" s="60">
         <v>253.13503168973631</v>
       </c>
     </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="G19" s="58" t="s">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="G19" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="60">
         <v>87.640151849563026</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="60">
         <v>15.237186664924886</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="60">
         <v>5.7517279125618073</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="60">
         <v>2.8922600815111749E-2</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="60">
         <v>22.079829052021836</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="60">
         <v>153.20047464710422</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="60">
         <v>22.079829052021836</v>
       </c>
-      <c r="O19" s="58">
+      <c r="O19" s="60">
         <v>153.20047464710422</v>
       </c>
     </row>
-    <row r="20" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G20" s="59" t="s">
+    <row r="20" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="61">
         <v>14.532974309172776</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="61">
         <v>2.9137375361504319</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="61">
         <v>4.9877431061870565</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="61">
         <v>3.7924876930238542E-2</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="61">
         <v>1.9961735454816427</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M20" s="61">
         <v>27.069775072863909</v>
       </c>
-      <c r="N20" s="59">
+      <c r="N20" s="61">
         <v>1.9961735454816427</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O20" s="61">
         <v>27.069775072863909</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="C23" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C24" s="83">
+        <v>39</v>
+      </c>
+      <c r="D24" s="83">
+        <v>192</v>
+      </c>
+      <c r="E24" s="83">
+        <v>1.2</v>
+      </c>
+      <c r="F24" s="83">
+        <v>12.2</v>
+      </c>
+      <c r="G24" s="83">
+        <f>D24-D$32</f>
+        <v>-1.25</v>
+      </c>
+      <c r="H24" s="83">
+        <f t="shared" ref="H24:I31" si="2">E24-E$32</f>
+        <v>-0.11250000000000004</v>
+      </c>
+      <c r="I24" s="83">
+        <f t="shared" si="2"/>
+        <v>-0.88749999999999929</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C25" s="83">
+        <v>29</v>
+      </c>
+      <c r="D25" s="83">
+        <v>199</v>
+      </c>
+      <c r="E25" s="83">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="83">
+        <v>13.8</v>
+      </c>
+      <c r="G25" s="83">
+        <f>D25-D$32</f>
+        <v>5.75</v>
+      </c>
+      <c r="H25" s="83">
+        <f t="shared" si="2"/>
+        <v>8.7499999999999911E-2</v>
+      </c>
+      <c r="I25" s="83">
+        <f t="shared" si="2"/>
+        <v>0.71250000000000213</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C26" s="83">
+        <v>39</v>
+      </c>
+      <c r="D26" s="83">
+        <v>196</v>
+      </c>
+      <c r="E26" s="83">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="83">
+        <v>12.8</v>
+      </c>
+      <c r="G26" s="83">
+        <f t="shared" ref="G26:G31" si="3">D26-D$32</f>
+        <v>2.75</v>
+      </c>
+      <c r="H26" s="83">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="I26" s="83">
+        <f t="shared" si="2"/>
+        <v>-0.28749999999999787</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C27" s="83">
+        <v>39</v>
+      </c>
+      <c r="D27" s="83">
+        <v>208</v>
+      </c>
+      <c r="E27" s="83">
+        <v>1.3</v>
+      </c>
+      <c r="F27" s="83">
+        <v>12.6</v>
+      </c>
+      <c r="G27" s="83">
+        <f t="shared" si="3"/>
+        <v>14.75</v>
+      </c>
+      <c r="H27" s="83">
+        <f t="shared" si="2"/>
+        <v>-1.2499999999999956E-2</v>
+      </c>
+      <c r="I27" s="83">
+        <f t="shared" si="2"/>
+        <v>-0.48749999999999893</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C28" s="83">
+        <v>35</v>
+      </c>
+      <c r="D28" s="83">
+        <v>202</v>
+      </c>
+      <c r="E28" s="83">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="83">
+        <v>13.1</v>
+      </c>
+      <c r="G28" s="83">
+        <f t="shared" si="3"/>
+        <v>8.75</v>
+      </c>
+      <c r="H28" s="83">
+        <f t="shared" si="2"/>
+        <v>-0.11250000000000004</v>
+      </c>
+      <c r="I28" s="83">
+        <f t="shared" si="2"/>
+        <v>1.2500000000001066E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C29" s="83">
+        <v>32</v>
+      </c>
+      <c r="D29" s="83">
+        <v>186</v>
+      </c>
+      <c r="E29" s="83">
+        <v>1.4</v>
+      </c>
+      <c r="F29" s="83">
+        <v>13.6</v>
+      </c>
+      <c r="G29" s="83">
+        <f t="shared" si="3"/>
+        <v>-7.25</v>
+      </c>
+      <c r="H29" s="83">
+        <f t="shared" si="2"/>
+        <v>8.7499999999999911E-2</v>
+      </c>
+      <c r="I29" s="83">
+        <f t="shared" si="2"/>
+        <v>0.51250000000000107</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C30" s="83">
+        <v>33</v>
+      </c>
+      <c r="D30" s="83">
+        <v>183</v>
+      </c>
+      <c r="E30" s="83">
+        <v>1.2</v>
+      </c>
+      <c r="F30" s="83">
+        <v>13.1</v>
+      </c>
+      <c r="G30" s="83">
+        <f t="shared" si="3"/>
+        <v>-10.25</v>
+      </c>
+      <c r="H30" s="83">
+        <f t="shared" si="2"/>
+        <v>-0.11250000000000004</v>
+      </c>
+      <c r="I30" s="83">
+        <f t="shared" si="2"/>
+        <v>1.2500000000001066E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C31" s="83">
+        <v>30</v>
+      </c>
+      <c r="D31" s="83">
+        <v>180</v>
+      </c>
+      <c r="E31" s="83">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="83">
+        <v>13.5</v>
+      </c>
+      <c r="G31" s="83">
+        <f t="shared" si="3"/>
+        <v>-13.25</v>
+      </c>
+      <c r="H31" s="83">
+        <f t="shared" si="2"/>
+        <v>-1.2499999999999956E-2</v>
+      </c>
+      <c r="I31" s="83">
+        <f t="shared" si="2"/>
+        <v>0.41250000000000142</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="4">AVERAGE(D24:D31)</f>
+        <v>193.25</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>1.3125</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>13.087499999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C38" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="63"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C39" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="60">
+        <v>0.97702096639963076</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C40" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="60">
+        <v>0.95456996878446843</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C41" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="60">
+        <v>0.92049744537281963</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C42" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="60">
+        <v>1.1674334826729733</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C46" s="62"/>
+      <c r="D46" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C47" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="60">
+        <v>3</v>
+      </c>
+      <c r="E47" s="60">
+        <v>114.54839625413621</v>
+      </c>
+      <c r="F47" s="60">
+        <v>38.182798751378733</v>
+      </c>
+      <c r="G47" s="60">
+        <v>28.015828392038639</v>
+      </c>
+      <c r="H47" s="60">
+        <v>3.8106794853956546E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C48" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="60">
+        <v>4</v>
+      </c>
+      <c r="E48" s="60">
+        <v>5.4516037458637889</v>
+      </c>
+      <c r="F48" s="60">
+        <v>1.3629009364659472</v>
+      </c>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+    </row>
+    <row r="49" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C49" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="61">
+        <v>7</v>
+      </c>
+      <c r="E49" s="61">
+        <v>120</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+    </row>
+    <row r="50" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C51" s="62"/>
+      <c r="D51" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C52" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="60">
+        <v>106.47245945254261</v>
+      </c>
+      <c r="E52" s="60">
+        <v>16.788994264807879</v>
+      </c>
+      <c r="F52" s="60">
+        <v>6.3418009306086924</v>
+      </c>
+      <c r="G52" s="60">
+        <v>3.1661710799404785E-3</v>
+      </c>
+      <c r="H52" s="60">
+        <v>59.858738504822945</v>
+      </c>
+      <c r="I52" s="60">
+        <v>153.08618040026226</v>
+      </c>
+      <c r="J52" s="60">
+        <v>59.858738504822945</v>
+      </c>
+      <c r="K52" s="60">
+        <v>153.08618040026226</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C53" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="60">
+        <v>6.5812688263095817E-2</v>
+      </c>
+      <c r="E53" s="60">
+        <v>4.8976823299058676E-2</v>
+      </c>
+      <c r="F53" s="60">
+        <v>1.3437516733422097</v>
+      </c>
+      <c r="G53" s="60">
+        <v>0.25019079703838232</v>
+      </c>
+      <c r="H53" s="60">
+        <v>-7.0168773053712899E-2</v>
+      </c>
+      <c r="I53" s="60">
+        <v>0.20179414957990455</v>
+      </c>
+      <c r="J53" s="60">
+        <v>-7.0168773053712899E-2</v>
+      </c>
+      <c r="K53" s="60">
+        <v>0.20179414957990455</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C54" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="60">
+        <v>9.3003211519449032</v>
+      </c>
+      <c r="E54" s="60">
+        <v>4.3052812041453157</v>
+      </c>
+      <c r="F54" s="60">
+        <v>2.1602122395605985</v>
+      </c>
+      <c r="G54" s="60">
+        <v>9.6866056507939668E-2</v>
+      </c>
+      <c r="H54" s="60">
+        <v>-2.6530557738044198</v>
+      </c>
+      <c r="I54" s="60">
+        <v>21.253698077694224</v>
+      </c>
+      <c r="J54" s="60">
+        <v>-2.6530557738044198</v>
+      </c>
+      <c r="K54" s="60">
+        <v>21.253698077694224</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C55" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="61">
+        <v>-7.4038153177699009</v>
+      </c>
+      <c r="E55" s="61">
+        <v>0.94329664825259574</v>
+      </c>
+      <c r="F55" s="61">
+        <v>-7.8488727077373319</v>
+      </c>
+      <c r="G55" s="61">
+        <v>1.4234006520302469E-3</v>
+      </c>
+      <c r="H55" s="61">
+        <v>-10.022826679560305</v>
+      </c>
+      <c r="I55" s="61">
+        <v>-4.7848039559794966</v>
+      </c>
+      <c r="J55" s="61">
+        <v>-10.022826679560305</v>
+      </c>
+      <c r="K55" s="61">
+        <v>-4.7848039559794966</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Deloitte ClassWork.xlsx
+++ b/Deloitte ClassWork.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arnab Docs\Six Sigma\SS Study Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D9E66-FA8D-4FAB-8C0C-63E0FAE3CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB9F264-453C-4E1A-ACFE-3E00AE67F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
     <sheet name="Correlation &amp; Regression-1" sheetId="2" r:id="rId2"/>
     <sheet name="Correlation &amp; Regression-2" sheetId="4" r:id="rId3"/>
     <sheet name="Salary Calculation" sheetId="3" r:id="rId4"/>
+    <sheet name="X-Bar Control Chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -382,6 +383,93 @@
       <t>e</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Obs 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample No. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average (x-bar) </t>
+  </si>
+  <si>
+    <t>Range (R)</t>
+  </si>
+  <si>
+    <t>R-bar</t>
+  </si>
+  <si>
+    <t>x-bar-bar (the average of the sample means)</t>
+  </si>
+  <si>
+    <t>z (standard normal variable (2 for 95.44% confidence, 3 for 99.74% confidence))</t>
+  </si>
+  <si>
+    <t>Sigma-x (standard deviation of the distribution of sample means)</t>
+  </si>
+  <si>
+    <t>n  sample size (number of observations per sample)</t>
+  </si>
+  <si>
+    <t>Sigma standard deviation of the bottling operation is 0.14 ounces</t>
+  </si>
+  <si>
+    <t>Number of Samples</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Sample Size n</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Factor for x-bar Chart</t>
+  </si>
+  <si>
+    <t>Factors for R Chart</t>
+  </si>
+  <si>
+    <t>Upper control limit (UCL)-1</t>
+  </si>
+  <si>
+    <t>Lower control limit (LCL)-1</t>
+  </si>
+  <si>
+    <t>Upper control limit (UCL)-2</t>
+  </si>
+  <si>
+    <t>Lower control limit (LCL)-2</t>
+  </si>
+  <si>
+    <t>UCL-1</t>
+  </si>
+  <si>
+    <t>LCL-1</t>
+  </si>
+  <si>
+    <t>UCL-2</t>
+  </si>
+  <si>
+    <t>LCL-2</t>
+  </si>
 </sst>
 </file>
 
@@ -389,12 +477,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +559,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="OfficinaSans-Book"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1199,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1094,8 +1208,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,22 +1225,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,7 +1239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,13 +1284,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1197,23 +1299,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,11 +1327,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,6 +1349,49 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2779,6 +2922,1480 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>X-Bar Control Chart-1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average (x-bar) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.907499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.977500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.985000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.8575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.012499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.982500000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.002499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.942500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5363-4240-BBE9-E47A45BECA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$I$4:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5363-4240-BBE9-E47A45BECA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$J$4:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5363-4240-BBE9-E47A45BECA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$K$4:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5363-4240-BBE9-E47A45BECA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1879564592"/>
+        <c:axId val="1879573712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1879564592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1879573712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1879573712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1879564592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1"/>
+              <a:t>X-Bar Control Chart-2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average (x-bar) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.907499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.977500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.985000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.8575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.012499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.982500000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.002499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.942500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-274E-458F-A727-E27035A17060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$I$4:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-274E-458F-A727-E27035A17060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$L$4:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.156264000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-274E-458F-A727-E27035A17060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'X-Bar Control Chart'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'X-Bar Control Chart'!$M$4:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.737536000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-274E-458F-A727-E27035A17060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1588152896"/>
+        <c:axId val="1588149056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1588152896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588149056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1588149056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588152896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2820,6 +4437,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3877,6 +5574,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3892,8 +6621,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>22385</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 8">
@@ -4280,7 +7009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 8">
@@ -4526,8 +7255,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>129499</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 1">
@@ -4847,7 +7576,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 1">
@@ -5075,8 +7804,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 5">
@@ -5373,7 +8102,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 5">
@@ -5699,6 +8428,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>96838</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>77786</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA64447-AAA3-69F2-A419-586248C22DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>821530</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123030</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>89694</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97E71A8-F128-63FD-C7F0-2D756E543A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5968,14 +8774,14 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="32.6328125" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5998,7 +8804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6021,7 +8827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6044,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6067,7 +8873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6090,7 +8896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6113,7 +8919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -6136,7 +8942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -6159,7 +8965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -6182,7 +8988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -6205,7 +9011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -6228,7 +9034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -6251,7 +9057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -6274,7 +9080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -6297,7 +9103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -6320,7 +9126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -6367,11 +9173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F1C9A5-F75B-4B9E-82B2-3C439654534C}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="10" max="10" width="4.36328125" customWidth="1"/>
     <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
@@ -6382,61 +9188,61 @@
     <col min="16" max="18" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1"/>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="31">
         <v>6</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="32">
         <v>82</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <f>B3*C3</f>
         <v>492</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <f>B3^2</f>
         <v>36</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="23">
         <f>C3^2</f>
         <v>6724</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="33">
         <v>86</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D9" si="0">B4*C4</f>
         <v>172</v>
       </c>
@@ -6444,22 +9250,22 @@
         <f t="shared" ref="E4:E9" si="1">B4^2</f>
         <v>4</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <f t="shared" ref="F4:F9" si="2">C4^2</f>
         <v>7396</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
+      <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="33">
         <v>43</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
@@ -6467,22 +9273,22 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <f t="shared" si="2"/>
         <v>1849</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>74</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
@@ -6490,30 +9296,30 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <f t="shared" si="2"/>
         <v>5476</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="33">
         <v>58</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
@@ -6521,30 +9327,28 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <f t="shared" si="2"/>
         <v>3364</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="33" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
+      <c r="A8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="33">
         <v>90</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -6552,62 +9356,62 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <f t="shared" si="2"/>
         <v>8100</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="75">
+      <c r="I8" s="69">
         <v>-0.94421517068791805</v>
       </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="61">
+      <c r="J8" s="69"/>
+      <c r="K8" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
+      <c r="A9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="36">
         <v>8</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="37">
         <v>78</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="38">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="39">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="40">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="53">
+    <row r="10" spans="1:12" ht="15" thickBot="1">
+      <c r="B10" s="49">
         <f t="shared" ref="B10:F10" si="3">SUM(B3:B9)</f>
         <v>57</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="50">
         <f t="shared" si="3"/>
         <v>511</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="51">
         <f t="shared" si="3"/>
         <v>3745</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="50">
         <f t="shared" si="3"/>
         <v>579</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="52">
         <f t="shared" si="3"/>
         <v>38993</v>
       </c>
@@ -6615,8 +9419,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="15" thickBot="1"/>
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -6624,60 +9428,60 @@
         <f>COUNTA(A3:A9)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="63"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L12" s="58"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="68">
         <f>(C12*D10-B10*C10)/SQRT((C12*E10-B10^2)*(C12*F10-C10^2))</f>
         <v>-0.94421517068791783</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="28">
         <v>6</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="32">
         <v>82</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="42">
         <f>$C$18+$C$19*E13</f>
         <v>80.761194029850742</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="72">
         <f>(F13-G13)^2</f>
         <v>1.5346402316774443</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="72">
         <f>F13-G13</f>
         <v>1.238805970149258</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13">
         <v>0.94421517068791783</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -6685,33 +9489,33 @@
         <f>CORREL(B3:B9,C3:C9)</f>
         <v>-0.94421517068791805</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="33">
         <v>86</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="43">
         <f t="shared" ref="G14:G19" si="4">$C$18+$C$19*E14</f>
         <v>95.24875621890547</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="47">
         <f t="shared" ref="H14:H19" si="5">(F14-G14)^2</f>
         <v>85.539491596742607</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="72">
         <f t="shared" ref="I14:I19" si="6">F14-G14</f>
         <v>-9.24875621890547</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="60" t="s">
+      <c r="J14" s="73"/>
+      <c r="K14" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="65">
+      <c r="L14" s="59">
         <v>0.89154228855721385</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -6719,33 +9523,33 @@
         <f>CORREL(C3:C9,B3:B9)</f>
         <v>-0.94421517068791805</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="29">
         <v>15</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="33">
         <v>43</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="43">
         <f t="shared" si="4"/>
         <v>48.164179104477604</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="47">
         <f t="shared" si="5"/>
         <v>26.66874582312311</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="72">
         <f t="shared" si="6"/>
         <v>-5.1641791044776042</v>
       </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="60" t="s">
+      <c r="J15" s="73"/>
+      <c r="K15" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="60">
+      <c r="L15">
         <v>0.86985074626865655</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -6756,33 +9560,33 @@
         <f>(C10*E10-B10*D10)/(C12*E10-B10^2)</f>
         <v>102.49253731343283</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="29">
         <v>9</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="33">
         <v>74</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="43">
         <f t="shared" si="4"/>
         <v>69.895522388059703</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="47">
         <f t="shared" si="5"/>
         <v>16.846736466919122</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="72">
         <f t="shared" si="6"/>
         <v>4.1044776119402968</v>
       </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="60" t="s">
+      <c r="J16" s="73"/>
+      <c r="K16" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16">
         <v>6.054643380717124</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -6793,33 +9597,33 @@
         <f>(C12*D10-B10*C10)/(C12*E10-B10^2)</f>
         <v>-3.6218905472636815</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="29">
         <v>12</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="33">
         <v>58</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="43">
         <f t="shared" si="4"/>
         <v>59.02985074626865</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="47">
         <f t="shared" si="5"/>
         <v>1.0605925595900956</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="72">
         <f t="shared" si="6"/>
         <v>-1.0298507462686501</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="61" t="s">
+      <c r="J17" s="73"/>
+      <c r="K17" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="56">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6830,27 +9634,27 @@
         <f>INTERCEPT(C3:C9,B3:B9)</f>
         <v>102.49253731343283</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <v>5</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="33">
         <v>90</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="43">
         <f t="shared" si="4"/>
         <v>84.383084577114431</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="47">
         <f t="shared" si="5"/>
         <v>31.549738867849769</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="72">
         <f t="shared" si="6"/>
         <v>5.6169154228855689</v>
       </c>
-      <c r="J18" s="79"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -6861,346 +9665,344 @@
         <f>SLOPE(C3:C9,B3:B9)</f>
         <v>-3.621890547263682</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="30">
         <v>8</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="35">
         <v>78</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="44">
         <f t="shared" si="4"/>
         <v>73.517412935323378</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="48">
         <f t="shared" si="5"/>
         <v>20.093586792406175</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="72">
         <f t="shared" si="6"/>
         <v>4.4825870646766219</v>
       </c>
-      <c r="J19" s="79"/>
+      <c r="J19" s="73"/>
       <c r="K19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="15" thickBot="1">
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="59">
         <f>C13^2</f>
         <v>0.89154228855721385</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="70">
         <f>SUM(H13:H19)</f>
         <v>183.29353233830832</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="70">
         <f>SUM(I13:I19)</f>
         <v>2.1316282072803006E-14</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62" t="s">
+      <c r="J20" s="73"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="62" t="s">
+      <c r="M20" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="62" t="s">
+      <c r="N20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="62" t="s">
+      <c r="O20" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="62" t="s">
+      <c r="P20" s="57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K21" s="60" t="s">
+    <row r="21" spans="1:19" ht="15" thickBot="1">
+      <c r="K21" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21">
         <v>1506.7064676616915</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21">
         <v>1506.7064676616915</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21">
         <v>41.100917431192663</v>
       </c>
-      <c r="P21" s="60">
+      <c r="P21">
         <v>1.3697467655579901E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="59" t="s">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
+      <c r="E22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="60" t="s">
+      <c r="K22" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="60">
+      <c r="L22">
         <v>5</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="71">
         <v>183.29353233830844</v>
       </c>
-      <c r="N22" s="60">
+      <c r="N22">
         <v>36.658706467661688</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="32">
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1">
+      <c r="E23" s="28">
         <v>7</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="53">
         <f>$C$18+$C$19*E23</f>
         <v>77.139303482587053</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="46">
         <f>FORECAST(E23,$F$13:$F$19,$E$13:$E$19)</f>
         <v>77.139303482587053</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="56">
         <v>6</v>
       </c>
-      <c r="M23" s="61">
+      <c r="M23" s="56">
         <v>1690</v>
       </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="34">
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1">
+      <c r="E24" s="30">
         <v>10</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="54">
         <f>$C$18+$C$19*E24</f>
         <v>66.273631840796014</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="48">
         <f>FORECAST(E24,$F$13:$F$19,$E$13:$E$19)</f>
         <v>66.273631840796014</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K25" s="62"/>
-      <c r="L25" s="62" t="s">
+    <row r="25" spans="1:19">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="62" t="s">
+      <c r="M25" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="62" t="s">
+      <c r="N25" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="62" t="s">
+      <c r="O25" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="62" t="s">
+      <c r="P25" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="62" t="s">
+      <c r="Q25" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="62" t="s">
+      <c r="R25" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="S25" s="62" t="s">
+      <c r="S25" s="57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K26" s="60" t="s">
+    <row r="26" spans="1:19">
+      <c r="K26" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26">
         <v>102.49253731343283</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26">
         <v>5.1380677404490225</v>
       </c>
-      <c r="N26" s="60">
+      <c r="N26">
         <v>19.947681208359445</v>
       </c>
-      <c r="O26" s="60">
+      <c r="O26">
         <v>5.8508415074810417E-6</v>
       </c>
-      <c r="P26" s="60">
+      <c r="P26">
         <v>89.284713709565651</v>
       </c>
-      <c r="Q26" s="60">
+      <c r="Q26">
         <v>115.70036091730002</v>
       </c>
-      <c r="R26" s="60">
+      <c r="R26">
         <v>89.284713709565651</v>
       </c>
-      <c r="S26" s="60">
+      <c r="S26">
         <v>115.70036091730002</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K27" s="61" t="s">
+    <row r="27" spans="1:19" ht="15" thickBot="1">
+      <c r="K27" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="61">
+      <c r="L27" s="56">
         <v>-3.6218905472636815</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="56">
         <v>0.56494941577112823</v>
       </c>
-      <c r="N27" s="61">
+      <c r="N27" s="56">
         <v>-6.4109997216653083</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="56">
         <v>1.3697467655579901E-3</v>
       </c>
-      <c r="P27" s="61">
+      <c r="P27" s="56">
         <v>-5.0741392534982923</v>
       </c>
-      <c r="Q27" s="61">
+      <c r="Q27" s="56">
         <v>-2.1696418410290708</v>
       </c>
-      <c r="R27" s="61">
+      <c r="R27" s="56">
         <v>-5.0741392534982923</v>
       </c>
-      <c r="S27" s="61">
+      <c r="S27" s="56">
         <v>-2.1696418410290708</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="20" t="s">
+    <row r="42" spans="2:9" ht="15" thickBot="1"/>
+    <row r="43" spans="2:9">
+      <c r="B43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="80">
+      <c r="C43" s="74">
         <v>6</v>
       </c>
-      <c r="D43" s="80">
+      <c r="D43" s="74">
         <v>2</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="74">
         <v>15</v>
       </c>
-      <c r="F43" s="80">
+      <c r="F43" s="74">
         <v>9</v>
       </c>
-      <c r="G43" s="80">
+      <c r="G43" s="74">
         <v>12</v>
       </c>
-      <c r="H43" s="80">
+      <c r="H43" s="74">
         <v>5</v>
       </c>
-      <c r="I43" s="81">
+      <c r="I43" s="75">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="82" t="s">
+    <row r="44" spans="2:9" ht="15" thickBot="1">
+      <c r="B44" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="34">
         <v>82</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="34">
         <v>86</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="34">
         <v>43</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="34">
         <v>74</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="34">
         <v>58</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="34">
         <v>90</v>
       </c>
-      <c r="I44" s="39">
+      <c r="I44" s="35">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="28" t="s">
+    <row r="45" spans="2:9" ht="15" thickBot="1"/>
+    <row r="46" spans="2:9" ht="15" thickBot="1">
+      <c r="B46" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="32">
+    <row r="47" spans="2:9">
+      <c r="B47" s="28">
         <v>6</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="32">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="33">
+    <row r="48" spans="2:9">
+      <c r="B48" s="29">
         <v>2</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="33">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="33">
+    <row r="49" spans="2:3">
+      <c r="B49" s="29">
         <v>15</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="33">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="33">
+    <row r="50" spans="2:3">
+      <c r="B50" s="29">
         <v>9</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="33">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="33">
+    <row r="51" spans="2:3">
+      <c r="B51" s="29">
         <v>12</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="33">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="33">
+    <row r="52" spans="2:3">
+      <c r="B52" s="29">
         <v>5</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="33">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="34">
+    <row r="53" spans="2:3" ht="15" thickBot="1">
+      <c r="B53" s="30">
         <v>8</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="35">
         <v>78</v>
       </c>
     </row>
@@ -7214,11 +10016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE346C2-1589-4C9C-954B-1816DBE1B705}">
   <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="16.1796875" customWidth="1"/>
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
@@ -7233,33 +10035,33 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="15" thickBot="1">
       <c r="C1" t="s">
         <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -7275,28 +10077,28 @@
       <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="20">
         <v>3.2</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="20">
         <v>22</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="21">
         <v>550</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="22">
         <f>$H$18+$H$19*K2+$H$20*L2</f>
         <v>555.36373267414149</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="21">
         <f>(M2-N2)^2</f>
         <v>28.769628199652999</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -7309,7 +10111,7 @@
       <c r="E3">
         <v>550</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="1">
@@ -7318,19 +10120,19 @@
       <c r="L3" s="1">
         <v>27</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="17">
         <v>570</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="15">
         <f t="shared" ref="N3:N6" si="0">$H$18+$H$19*K3+$H$20*L3</f>
         <v>584.20852829522391</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="17">
         <f t="shared" ref="O3:O6" si="1">(M3-N3)^2</f>
         <v>201.88227631617858</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -7343,11 +10145,11 @@
       <c r="E4">
         <v>570</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="J4" s="33" t="s">
+      <c r="H4" s="58"/>
+      <c r="J4" s="29" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="1">
@@ -7356,19 +10158,19 @@
       <c r="L4" s="1">
         <v>24</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="17">
         <v>525</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>523.08157499779293</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="17">
         <f t="shared" si="1"/>
         <v>3.6803544890932072</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -7381,13 +10183,13 @@
       <c r="E5">
         <v>525</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5">
         <v>0.98928820282730667</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="1">
@@ -7396,19 +10198,19 @@
       <c r="L5" s="1">
         <v>28</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="17">
         <v>670</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="15">
         <f t="shared" si="0"/>
         <v>660.08960889909076</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="17">
         <f t="shared" si="1"/>
         <v>98.215851772980997</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" ht="15" thickBot="1">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -7421,34 +10223,34 @@
       <c r="E6">
         <v>670</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6">
         <v>0.97869114825328229</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="18">
         <v>23</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="19">
         <v>490</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="67">
         <f t="shared" si="0"/>
         <v>482.25655513375125</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="19">
         <f t="shared" si="1"/>
         <v>59.960938396634141</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" ht="15" thickBot="1">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -7461,539 +10263,534 @@
       <c r="E7">
         <v>490</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7">
         <v>0.95738229650656459</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="60">
         <f>SUM(O2:O6)</f>
         <v>392.50904917453994</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G8" s="60" t="s">
+    <row r="8" spans="2:15" ht="15" thickBot="1">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8">
         <v>14.009087214635695</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="70" t="s">
+      <c r="M8" s="64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:15" ht="15" thickBot="1">
       <c r="C9" t="s">
         <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="56">
         <v>5</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="62">
         <v>3.5</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="63">
         <v>29</v>
       </c>
-      <c r="M9" s="71">
+      <c r="M9" s="65">
         <f>$H$18+$H$19*K9+$H$20*L9</f>
         <v>683.38659839321986</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62" t="s">
+    <row r="10" spans="2:15" ht="15" thickBot="1">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <v>2.6</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="19">
         <v>37</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="66">
         <f>$H$18+$H$19*K10+$H$20*L10</f>
         <v>720.77425620199529</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="60" t="s">
+    <row r="11" spans="2:15" ht="15" thickBot="1">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
       <c r="G11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="2:15">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12">
         <v>0.370743176051961</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62" t="s">
+      <c r="G12" s="57"/>
+      <c r="H12" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="61" t="s">
+    <row r="13" spans="2:15" ht="15" thickBot="1">
+      <c r="B13" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="56">
         <v>0.84476908232675274</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="56">
         <v>0.7913390215117152</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="56">
         <v>1</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13">
         <v>18027.49095082546</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13">
         <v>9013.7454754127302</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13">
         <v>45.928854350588743</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13">
         <v>2.1308851746717622E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="G14" s="60" t="s">
+    <row r="14" spans="2:15">
+      <c r="G14" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="59">
         <v>392.50904917453863</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14">
         <v>196.25452458726932</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-    </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G15" s="61" t="s">
+    </row>
+    <row r="15" spans="2:15" ht="15" thickBot="1">
+      <c r="G15" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="56">
         <v>4</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="56">
         <v>18420</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-    </row>
-    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G17" s="62"/>
-      <c r="H17" s="62" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1"/>
+    <row r="17" spans="3:15">
+      <c r="G17" s="57"/>
+      <c r="H17" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="62" t="s">
+      <c r="N17" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="62" t="s">
+      <c r="O17" s="57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G18" s="60" t="s">
+    <row r="18" spans="3:15">
+      <c r="G18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18">
         <v>-44.81018804626126</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18">
         <v>69.246866630890381</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18">
         <v>-0.64710780756499753</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18">
         <v>0.58391574508017841</v>
       </c>
-      <c r="L18" s="60">
+      <c r="L18">
         <v>-342.75540778225883</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18">
         <v>253.13503168973631</v>
       </c>
-      <c r="N18" s="60">
+      <c r="N18">
         <v>-342.75540778225883</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18">
         <v>253.13503168973631</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G19" s="60" t="s">
+    <row r="19" spans="3:15">
+      <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19">
         <v>87.640151849563026</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19">
         <v>15.237186664924886</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19">
         <v>5.7517279125618073</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19">
         <v>2.8922600815111749E-2</v>
       </c>
-      <c r="L19" s="60">
+      <c r="L19">
         <v>22.079829052021836</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M19">
         <v>153.20047464710422</v>
       </c>
-      <c r="N19" s="60">
+      <c r="N19">
         <v>22.079829052021836</v>
       </c>
-      <c r="O19" s="60">
+      <c r="O19">
         <v>153.20047464710422</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G20" s="61" t="s">
+    <row r="20" spans="3:15" ht="15" thickBot="1">
+      <c r="G20" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="56">
         <v>14.532974309172776</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="56">
         <v>2.9137375361504319</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="56">
         <v>4.9877431061870565</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="56">
         <v>3.7924876930238542E-2</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="56">
         <v>1.9961735454816427</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="56">
         <v>27.069775072863909</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="56">
         <v>1.9961735454816427</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="56">
         <v>27.069775072863909</v>
       </c>
     </row>
-    <row r="23" spans="3:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="C23" s="84" t="s">
+    <row r="23" spans="3:15" ht="29">
+      <c r="C23" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="84" t="s">
+      <c r="I23" s="78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C24" s="83">
+    <row r="24" spans="3:15">
+      <c r="C24" s="77">
         <v>39</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="77">
         <v>192</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="77">
         <v>1.2</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="77">
         <v>12.2</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="77">
         <f>D24-D$32</f>
         <v>-1.25</v>
       </c>
-      <c r="H24" s="83">
+      <c r="H24" s="77">
         <f t="shared" ref="H24:I31" si="2">E24-E$32</f>
         <v>-0.11250000000000004</v>
       </c>
-      <c r="I24" s="83">
+      <c r="I24" s="77">
         <f t="shared" si="2"/>
         <v>-0.88749999999999929</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C25" s="83">
+    <row r="25" spans="3:15">
+      <c r="C25" s="77">
         <v>29</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="77">
         <v>199</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="77">
         <v>1.4</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="77">
         <v>13.8</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="77">
         <f>D25-D$32</f>
         <v>5.75</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="77">
         <f t="shared" si="2"/>
         <v>8.7499999999999911E-2</v>
       </c>
-      <c r="I25" s="83">
+      <c r="I25" s="77">
         <f t="shared" si="2"/>
         <v>0.71250000000000213</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C26" s="83">
+    <row r="26" spans="3:15">
+      <c r="C26" s="77">
         <v>39</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="77">
         <v>196</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="77">
         <v>1.5</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="77">
         <v>12.8</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="77">
         <f t="shared" ref="G26:G31" si="3">D26-D$32</f>
         <v>2.75</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H26" s="77">
         <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="77">
         <f t="shared" si="2"/>
         <v>-0.28749999999999787</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C27" s="83">
+    <row r="27" spans="3:15">
+      <c r="C27" s="77">
         <v>39</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="77">
         <v>208</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="77">
         <v>1.3</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="77">
         <v>12.6</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G27" s="77">
         <f t="shared" si="3"/>
         <v>14.75</v>
       </c>
-      <c r="H27" s="83">
+      <c r="H27" s="77">
         <f t="shared" si="2"/>
         <v>-1.2499999999999956E-2</v>
       </c>
-      <c r="I27" s="83">
+      <c r="I27" s="77">
         <f t="shared" si="2"/>
         <v>-0.48749999999999893</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C28" s="83">
+    <row r="28" spans="3:15">
+      <c r="C28" s="77">
         <v>35</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="77">
         <v>202</v>
       </c>
-      <c r="E28" s="83">
+      <c r="E28" s="77">
         <v>1.2</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="77">
         <v>13.1</v>
       </c>
-      <c r="G28" s="83">
+      <c r="G28" s="77">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="H28" s="83">
+      <c r="H28" s="77">
         <f t="shared" si="2"/>
         <v>-0.11250000000000004</v>
       </c>
-      <c r="I28" s="83">
+      <c r="I28" s="77">
         <f t="shared" si="2"/>
         <v>1.2500000000001066E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C29" s="83">
+    <row r="29" spans="3:15">
+      <c r="C29" s="77">
         <v>32</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="77">
         <v>186</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="77">
         <v>1.4</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="77">
         <v>13.6</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="77">
         <f t="shared" si="3"/>
         <v>-7.25</v>
       </c>
-      <c r="H29" s="83">
+      <c r="H29" s="77">
         <f t="shared" si="2"/>
         <v>8.7499999999999911E-2</v>
       </c>
-      <c r="I29" s="83">
+      <c r="I29" s="77">
         <f t="shared" si="2"/>
         <v>0.51250000000000107</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C30" s="83">
+    <row r="30" spans="3:15">
+      <c r="C30" s="77">
         <v>33</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D30" s="77">
         <v>183</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="77">
         <v>1.2</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="77">
         <v>13.1</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="77">
         <f t="shared" si="3"/>
         <v>-10.25</v>
       </c>
-      <c r="H30" s="83">
+      <c r="H30" s="77">
         <f t="shared" si="2"/>
         <v>-0.11250000000000004</v>
       </c>
-      <c r="I30" s="83">
+      <c r="I30" s="77">
         <f t="shared" si="2"/>
         <v>1.2500000000001066E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C31" s="83">
+    <row r="31" spans="3:15">
+      <c r="C31" s="77">
         <v>30</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="77">
         <v>180</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="77">
         <v>1.3</v>
       </c>
-      <c r="F31" s="83">
+      <c r="F31" s="77">
         <v>13.5</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G31" s="77">
         <f t="shared" si="3"/>
         <v>-13.25</v>
       </c>
-      <c r="H31" s="83">
+      <c r="H31" s="77">
         <f t="shared" si="2"/>
         <v>-1.2499999999999956E-2</v>
       </c>
-      <c r="I31" s="83">
+      <c r="I31" s="77">
         <f t="shared" si="2"/>
         <v>0.41250000000000142</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:15">
       <c r="D32">
         <f t="shared" ref="D32:F32" si="4">AVERAGE(D24:D31)</f>
         <v>193.25</v>
@@ -8007,277 +10804,275 @@
         <v>13.087499999999999</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C34" s="85" t="s">
+    <row r="34" spans="3:8" ht="17.5">
+      <c r="C34" s="79" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:8">
       <c r="C36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C38" s="63" t="s">
+    <row r="37" spans="3:8" ht="15" thickBot="1"/>
+    <row r="38" spans="3:8">
+      <c r="C38" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="63"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C39" s="60" t="s">
+      <c r="D38" s="58"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39">
         <v>0.97702096639963076</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C40" s="60" t="s">
+    <row r="40" spans="3:8">
+      <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40">
         <v>0.95456996878446843</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C41" s="60" t="s">
+    <row r="41" spans="3:8">
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41">
         <v>0.92049744537281963</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C42" s="60" t="s">
+    <row r="42" spans="3:8">
+      <c r="C42" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42">
         <v>1.1674334826729733</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="61" t="s">
+    <row r="43" spans="3:8" ht="15" thickBot="1">
+      <c r="C43" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="56">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:8" ht="15" thickBot="1">
       <c r="C45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C46" s="62"/>
-      <c r="D46" s="62" t="s">
+    <row r="46" spans="3:8">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="62" t="s">
+      <c r="E46" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F46" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C47" s="60" t="s">
+    <row r="47" spans="3:8">
+      <c r="C47" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="60">
+      <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47">
         <v>114.54839625413621</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47">
         <v>38.182798751378733</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47">
         <v>28.015828392038639</v>
       </c>
-      <c r="H47" s="60">
+      <c r="H47">
         <v>3.8106794853956546E-3</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C48" s="60" t="s">
+    <row r="48" spans="3:8">
+      <c r="C48" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48">
         <v>5.4516037458637889</v>
       </c>
-      <c r="F48" s="60">
+      <c r="F48">
         <v>1.3629009364659472</v>
       </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-    </row>
-    <row r="49" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C49" s="61" t="s">
+    </row>
+    <row r="49" spans="3:11" ht="15" thickBot="1">
+      <c r="C49" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="56">
         <v>7</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="56">
         <v>120</v>
       </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-    </row>
-    <row r="50" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C51" s="62"/>
-      <c r="D51" s="62" t="s">
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+    </row>
+    <row r="50" spans="3:11" ht="15" thickBot="1"/>
+    <row r="51" spans="3:11">
+      <c r="C51" s="57"/>
+      <c r="D51" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="62" t="s">
+      <c r="F51" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="62" t="s">
+      <c r="G51" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="62" t="s">
+      <c r="H51" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="I51" s="62" t="s">
+      <c r="I51" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="J51" s="62" t="s">
+      <c r="J51" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="K51" s="62" t="s">
+      <c r="K51" s="57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C52" s="60" t="s">
+    <row r="52" spans="3:11">
+      <c r="C52" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52">
         <v>106.47245945254261</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52">
         <v>16.788994264807879</v>
       </c>
-      <c r="F52" s="60">
+      <c r="F52">
         <v>6.3418009306086924</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52">
         <v>3.1661710799404785E-3</v>
       </c>
-      <c r="H52" s="60">
+      <c r="H52">
         <v>59.858738504822945</v>
       </c>
-      <c r="I52" s="60">
+      <c r="I52">
         <v>153.08618040026226</v>
       </c>
-      <c r="J52" s="60">
+      <c r="J52">
         <v>59.858738504822945</v>
       </c>
-      <c r="K52" s="60">
+      <c r="K52">
         <v>153.08618040026226</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C53" s="60" t="s">
+    <row r="53" spans="3:11">
+      <c r="C53" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53">
         <v>6.5812688263095817E-2</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53">
         <v>4.8976823299058676E-2</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53">
         <v>1.3437516733422097</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53">
         <v>0.25019079703838232</v>
       </c>
-      <c r="H53" s="60">
+      <c r="H53">
         <v>-7.0168773053712899E-2</v>
       </c>
-      <c r="I53" s="60">
+      <c r="I53">
         <v>0.20179414957990455</v>
       </c>
-      <c r="J53" s="60">
+      <c r="J53">
         <v>-7.0168773053712899E-2</v>
       </c>
-      <c r="K53" s="60">
+      <c r="K53">
         <v>0.20179414957990455</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C54" s="60" t="s">
+    <row r="54" spans="3:11">
+      <c r="C54" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54">
         <v>9.3003211519449032</v>
       </c>
-      <c r="E54" s="60">
+      <c r="E54">
         <v>4.3052812041453157</v>
       </c>
-      <c r="F54" s="60">
+      <c r="F54">
         <v>2.1602122395605985</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54">
         <v>9.6866056507939668E-2</v>
       </c>
-      <c r="H54" s="60">
+      <c r="H54">
         <v>-2.6530557738044198</v>
       </c>
-      <c r="I54" s="60">
+      <c r="I54">
         <v>21.253698077694224</v>
       </c>
-      <c r="J54" s="60">
+      <c r="J54">
         <v>-2.6530557738044198</v>
       </c>
-      <c r="K54" s="60">
+      <c r="K54">
         <v>21.253698077694224</v>
       </c>
     </row>
-    <row r="55" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="61" t="s">
+    <row r="55" spans="3:11" ht="15" thickBot="1">
+      <c r="C55" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="56">
         <v>-7.4038153177699009</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="56">
         <v>0.94329664825259574</v>
       </c>
-      <c r="F55" s="61">
+      <c r="F55" s="56">
         <v>-7.8488727077373319</v>
       </c>
-      <c r="G55" s="61">
+      <c r="G55" s="56">
         <v>1.4234006520302469E-3</v>
       </c>
-      <c r="H55" s="61">
+      <c r="H55" s="56">
         <v>-10.022826679560305</v>
       </c>
-      <c r="I55" s="61">
+      <c r="I55" s="56">
         <v>-4.7848039559794966</v>
       </c>
-      <c r="J55" s="61">
+      <c r="J55" s="56">
         <v>-10.022826679560305</v>
       </c>
-      <c r="K55" s="61">
+      <c r="K55" s="56">
         <v>-4.7848039559794966</v>
       </c>
     </row>
@@ -8299,7 +11094,7 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" style="6" bestFit="1" customWidth="1"/>
@@ -8313,22 +11108,22 @@
     <col min="15" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:14" ht="14.5">
+      <c r="A2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="12">
         <v>50</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="12">
         <v>50</v>
       </c>
@@ -8339,7 +11134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -8349,7 +11144,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.5">
       <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
@@ -8387,7 +11182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.5">
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
@@ -8417,19 +11212,19 @@
         <v>300</v>
       </c>
       <c r="L5" s="7">
-        <f>$I5*L$2+$J5+$K5</f>
+        <f t="shared" ref="L5:N9" si="0">$I5*L$2+$J5+$K5</f>
         <v>12500</v>
       </c>
       <c r="M5" s="7">
-        <f>$I5*M$2+$J5+$K5</f>
+        <f t="shared" si="0"/>
         <v>14840</v>
       </c>
       <c r="N5" s="7">
-        <f>$I5*N$2+$J5+$K5</f>
+        <f t="shared" si="0"/>
         <v>17180</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.5">
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
@@ -8459,19 +11254,19 @@
         <v>500</v>
       </c>
       <c r="L6" s="7">
-        <f>$I6*L$2+$J6+$K6</f>
+        <f t="shared" si="0"/>
         <v>3800</v>
       </c>
       <c r="M6" s="7">
-        <f>$I6*M$2+$J6+$K6</f>
+        <f t="shared" si="0"/>
         <v>4260</v>
       </c>
       <c r="N6" s="7">
-        <f>$I6*N$2+$J6+$K6</f>
+        <f t="shared" si="0"/>
         <v>4720</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.5">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -8501,19 +11296,19 @@
         <v>400</v>
       </c>
       <c r="L7" s="7">
-        <f>$I7*L$2+$J7+$K7</f>
+        <f t="shared" si="0"/>
         <v>29950</v>
       </c>
       <c r="M7" s="7">
-        <f>$I7*M$2+$J7+$K7</f>
+        <f t="shared" si="0"/>
         <v>35710</v>
       </c>
       <c r="N7" s="7">
-        <f>$I7*N$2+$J7+$K7</f>
+        <f t="shared" si="0"/>
         <v>41470</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.5">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -8543,19 +11338,19 @@
         <v>200</v>
       </c>
       <c r="L8" s="7">
-        <f>$I8*L$2+$J8+$K8</f>
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
       <c r="M8" s="7">
-        <f>$I8*M$2+$J8+$K8</f>
+        <f t="shared" si="0"/>
         <v>1930</v>
       </c>
       <c r="N8" s="7">
-        <f>$I8*N$2+$J8+$K8</f>
+        <f t="shared" si="0"/>
         <v>2160</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.5">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -8585,15 +11380,15 @@
         <v>500</v>
       </c>
       <c r="L9" s="7">
-        <f>$I9*L$2+$J9+$K9</f>
+        <f t="shared" si="0"/>
         <v>3200</v>
       </c>
       <c r="M9" s="7">
-        <f>$I9*M$2+$J9+$K9</f>
+        <f t="shared" si="0"/>
         <v>3650</v>
       </c>
       <c r="N9" s="7">
-        <f>$I9*N$2+$J9+$K9</f>
+        <f t="shared" si="0"/>
         <v>4100</v>
       </c>
     </row>
@@ -8605,4 +11400,1621 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF453D8-A940-4D81-BD8D-96795D8C11B3}">
+  <dimension ref="B3:R43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="85"/>
+    <col min="2" max="2" width="12.90625" style="85" customWidth="1"/>
+    <col min="3" max="6" width="8.7265625" style="85"/>
+    <col min="7" max="7" width="14.1796875" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="8.7265625" style="85"/>
+    <col min="15" max="15" width="13.54296875" style="85" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" style="85" customWidth="1"/>
+    <col min="17" max="17" width="11" style="85" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16">
+      <c r="B3" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="91">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="86">
+        <v>1</v>
+      </c>
+      <c r="C4" s="87">
+        <v>15.85</v>
+      </c>
+      <c r="D4" s="87">
+        <v>16.02</v>
+      </c>
+      <c r="E4" s="87">
+        <v>15.83</v>
+      </c>
+      <c r="F4" s="87">
+        <v>15.93</v>
+      </c>
+      <c r="G4" s="87">
+        <f>AVERAGE(C4:F4)</f>
+        <v>15.907499999999999</v>
+      </c>
+      <c r="H4" s="87">
+        <f>MAX(C4:F4)-MIN(C4:F4)</f>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="I4" s="87">
+        <f>$O$4</f>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J4" s="87">
+        <f>$O$10</f>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K4" s="87">
+        <f>$O$11</f>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L4" s="87">
+        <f>$O$13</f>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M4" s="87">
+        <f>$O$14</f>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O4" s="88">
+        <f>AVERAGE(G4:G28)</f>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="P4" s="90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="86">
+        <v>2</v>
+      </c>
+      <c r="C5" s="87">
+        <v>16.12</v>
+      </c>
+      <c r="D5" s="87">
+        <v>16</v>
+      </c>
+      <c r="E5" s="87">
+        <v>15.85</v>
+      </c>
+      <c r="F5" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G5" s="87">
+        <f t="shared" ref="G5:G28" si="0">AVERAGE(C5:F5)</f>
+        <v>15.995000000000001</v>
+      </c>
+      <c r="H5" s="87">
+        <f t="shared" ref="H5:H28" si="1">MAX(C5:F5)-MIN(C5:F5)</f>
+        <v>0.27000000000000135</v>
+      </c>
+      <c r="I5" s="87">
+        <f t="shared" ref="I5:I28" si="2">$O$4</f>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J5" s="87">
+        <f t="shared" ref="J5:J28" si="3">$O$10</f>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K5" s="87">
+        <f t="shared" ref="K5:K28" si="4">$O$11</f>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L5" s="87">
+        <f t="shared" ref="L5:L28" si="5">$O$13</f>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M5" s="87">
+        <f t="shared" ref="M5:M28" si="6">$O$14</f>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O5" s="88">
+        <f>AVERAGE(H4:H28)</f>
+        <v>0.28680000000000017</v>
+      </c>
+      <c r="P5" s="89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="86">
+        <v>3</v>
+      </c>
+      <c r="C6" s="87">
+        <v>16</v>
+      </c>
+      <c r="D6" s="87">
+        <v>15.91</v>
+      </c>
+      <c r="E6" s="87">
+        <v>15.94</v>
+      </c>
+      <c r="F6" s="87">
+        <v>15.83</v>
+      </c>
+      <c r="G6" s="87">
+        <f t="shared" si="0"/>
+        <v>15.92</v>
+      </c>
+      <c r="H6" s="87">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="I6" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J6" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K6" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L6" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M6" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O6" s="91">
+        <v>3</v>
+      </c>
+      <c r="P6" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="86">
+        <v>4</v>
+      </c>
+      <c r="C7" s="87">
+        <v>16.2</v>
+      </c>
+      <c r="D7" s="87">
+        <v>15.85</v>
+      </c>
+      <c r="E7" s="87">
+        <v>15.74</v>
+      </c>
+      <c r="F7" s="87">
+        <v>15.93</v>
+      </c>
+      <c r="G7" s="87">
+        <f t="shared" si="0"/>
+        <v>15.93</v>
+      </c>
+      <c r="H7" s="87">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999908</v>
+      </c>
+      <c r="I7" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J7" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K7" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L7" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M7" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O7" s="85">
+        <f>COUNTA(C3:F3)</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="86">
+        <v>5</v>
+      </c>
+      <c r="C8" s="87">
+        <v>15.74</v>
+      </c>
+      <c r="D8" s="87">
+        <v>15.86</v>
+      </c>
+      <c r="E8" s="87">
+        <v>16.21</v>
+      </c>
+      <c r="F8" s="87">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G8" s="87">
+        <f t="shared" si="0"/>
+        <v>15.977500000000001</v>
+      </c>
+      <c r="H8" s="87">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="I8" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J8" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K8" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L8" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M8" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O8" s="85">
+        <f>COUNT(B4:B28)</f>
+        <v>25</v>
+      </c>
+      <c r="P8" s="89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="86">
+        <v>6</v>
+      </c>
+      <c r="C9" s="87">
+        <v>15.94</v>
+      </c>
+      <c r="D9" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="E9" s="87">
+        <v>16.14</v>
+      </c>
+      <c r="F9" s="87">
+        <v>16.03</v>
+      </c>
+      <c r="G9" s="87">
+        <f t="shared" si="0"/>
+        <v>16.03</v>
+      </c>
+      <c r="H9" s="87">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="I9" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J9" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K9" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L9" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M9" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O9" s="85">
+        <f>O3/SQRT(O7)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9" s="89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="86">
+        <v>7</v>
+      </c>
+      <c r="C10" s="87">
+        <v>15.75</v>
+      </c>
+      <c r="D10" s="87">
+        <v>16.21</v>
+      </c>
+      <c r="E10" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F10" s="87">
+        <v>15.86</v>
+      </c>
+      <c r="G10" s="87">
+        <f t="shared" si="0"/>
+        <v>15.9575</v>
+      </c>
+      <c r="H10" s="87">
+        <f t="shared" si="1"/>
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="I10" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J10" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K10" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L10" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M10" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O10" s="85">
+        <f>O4+O6*O9</f>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="P10" s="89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="86">
+        <v>8</v>
+      </c>
+      <c r="C11" s="87">
+        <v>15.82</v>
+      </c>
+      <c r="D11" s="87">
+        <v>15.94</v>
+      </c>
+      <c r="E11" s="87">
+        <v>16.02</v>
+      </c>
+      <c r="F11" s="87">
+        <v>15.94</v>
+      </c>
+      <c r="G11" s="87">
+        <f t="shared" si="0"/>
+        <v>15.93</v>
+      </c>
+      <c r="H11" s="87">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I11" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J11" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K11" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L11" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M11" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O11" s="85">
+        <f>O4-O6*O9</f>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="P11" s="89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="86">
+        <v>9</v>
+      </c>
+      <c r="C12" s="87">
+        <v>16.04</v>
+      </c>
+      <c r="D12" s="87">
+        <v>15.98</v>
+      </c>
+      <c r="E12" s="87">
+        <v>15.83</v>
+      </c>
+      <c r="F12" s="87">
+        <v>15.98</v>
+      </c>
+      <c r="G12" s="87">
+        <f t="shared" si="0"/>
+        <v>15.9575</v>
+      </c>
+      <c r="H12" s="87">
+        <f t="shared" si="1"/>
+        <v>0.20999999999999908</v>
+      </c>
+      <c r="I12" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J12" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K12" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L12" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M12" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O12" s="85">
+        <f>VLOOKUP(O7,O20:R43,2,FALSE)</f>
+        <v>0.73</v>
+      </c>
+      <c r="P12" s="89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="86">
+        <v>10</v>
+      </c>
+      <c r="C13" s="87">
+        <v>15.64</v>
+      </c>
+      <c r="D13" s="87">
+        <v>15.86</v>
+      </c>
+      <c r="E13" s="87">
+        <v>15.94</v>
+      </c>
+      <c r="F13" s="87">
+        <v>15.89</v>
+      </c>
+      <c r="G13" s="87">
+        <f t="shared" si="0"/>
+        <v>15.8325</v>
+      </c>
+      <c r="H13" s="87">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="I13" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J13" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K13" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L13" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M13" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O13" s="85">
+        <f>O4+O12*O5</f>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="P13" s="89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="86">
+        <v>11</v>
+      </c>
+      <c r="C14" s="87">
+        <v>16.11</v>
+      </c>
+      <c r="D14" s="87">
+        <v>16</v>
+      </c>
+      <c r="E14" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F14" s="87">
+        <v>15.82</v>
+      </c>
+      <c r="G14" s="87">
+        <f t="shared" si="0"/>
+        <v>15.985000000000001</v>
+      </c>
+      <c r="H14" s="87">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="I14" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J14" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K14" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L14" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M14" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O14" s="85">
+        <f>O4-O12*O5</f>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="P14" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="86">
+        <v>12</v>
+      </c>
+      <c r="C15" s="87">
+        <v>15.72</v>
+      </c>
+      <c r="D15" s="87">
+        <v>15.85</v>
+      </c>
+      <c r="E15" s="87">
+        <v>16.12</v>
+      </c>
+      <c r="F15" s="87">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="G15" s="87">
+        <f t="shared" si="0"/>
+        <v>15.959999999999999</v>
+      </c>
+      <c r="H15" s="87">
+        <f t="shared" si="1"/>
+        <v>0.42999999999999794</v>
+      </c>
+      <c r="I15" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J15" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K15" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L15" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M15" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="86">
+        <v>13</v>
+      </c>
+      <c r="C16" s="87">
+        <v>15.85</v>
+      </c>
+      <c r="D16" s="87">
+        <v>15.76</v>
+      </c>
+      <c r="E16" s="87">
+        <v>15.74</v>
+      </c>
+      <c r="F16" s="87">
+        <v>15.98</v>
+      </c>
+      <c r="G16" s="87">
+        <f t="shared" si="0"/>
+        <v>15.8325</v>
+      </c>
+      <c r="H16" s="87">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="I16" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J16" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K16" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L16" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M16" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="86">
+        <v>14</v>
+      </c>
+      <c r="C17" s="87">
+        <v>15.73</v>
+      </c>
+      <c r="D17" s="87">
+        <v>15.84</v>
+      </c>
+      <c r="E17" s="87">
+        <v>15.96</v>
+      </c>
+      <c r="F17" s="87">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G17" s="87">
+        <f t="shared" si="0"/>
+        <v>15.907500000000001</v>
+      </c>
+      <c r="H17" s="87">
+        <f t="shared" si="1"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="I17" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J17" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K17" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L17" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M17" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="86">
+        <v>15</v>
+      </c>
+      <c r="C18" s="87">
+        <v>16.2</v>
+      </c>
+      <c r="D18" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="E18" s="87">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F18" s="87">
+        <v>15.89</v>
+      </c>
+      <c r="G18" s="87">
+        <f t="shared" si="0"/>
+        <v>16.05</v>
+      </c>
+      <c r="H18" s="87">
+        <f t="shared" si="1"/>
+        <v>0.30999999999999872</v>
+      </c>
+      <c r="I18" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J18" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K18" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L18" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M18" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="R18" s="98"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="86">
+        <v>16</v>
+      </c>
+      <c r="C19" s="87">
+        <v>16.12</v>
+      </c>
+      <c r="D19" s="87">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="E19" s="87">
+        <v>15.83</v>
+      </c>
+      <c r="F19" s="87">
+        <v>15.94</v>
+      </c>
+      <c r="G19" s="87">
+        <f t="shared" si="0"/>
+        <v>15.9925</v>
+      </c>
+      <c r="H19" s="87">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000092</v>
+      </c>
+      <c r="I19" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J19" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K19" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L19" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M19" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O19" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" s="94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="86">
+        <v>17</v>
+      </c>
+      <c r="C20" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D20" s="87">
+        <v>15.93</v>
+      </c>
+      <c r="E20" s="87">
+        <v>15.81</v>
+      </c>
+      <c r="F20" s="87">
+        <v>15.68</v>
+      </c>
+      <c r="G20" s="87">
+        <f t="shared" si="0"/>
+        <v>15.8575</v>
+      </c>
+      <c r="H20" s="87">
+        <f t="shared" si="1"/>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="I20" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J20" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K20" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L20" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M20" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O20" s="95">
+        <v>2</v>
+      </c>
+      <c r="P20" s="96">
+        <v>1.88</v>
+      </c>
+      <c r="Q20" s="97">
+        <v>0</v>
+      </c>
+      <c r="R20" s="96">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="86">
+        <v>18</v>
+      </c>
+      <c r="C21" s="87">
+        <v>15.78</v>
+      </c>
+      <c r="D21" s="87">
+        <v>16.04</v>
+      </c>
+      <c r="E21" s="87">
+        <v>16.11</v>
+      </c>
+      <c r="F21" s="87">
+        <v>16.12</v>
+      </c>
+      <c r="G21" s="87">
+        <f t="shared" si="0"/>
+        <v>16.012499999999999</v>
+      </c>
+      <c r="H21" s="87">
+        <f t="shared" si="1"/>
+        <v>0.34000000000000163</v>
+      </c>
+      <c r="I21" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J21" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K21" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L21" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M21" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O21" s="95">
+        <v>3</v>
+      </c>
+      <c r="P21" s="96">
+        <v>1.02</v>
+      </c>
+      <c r="Q21" s="97">
+        <v>0</v>
+      </c>
+      <c r="R21" s="96">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="86">
+        <v>19</v>
+      </c>
+      <c r="C22" s="87">
+        <v>15.84</v>
+      </c>
+      <c r="D22" s="87">
+        <v>15.92</v>
+      </c>
+      <c r="E22" s="87">
+        <v>16.05</v>
+      </c>
+      <c r="F22" s="87">
+        <v>16.12</v>
+      </c>
+      <c r="G22" s="87">
+        <f t="shared" si="0"/>
+        <v>15.982500000000002</v>
+      </c>
+      <c r="H22" s="87">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="I22" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J22" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K22" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L22" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M22" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O22" s="95">
+        <v>4</v>
+      </c>
+      <c r="P22" s="96">
+        <v>0.73</v>
+      </c>
+      <c r="Q22" s="97">
+        <v>0</v>
+      </c>
+      <c r="R22" s="96">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="86">
+        <v>20</v>
+      </c>
+      <c r="C23" s="87">
+        <v>15.92</v>
+      </c>
+      <c r="D23" s="87">
+        <v>16.09</v>
+      </c>
+      <c r="E23" s="87">
+        <v>16.12</v>
+      </c>
+      <c r="F23" s="87">
+        <v>15.93</v>
+      </c>
+      <c r="G23" s="87">
+        <f t="shared" si="0"/>
+        <v>16.015000000000001</v>
+      </c>
+      <c r="H23" s="87">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="I23" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J23" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K23" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L23" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M23" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O23" s="95">
+        <v>5</v>
+      </c>
+      <c r="P23" s="96">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q23" s="97">
+        <v>0</v>
+      </c>
+      <c r="R23" s="96">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="86">
+        <v>21</v>
+      </c>
+      <c r="C24" s="87">
+        <v>16.11</v>
+      </c>
+      <c r="D24" s="87">
+        <v>16.02</v>
+      </c>
+      <c r="E24" s="87">
+        <v>16</v>
+      </c>
+      <c r="F24" s="87">
+        <v>15.88</v>
+      </c>
+      <c r="G24" s="87">
+        <f t="shared" si="0"/>
+        <v>16.002499999999998</v>
+      </c>
+      <c r="H24" s="87">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999865</v>
+      </c>
+      <c r="I24" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J24" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K24" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L24" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M24" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O24" s="95">
+        <v>6</v>
+      </c>
+      <c r="P24" s="96">
+        <v>0.48</v>
+      </c>
+      <c r="Q24" s="97">
+        <v>0</v>
+      </c>
+      <c r="R24" s="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="86">
+        <v>22</v>
+      </c>
+      <c r="C25" s="87">
+        <v>15.98</v>
+      </c>
+      <c r="D25" s="87">
+        <v>15.82</v>
+      </c>
+      <c r="E25" s="87">
+        <v>15.89</v>
+      </c>
+      <c r="F25" s="87">
+        <v>15.89</v>
+      </c>
+      <c r="G25" s="87">
+        <f t="shared" si="0"/>
+        <v>15.895</v>
+      </c>
+      <c r="H25" s="87">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="I25" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J25" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K25" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L25" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M25" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O25" s="95">
+        <v>7</v>
+      </c>
+      <c r="P25" s="96">
+        <v>0.42</v>
+      </c>
+      <c r="Q25" s="96">
+        <v>0.08</v>
+      </c>
+      <c r="R25" s="96">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="86">
+        <v>23</v>
+      </c>
+      <c r="C26" s="87">
+        <v>16.05</v>
+      </c>
+      <c r="D26" s="87">
+        <v>15.73</v>
+      </c>
+      <c r="E26" s="87">
+        <v>15.73</v>
+      </c>
+      <c r="F26" s="87">
+        <v>15.93</v>
+      </c>
+      <c r="G26" s="87">
+        <f t="shared" si="0"/>
+        <v>15.860000000000001</v>
+      </c>
+      <c r="H26" s="87">
+        <f t="shared" si="1"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="I26" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J26" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K26" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L26" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M26" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O26" s="95">
+        <v>8</v>
+      </c>
+      <c r="P26" s="96">
+        <v>0.37</v>
+      </c>
+      <c r="Q26" s="96">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R26" s="96">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="86">
+        <v>24</v>
+      </c>
+      <c r="C27" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D27" s="87">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="E27" s="87">
+        <v>15.89</v>
+      </c>
+      <c r="F27" s="87">
+        <v>15.86</v>
+      </c>
+      <c r="G27" s="87">
+        <f t="shared" si="0"/>
+        <v>15.942500000000001</v>
+      </c>
+      <c r="H27" s="87">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="I27" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J27" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K27" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L27" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M27" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O27" s="95">
+        <v>9</v>
+      </c>
+      <c r="P27" s="96">
+        <v>0.34</v>
+      </c>
+      <c r="Q27" s="96">
+        <v>0.18</v>
+      </c>
+      <c r="R27" s="96">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="86">
+        <v>25</v>
+      </c>
+      <c r="C28" s="87">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="D28" s="87">
+        <v>15.78</v>
+      </c>
+      <c r="E28" s="87">
+        <v>15.92</v>
+      </c>
+      <c r="F28" s="87">
+        <v>15.98</v>
+      </c>
+      <c r="G28" s="87">
+        <f t="shared" si="0"/>
+        <v>15.940000000000001</v>
+      </c>
+      <c r="H28" s="87">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="I28" s="87">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="J28" s="87">
+        <f t="shared" si="3"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="K28" s="87">
+        <f t="shared" si="4"/>
+        <v>15.736900000000002</v>
+      </c>
+      <c r="L28" s="87">
+        <f t="shared" si="5"/>
+        <v>16.156264000000004</v>
+      </c>
+      <c r="M28" s="87">
+        <f t="shared" si="6"/>
+        <v>15.737536000000002</v>
+      </c>
+      <c r="O28" s="95">
+        <v>10</v>
+      </c>
+      <c r="P28" s="96">
+        <v>0.31</v>
+      </c>
+      <c r="Q28" s="96">
+        <v>0.22</v>
+      </c>
+      <c r="R28" s="96">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="O29" s="95">
+        <v>11</v>
+      </c>
+      <c r="P29" s="96">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q29" s="96">
+        <v>0.26</v>
+      </c>
+      <c r="R29" s="96">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="O30" s="95">
+        <v>12</v>
+      </c>
+      <c r="P30" s="96">
+        <v>0.27</v>
+      </c>
+      <c r="Q30" s="96">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R30" s="96">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="O31" s="95">
+        <v>13</v>
+      </c>
+      <c r="P31" s="96">
+        <v>0.25</v>
+      </c>
+      <c r="Q31" s="96">
+        <v>0.31</v>
+      </c>
+      <c r="R31" s="96">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="O32" s="95">
+        <v>14</v>
+      </c>
+      <c r="P32" s="96">
+        <v>0.24</v>
+      </c>
+      <c r="Q32" s="96">
+        <v>0.33</v>
+      </c>
+      <c r="R32" s="96">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18">
+      <c r="O33" s="95">
+        <v>15</v>
+      </c>
+      <c r="P33" s="96">
+        <v>0.22</v>
+      </c>
+      <c r="Q33" s="96">
+        <v>0.35</v>
+      </c>
+      <c r="R33" s="96">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18">
+      <c r="O34" s="95">
+        <v>16</v>
+      </c>
+      <c r="P34" s="96">
+        <v>0.21</v>
+      </c>
+      <c r="Q34" s="96">
+        <v>0.36</v>
+      </c>
+      <c r="R34" s="96">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18">
+      <c r="O35" s="95">
+        <v>17</v>
+      </c>
+      <c r="P35" s="96">
+        <v>0.2</v>
+      </c>
+      <c r="Q35" s="96">
+        <v>0.38</v>
+      </c>
+      <c r="R35" s="96">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18">
+      <c r="O36" s="95">
+        <v>18</v>
+      </c>
+      <c r="P36" s="96">
+        <v>0.19</v>
+      </c>
+      <c r="Q36" s="96">
+        <v>0.39</v>
+      </c>
+      <c r="R36" s="96">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18">
+      <c r="O37" s="95">
+        <v>19</v>
+      </c>
+      <c r="P37" s="96">
+        <v>0.19</v>
+      </c>
+      <c r="Q37" s="96">
+        <v>0.4</v>
+      </c>
+      <c r="R37" s="96">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18">
+      <c r="O38" s="95">
+        <v>20</v>
+      </c>
+      <c r="P38" s="96">
+        <v>0.18</v>
+      </c>
+      <c r="Q38" s="96">
+        <v>0.41</v>
+      </c>
+      <c r="R38" s="96">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18">
+      <c r="O39" s="95">
+        <v>21</v>
+      </c>
+      <c r="P39" s="96">
+        <v>0.17</v>
+      </c>
+      <c r="Q39" s="96">
+        <v>0.43</v>
+      </c>
+      <c r="R39" s="96">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18">
+      <c r="O40" s="95">
+        <v>22</v>
+      </c>
+      <c r="P40" s="96">
+        <v>0.17</v>
+      </c>
+      <c r="Q40" s="96">
+        <v>0.43</v>
+      </c>
+      <c r="R40" s="96">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18">
+      <c r="O41" s="95">
+        <v>23</v>
+      </c>
+      <c r="P41" s="96">
+        <v>0.16</v>
+      </c>
+      <c r="Q41" s="96">
+        <v>0.44</v>
+      </c>
+      <c r="R41" s="96">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18">
+      <c r="O42" s="95">
+        <v>24</v>
+      </c>
+      <c r="P42" s="96">
+        <v>0.16</v>
+      </c>
+      <c r="Q42" s="96">
+        <v>0.45</v>
+      </c>
+      <c r="R42" s="96">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18">
+      <c r="O43" s="95">
+        <v>25</v>
+      </c>
+      <c r="P43" s="96">
+        <v>0.15</v>
+      </c>
+      <c r="Q43" s="96">
+        <v>0.46</v>
+      </c>
+      <c r="R43" s="96">
+        <v>1.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q18:R18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G4:G28 H4:H28" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Deloitte ClassWork.xlsx
+++ b/Deloitte ClassWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arnab Docs\Six Sigma\SS Study Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB4E33-BD5E-49FC-BEE8-F6C3C2FA56A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE119CD2-C2FF-4DBD-A8EA-D44915537693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,36 @@
     <sheet name="X-Bar &amp; R Control Chart (2)" sheetId="7" r:id="rId6"/>
     <sheet name="P Chart" sheetId="6" r:id="rId7"/>
     <sheet name="C Chart" sheetId="8" r:id="rId8"/>
+    <sheet name="One Way ANOVA" sheetId="9" r:id="rId9"/>
+    <sheet name="One-Way ANOVA (Calculations)" sheetId="10" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="__shared_1_0_0">#REF!*#REF!^#REF!</definedName>
+    <definedName name="__shared_10_0_0">SUM(#REF!)</definedName>
+    <definedName name="__shared_12_0_0">SUM(#REF!)</definedName>
+    <definedName name="__shared_13_0_0">SUM(#REF!)</definedName>
+    <definedName name="__shared_19_0_0">SUM(#REF!)</definedName>
+    <definedName name="__shared_2_0_0">SUM(#REF!)</definedName>
+    <definedName name="__shared_25_0_0">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_1">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_10">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_11">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_12">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_2">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_3">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_4">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_5">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_6">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_7">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_8">YEAR(#REF!)</definedName>
+    <definedName name="__shared_25_0_9">YEAR(#REF!)</definedName>
+    <definedName name="__shared_3_0_1">SUM(#REF!)</definedName>
+    <definedName name="__shared_9_0_0">SUM(#REF!)</definedName>
+    <definedName name="OLE_LINK1" localSheetId="9">'One-Way ANOVA (Calculations)'!$A$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="217">
   <si>
     <t>Name</t>
   </si>
@@ -545,19 +574,538 @@
   <si>
     <t>CL-c-bar</t>
   </si>
+  <si>
+    <t>Reliability Problem Solve:</t>
+  </si>
+  <si>
+    <t>Machine A</t>
+  </si>
+  <si>
+    <t>Machine B</t>
+  </si>
+  <si>
+    <t>Machine C</t>
+  </si>
+  <si>
+    <t>Machine D</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Source of</t>
+  </si>
+  <si>
+    <t>Variation</t>
+  </si>
+  <si>
+    <t>Sum of</t>
+  </si>
+  <si>
+    <t>Squares</t>
+  </si>
+  <si>
+    <t>Degrees of</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>F-Statistic</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>k-1</t>
+  </si>
+  <si>
+    <t>MST = SST/(k-1)</t>
+  </si>
+  <si>
+    <t>F = MST/MSE</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>N-k</t>
+  </si>
+  <si>
+    <t>MSE = SSE/(N-k)</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>N-1</t>
+  </si>
+  <si>
+    <t>N =</t>
+  </si>
+  <si>
+    <t>Sum All =</t>
+  </si>
+  <si>
+    <t>k =</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>The null hypothesis being tested in a one-way ANOVA is:</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: All treatment means are equal.</t>
+    </r>
+  </si>
+  <si>
+    <t>The alternate hypothesis is:</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: At least one of the treatment means is different.</t>
+    </r>
+  </si>
+  <si>
+    <t>SST = sum of squares between treatments</t>
+  </si>
+  <si>
+    <t>http://www.socr.ucla.edu/Applets.dir/F_Table.html</t>
+  </si>
+  <si>
+    <r>
+      <t>(F Table for α = 0.05, df</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 3 and df</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 26)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum of Squares</t>
+  </si>
+  <si>
+    <t>Degrees of Freedom</t>
+  </si>
+  <si>
+    <t>Mean Square</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = the sum of observations for treatment </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Between Treatments</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.. = the sum of all observations.</t>
+    </r>
+  </si>
+  <si>
+    <t>SSE = sum of squares due to error.</t>
+  </si>
+  <si>
+    <t>SSE = TSS - SST</t>
+  </si>
+  <si>
+    <t>TSS = total sum of squares.</t>
+  </si>
+  <si>
+    <t>The sum of all 30 observations is 1,540.1. The sum of the square of the 30 observations is 79,281.35. The total sum of squares is:</t>
+  </si>
+  <si>
+    <t>The sum of the 8 observations for Machine A is 398.0. The sum of the 7 observations for Machine B is 368.5. The sum of the 7 observations for Machine C is 364.0.</t>
+  </si>
+  <si>
+    <t>The sum of the 8 observations for Machine D is 409.6. The sum of squares between treatments is:</t>
+  </si>
+  <si>
+    <t>The sum of squares for the error term is the difference between the total sum of squares and the sum of squares between treatments.</t>
+  </si>
+  <si>
+    <t>MST = mean square for treatments.</t>
+  </si>
+  <si>
+    <t>SSE = 217.75 - 35.31 = 182.44</t>
+  </si>
+  <si>
+    <t>MSE = mean square for error.</t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = number of treatment levels.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = number of runs at a particular level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = total number of runs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = the calculated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> statistic with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1 and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> degrees of freedom.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum of the Square of the Original Values =</t>
+  </si>
+  <si>
+    <t>(Original Values)</t>
+  </si>
+  <si>
+    <t>(Square of the Original Values)</t>
+  </si>
+  <si>
+    <r>
+      <t>If the calculated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is greater than the critical </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> value then reject the null hypothesis (i.e., all the means are not statistically the same at the value chosen.)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +1213,117 @@
       <color rgb="FF000000"/>
       <name val="Minion-Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +1383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1276,16 +1939,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1436,6 +2150,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1448,73 +2206,113 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="36" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{1CE3034F-48B4-430A-BFC6-D10E666CEBA4}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{CA527122-591A-43EB-9244-3271D876988E}"/>
@@ -16513,6 +17311,279 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9970FCC8-52CA-4C55-B5EE-A13C9206FB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="63500" y="3346450"/>
+          <a:ext cx="1758315" cy="626110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B22F05A-4EED-41EA-AE76-0D418379681E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="50800" y="4864100"/>
+          <a:ext cx="1892300" cy="689610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8A0F37-D24B-4A2A-983F-B9D286B2C141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7543800" y="3714750"/>
+          <a:ext cx="2686050" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C0C537-3A65-44DE-8C3C-9B4C769527F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7550150" y="4318000"/>
+          <a:ext cx="4203700" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="One-Way ANOVA"/>
+      <sheetName val="One-Way ANOVA (Calculations)"/>
+      <sheetName val="Two-Way ANOVA"/>
+      <sheetName val="Multi-Factor ANOVA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16778,7 +17849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -17174,6 +18245,1432 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E61971-B87E-4C18-963B-A6A3640C3C0A}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="2" width="10.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="6"/>
+    <col min="6" max="6" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7265625" style="6"/>
+    <col min="10" max="10" width="9.81640625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="8.7265625" style="6"/>
+    <col min="14" max="14" width="17.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="256" width="8.7265625" style="6"/>
+    <col min="257" max="258" width="10.54296875" style="6" customWidth="1"/>
+    <col min="259" max="259" width="11" style="6" customWidth="1"/>
+    <col min="260" max="260" width="11.54296875" style="6" customWidth="1"/>
+    <col min="261" max="261" width="8.7265625" style="6"/>
+    <col min="262" max="262" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="263" max="512" width="8.7265625" style="6"/>
+    <col min="513" max="514" width="10.54296875" style="6" customWidth="1"/>
+    <col min="515" max="515" width="11" style="6" customWidth="1"/>
+    <col min="516" max="516" width="11.54296875" style="6" customWidth="1"/>
+    <col min="517" max="517" width="8.7265625" style="6"/>
+    <col min="518" max="518" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="519" max="768" width="8.7265625" style="6"/>
+    <col min="769" max="770" width="10.54296875" style="6" customWidth="1"/>
+    <col min="771" max="771" width="11" style="6" customWidth="1"/>
+    <col min="772" max="772" width="11.54296875" style="6" customWidth="1"/>
+    <col min="773" max="773" width="8.7265625" style="6"/>
+    <col min="774" max="774" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="775" max="1024" width="8.7265625" style="6"/>
+    <col min="1025" max="1026" width="10.54296875" style="6" customWidth="1"/>
+    <col min="1027" max="1027" width="11" style="6" customWidth="1"/>
+    <col min="1028" max="1028" width="11.54296875" style="6" customWidth="1"/>
+    <col min="1029" max="1029" width="8.7265625" style="6"/>
+    <col min="1030" max="1030" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1280" width="8.7265625" style="6"/>
+    <col min="1281" max="1282" width="10.54296875" style="6" customWidth="1"/>
+    <col min="1283" max="1283" width="11" style="6" customWidth="1"/>
+    <col min="1284" max="1284" width="11.54296875" style="6" customWidth="1"/>
+    <col min="1285" max="1285" width="8.7265625" style="6"/>
+    <col min="1286" max="1286" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1536" width="8.7265625" style="6"/>
+    <col min="1537" max="1538" width="10.54296875" style="6" customWidth="1"/>
+    <col min="1539" max="1539" width="11" style="6" customWidth="1"/>
+    <col min="1540" max="1540" width="11.54296875" style="6" customWidth="1"/>
+    <col min="1541" max="1541" width="8.7265625" style="6"/>
+    <col min="1542" max="1542" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1792" width="8.7265625" style="6"/>
+    <col min="1793" max="1794" width="10.54296875" style="6" customWidth="1"/>
+    <col min="1795" max="1795" width="11" style="6" customWidth="1"/>
+    <col min="1796" max="1796" width="11.54296875" style="6" customWidth="1"/>
+    <col min="1797" max="1797" width="8.7265625" style="6"/>
+    <col min="1798" max="1798" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2048" width="8.7265625" style="6"/>
+    <col min="2049" max="2050" width="10.54296875" style="6" customWidth="1"/>
+    <col min="2051" max="2051" width="11" style="6" customWidth="1"/>
+    <col min="2052" max="2052" width="11.54296875" style="6" customWidth="1"/>
+    <col min="2053" max="2053" width="8.7265625" style="6"/>
+    <col min="2054" max="2054" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2304" width="8.7265625" style="6"/>
+    <col min="2305" max="2306" width="10.54296875" style="6" customWidth="1"/>
+    <col min="2307" max="2307" width="11" style="6" customWidth="1"/>
+    <col min="2308" max="2308" width="11.54296875" style="6" customWidth="1"/>
+    <col min="2309" max="2309" width="8.7265625" style="6"/>
+    <col min="2310" max="2310" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2560" width="8.7265625" style="6"/>
+    <col min="2561" max="2562" width="10.54296875" style="6" customWidth="1"/>
+    <col min="2563" max="2563" width="11" style="6" customWidth="1"/>
+    <col min="2564" max="2564" width="11.54296875" style="6" customWidth="1"/>
+    <col min="2565" max="2565" width="8.7265625" style="6"/>
+    <col min="2566" max="2566" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2816" width="8.7265625" style="6"/>
+    <col min="2817" max="2818" width="10.54296875" style="6" customWidth="1"/>
+    <col min="2819" max="2819" width="11" style="6" customWidth="1"/>
+    <col min="2820" max="2820" width="11.54296875" style="6" customWidth="1"/>
+    <col min="2821" max="2821" width="8.7265625" style="6"/>
+    <col min="2822" max="2822" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3072" width="8.7265625" style="6"/>
+    <col min="3073" max="3074" width="10.54296875" style="6" customWidth="1"/>
+    <col min="3075" max="3075" width="11" style="6" customWidth="1"/>
+    <col min="3076" max="3076" width="11.54296875" style="6" customWidth="1"/>
+    <col min="3077" max="3077" width="8.7265625" style="6"/>
+    <col min="3078" max="3078" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3328" width="8.7265625" style="6"/>
+    <col min="3329" max="3330" width="10.54296875" style="6" customWidth="1"/>
+    <col min="3331" max="3331" width="11" style="6" customWidth="1"/>
+    <col min="3332" max="3332" width="11.54296875" style="6" customWidth="1"/>
+    <col min="3333" max="3333" width="8.7265625" style="6"/>
+    <col min="3334" max="3334" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3584" width="8.7265625" style="6"/>
+    <col min="3585" max="3586" width="10.54296875" style="6" customWidth="1"/>
+    <col min="3587" max="3587" width="11" style="6" customWidth="1"/>
+    <col min="3588" max="3588" width="11.54296875" style="6" customWidth="1"/>
+    <col min="3589" max="3589" width="8.7265625" style="6"/>
+    <col min="3590" max="3590" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3840" width="8.7265625" style="6"/>
+    <col min="3841" max="3842" width="10.54296875" style="6" customWidth="1"/>
+    <col min="3843" max="3843" width="11" style="6" customWidth="1"/>
+    <col min="3844" max="3844" width="11.54296875" style="6" customWidth="1"/>
+    <col min="3845" max="3845" width="8.7265625" style="6"/>
+    <col min="3846" max="3846" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4096" width="8.7265625" style="6"/>
+    <col min="4097" max="4098" width="10.54296875" style="6" customWidth="1"/>
+    <col min="4099" max="4099" width="11" style="6" customWidth="1"/>
+    <col min="4100" max="4100" width="11.54296875" style="6" customWidth="1"/>
+    <col min="4101" max="4101" width="8.7265625" style="6"/>
+    <col min="4102" max="4102" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4352" width="8.7265625" style="6"/>
+    <col min="4353" max="4354" width="10.54296875" style="6" customWidth="1"/>
+    <col min="4355" max="4355" width="11" style="6" customWidth="1"/>
+    <col min="4356" max="4356" width="11.54296875" style="6" customWidth="1"/>
+    <col min="4357" max="4357" width="8.7265625" style="6"/>
+    <col min="4358" max="4358" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4608" width="8.7265625" style="6"/>
+    <col min="4609" max="4610" width="10.54296875" style="6" customWidth="1"/>
+    <col min="4611" max="4611" width="11" style="6" customWidth="1"/>
+    <col min="4612" max="4612" width="11.54296875" style="6" customWidth="1"/>
+    <col min="4613" max="4613" width="8.7265625" style="6"/>
+    <col min="4614" max="4614" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4864" width="8.7265625" style="6"/>
+    <col min="4865" max="4866" width="10.54296875" style="6" customWidth="1"/>
+    <col min="4867" max="4867" width="11" style="6" customWidth="1"/>
+    <col min="4868" max="4868" width="11.54296875" style="6" customWidth="1"/>
+    <col min="4869" max="4869" width="8.7265625" style="6"/>
+    <col min="4870" max="4870" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5120" width="8.7265625" style="6"/>
+    <col min="5121" max="5122" width="10.54296875" style="6" customWidth="1"/>
+    <col min="5123" max="5123" width="11" style="6" customWidth="1"/>
+    <col min="5124" max="5124" width="11.54296875" style="6" customWidth="1"/>
+    <col min="5125" max="5125" width="8.7265625" style="6"/>
+    <col min="5126" max="5126" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5376" width="8.7265625" style="6"/>
+    <col min="5377" max="5378" width="10.54296875" style="6" customWidth="1"/>
+    <col min="5379" max="5379" width="11" style="6" customWidth="1"/>
+    <col min="5380" max="5380" width="11.54296875" style="6" customWidth="1"/>
+    <col min="5381" max="5381" width="8.7265625" style="6"/>
+    <col min="5382" max="5382" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5632" width="8.7265625" style="6"/>
+    <col min="5633" max="5634" width="10.54296875" style="6" customWidth="1"/>
+    <col min="5635" max="5635" width="11" style="6" customWidth="1"/>
+    <col min="5636" max="5636" width="11.54296875" style="6" customWidth="1"/>
+    <col min="5637" max="5637" width="8.7265625" style="6"/>
+    <col min="5638" max="5638" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5888" width="8.7265625" style="6"/>
+    <col min="5889" max="5890" width="10.54296875" style="6" customWidth="1"/>
+    <col min="5891" max="5891" width="11" style="6" customWidth="1"/>
+    <col min="5892" max="5892" width="11.54296875" style="6" customWidth="1"/>
+    <col min="5893" max="5893" width="8.7265625" style="6"/>
+    <col min="5894" max="5894" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6144" width="8.7265625" style="6"/>
+    <col min="6145" max="6146" width="10.54296875" style="6" customWidth="1"/>
+    <col min="6147" max="6147" width="11" style="6" customWidth="1"/>
+    <col min="6148" max="6148" width="11.54296875" style="6" customWidth="1"/>
+    <col min="6149" max="6149" width="8.7265625" style="6"/>
+    <col min="6150" max="6150" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6400" width="8.7265625" style="6"/>
+    <col min="6401" max="6402" width="10.54296875" style="6" customWidth="1"/>
+    <col min="6403" max="6403" width="11" style="6" customWidth="1"/>
+    <col min="6404" max="6404" width="11.54296875" style="6" customWidth="1"/>
+    <col min="6405" max="6405" width="8.7265625" style="6"/>
+    <col min="6406" max="6406" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6656" width="8.7265625" style="6"/>
+    <col min="6657" max="6658" width="10.54296875" style="6" customWidth="1"/>
+    <col min="6659" max="6659" width="11" style="6" customWidth="1"/>
+    <col min="6660" max="6660" width="11.54296875" style="6" customWidth="1"/>
+    <col min="6661" max="6661" width="8.7265625" style="6"/>
+    <col min="6662" max="6662" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6912" width="8.7265625" style="6"/>
+    <col min="6913" max="6914" width="10.54296875" style="6" customWidth="1"/>
+    <col min="6915" max="6915" width="11" style="6" customWidth="1"/>
+    <col min="6916" max="6916" width="11.54296875" style="6" customWidth="1"/>
+    <col min="6917" max="6917" width="8.7265625" style="6"/>
+    <col min="6918" max="6918" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7168" width="8.7265625" style="6"/>
+    <col min="7169" max="7170" width="10.54296875" style="6" customWidth="1"/>
+    <col min="7171" max="7171" width="11" style="6" customWidth="1"/>
+    <col min="7172" max="7172" width="11.54296875" style="6" customWidth="1"/>
+    <col min="7173" max="7173" width="8.7265625" style="6"/>
+    <col min="7174" max="7174" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7424" width="8.7265625" style="6"/>
+    <col min="7425" max="7426" width="10.54296875" style="6" customWidth="1"/>
+    <col min="7427" max="7427" width="11" style="6" customWidth="1"/>
+    <col min="7428" max="7428" width="11.54296875" style="6" customWidth="1"/>
+    <col min="7429" max="7429" width="8.7265625" style="6"/>
+    <col min="7430" max="7430" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7680" width="8.7265625" style="6"/>
+    <col min="7681" max="7682" width="10.54296875" style="6" customWidth="1"/>
+    <col min="7683" max="7683" width="11" style="6" customWidth="1"/>
+    <col min="7684" max="7684" width="11.54296875" style="6" customWidth="1"/>
+    <col min="7685" max="7685" width="8.7265625" style="6"/>
+    <col min="7686" max="7686" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7936" width="8.7265625" style="6"/>
+    <col min="7937" max="7938" width="10.54296875" style="6" customWidth="1"/>
+    <col min="7939" max="7939" width="11" style="6" customWidth="1"/>
+    <col min="7940" max="7940" width="11.54296875" style="6" customWidth="1"/>
+    <col min="7941" max="7941" width="8.7265625" style="6"/>
+    <col min="7942" max="7942" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8192" width="8.7265625" style="6"/>
+    <col min="8193" max="8194" width="10.54296875" style="6" customWidth="1"/>
+    <col min="8195" max="8195" width="11" style="6" customWidth="1"/>
+    <col min="8196" max="8196" width="11.54296875" style="6" customWidth="1"/>
+    <col min="8197" max="8197" width="8.7265625" style="6"/>
+    <col min="8198" max="8198" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8448" width="8.7265625" style="6"/>
+    <col min="8449" max="8450" width="10.54296875" style="6" customWidth="1"/>
+    <col min="8451" max="8451" width="11" style="6" customWidth="1"/>
+    <col min="8452" max="8452" width="11.54296875" style="6" customWidth="1"/>
+    <col min="8453" max="8453" width="8.7265625" style="6"/>
+    <col min="8454" max="8454" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8704" width="8.7265625" style="6"/>
+    <col min="8705" max="8706" width="10.54296875" style="6" customWidth="1"/>
+    <col min="8707" max="8707" width="11" style="6" customWidth="1"/>
+    <col min="8708" max="8708" width="11.54296875" style="6" customWidth="1"/>
+    <col min="8709" max="8709" width="8.7265625" style="6"/>
+    <col min="8710" max="8710" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8960" width="8.7265625" style="6"/>
+    <col min="8961" max="8962" width="10.54296875" style="6" customWidth="1"/>
+    <col min="8963" max="8963" width="11" style="6" customWidth="1"/>
+    <col min="8964" max="8964" width="11.54296875" style="6" customWidth="1"/>
+    <col min="8965" max="8965" width="8.7265625" style="6"/>
+    <col min="8966" max="8966" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9216" width="8.7265625" style="6"/>
+    <col min="9217" max="9218" width="10.54296875" style="6" customWidth="1"/>
+    <col min="9219" max="9219" width="11" style="6" customWidth="1"/>
+    <col min="9220" max="9220" width="11.54296875" style="6" customWidth="1"/>
+    <col min="9221" max="9221" width="8.7265625" style="6"/>
+    <col min="9222" max="9222" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9472" width="8.7265625" style="6"/>
+    <col min="9473" max="9474" width="10.54296875" style="6" customWidth="1"/>
+    <col min="9475" max="9475" width="11" style="6" customWidth="1"/>
+    <col min="9476" max="9476" width="11.54296875" style="6" customWidth="1"/>
+    <col min="9477" max="9477" width="8.7265625" style="6"/>
+    <col min="9478" max="9478" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9728" width="8.7265625" style="6"/>
+    <col min="9729" max="9730" width="10.54296875" style="6" customWidth="1"/>
+    <col min="9731" max="9731" width="11" style="6" customWidth="1"/>
+    <col min="9732" max="9732" width="11.54296875" style="6" customWidth="1"/>
+    <col min="9733" max="9733" width="8.7265625" style="6"/>
+    <col min="9734" max="9734" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9984" width="8.7265625" style="6"/>
+    <col min="9985" max="9986" width="10.54296875" style="6" customWidth="1"/>
+    <col min="9987" max="9987" width="11" style="6" customWidth="1"/>
+    <col min="9988" max="9988" width="11.54296875" style="6" customWidth="1"/>
+    <col min="9989" max="9989" width="8.7265625" style="6"/>
+    <col min="9990" max="9990" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10240" width="8.7265625" style="6"/>
+    <col min="10241" max="10242" width="10.54296875" style="6" customWidth="1"/>
+    <col min="10243" max="10243" width="11" style="6" customWidth="1"/>
+    <col min="10244" max="10244" width="11.54296875" style="6" customWidth="1"/>
+    <col min="10245" max="10245" width="8.7265625" style="6"/>
+    <col min="10246" max="10246" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10496" width="8.7265625" style="6"/>
+    <col min="10497" max="10498" width="10.54296875" style="6" customWidth="1"/>
+    <col min="10499" max="10499" width="11" style="6" customWidth="1"/>
+    <col min="10500" max="10500" width="11.54296875" style="6" customWidth="1"/>
+    <col min="10501" max="10501" width="8.7265625" style="6"/>
+    <col min="10502" max="10502" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10752" width="8.7265625" style="6"/>
+    <col min="10753" max="10754" width="10.54296875" style="6" customWidth="1"/>
+    <col min="10755" max="10755" width="11" style="6" customWidth="1"/>
+    <col min="10756" max="10756" width="11.54296875" style="6" customWidth="1"/>
+    <col min="10757" max="10757" width="8.7265625" style="6"/>
+    <col min="10758" max="10758" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11008" width="8.7265625" style="6"/>
+    <col min="11009" max="11010" width="10.54296875" style="6" customWidth="1"/>
+    <col min="11011" max="11011" width="11" style="6" customWidth="1"/>
+    <col min="11012" max="11012" width="11.54296875" style="6" customWidth="1"/>
+    <col min="11013" max="11013" width="8.7265625" style="6"/>
+    <col min="11014" max="11014" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11264" width="8.7265625" style="6"/>
+    <col min="11265" max="11266" width="10.54296875" style="6" customWidth="1"/>
+    <col min="11267" max="11267" width="11" style="6" customWidth="1"/>
+    <col min="11268" max="11268" width="11.54296875" style="6" customWidth="1"/>
+    <col min="11269" max="11269" width="8.7265625" style="6"/>
+    <col min="11270" max="11270" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11520" width="8.7265625" style="6"/>
+    <col min="11521" max="11522" width="10.54296875" style="6" customWidth="1"/>
+    <col min="11523" max="11523" width="11" style="6" customWidth="1"/>
+    <col min="11524" max="11524" width="11.54296875" style="6" customWidth="1"/>
+    <col min="11525" max="11525" width="8.7265625" style="6"/>
+    <col min="11526" max="11526" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11776" width="8.7265625" style="6"/>
+    <col min="11777" max="11778" width="10.54296875" style="6" customWidth="1"/>
+    <col min="11779" max="11779" width="11" style="6" customWidth="1"/>
+    <col min="11780" max="11780" width="11.54296875" style="6" customWidth="1"/>
+    <col min="11781" max="11781" width="8.7265625" style="6"/>
+    <col min="11782" max="11782" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12032" width="8.7265625" style="6"/>
+    <col min="12033" max="12034" width="10.54296875" style="6" customWidth="1"/>
+    <col min="12035" max="12035" width="11" style="6" customWidth="1"/>
+    <col min="12036" max="12036" width="11.54296875" style="6" customWidth="1"/>
+    <col min="12037" max="12037" width="8.7265625" style="6"/>
+    <col min="12038" max="12038" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12288" width="8.7265625" style="6"/>
+    <col min="12289" max="12290" width="10.54296875" style="6" customWidth="1"/>
+    <col min="12291" max="12291" width="11" style="6" customWidth="1"/>
+    <col min="12292" max="12292" width="11.54296875" style="6" customWidth="1"/>
+    <col min="12293" max="12293" width="8.7265625" style="6"/>
+    <col min="12294" max="12294" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12544" width="8.7265625" style="6"/>
+    <col min="12545" max="12546" width="10.54296875" style="6" customWidth="1"/>
+    <col min="12547" max="12547" width="11" style="6" customWidth="1"/>
+    <col min="12548" max="12548" width="11.54296875" style="6" customWidth="1"/>
+    <col min="12549" max="12549" width="8.7265625" style="6"/>
+    <col min="12550" max="12550" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12800" width="8.7265625" style="6"/>
+    <col min="12801" max="12802" width="10.54296875" style="6" customWidth="1"/>
+    <col min="12803" max="12803" width="11" style="6" customWidth="1"/>
+    <col min="12804" max="12804" width="11.54296875" style="6" customWidth="1"/>
+    <col min="12805" max="12805" width="8.7265625" style="6"/>
+    <col min="12806" max="12806" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13056" width="8.7265625" style="6"/>
+    <col min="13057" max="13058" width="10.54296875" style="6" customWidth="1"/>
+    <col min="13059" max="13059" width="11" style="6" customWidth="1"/>
+    <col min="13060" max="13060" width="11.54296875" style="6" customWidth="1"/>
+    <col min="13061" max="13061" width="8.7265625" style="6"/>
+    <col min="13062" max="13062" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13312" width="8.7265625" style="6"/>
+    <col min="13313" max="13314" width="10.54296875" style="6" customWidth="1"/>
+    <col min="13315" max="13315" width="11" style="6" customWidth="1"/>
+    <col min="13316" max="13316" width="11.54296875" style="6" customWidth="1"/>
+    <col min="13317" max="13317" width="8.7265625" style="6"/>
+    <col min="13318" max="13318" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13568" width="8.7265625" style="6"/>
+    <col min="13569" max="13570" width="10.54296875" style="6" customWidth="1"/>
+    <col min="13571" max="13571" width="11" style="6" customWidth="1"/>
+    <col min="13572" max="13572" width="11.54296875" style="6" customWidth="1"/>
+    <col min="13573" max="13573" width="8.7265625" style="6"/>
+    <col min="13574" max="13574" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13824" width="8.7265625" style="6"/>
+    <col min="13825" max="13826" width="10.54296875" style="6" customWidth="1"/>
+    <col min="13827" max="13827" width="11" style="6" customWidth="1"/>
+    <col min="13828" max="13828" width="11.54296875" style="6" customWidth="1"/>
+    <col min="13829" max="13829" width="8.7265625" style="6"/>
+    <col min="13830" max="13830" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14080" width="8.7265625" style="6"/>
+    <col min="14081" max="14082" width="10.54296875" style="6" customWidth="1"/>
+    <col min="14083" max="14083" width="11" style="6" customWidth="1"/>
+    <col min="14084" max="14084" width="11.54296875" style="6" customWidth="1"/>
+    <col min="14085" max="14085" width="8.7265625" style="6"/>
+    <col min="14086" max="14086" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14336" width="8.7265625" style="6"/>
+    <col min="14337" max="14338" width="10.54296875" style="6" customWidth="1"/>
+    <col min="14339" max="14339" width="11" style="6" customWidth="1"/>
+    <col min="14340" max="14340" width="11.54296875" style="6" customWidth="1"/>
+    <col min="14341" max="14341" width="8.7265625" style="6"/>
+    <col min="14342" max="14342" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14592" width="8.7265625" style="6"/>
+    <col min="14593" max="14594" width="10.54296875" style="6" customWidth="1"/>
+    <col min="14595" max="14595" width="11" style="6" customWidth="1"/>
+    <col min="14596" max="14596" width="11.54296875" style="6" customWidth="1"/>
+    <col min="14597" max="14597" width="8.7265625" style="6"/>
+    <col min="14598" max="14598" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14848" width="8.7265625" style="6"/>
+    <col min="14849" max="14850" width="10.54296875" style="6" customWidth="1"/>
+    <col min="14851" max="14851" width="11" style="6" customWidth="1"/>
+    <col min="14852" max="14852" width="11.54296875" style="6" customWidth="1"/>
+    <col min="14853" max="14853" width="8.7265625" style="6"/>
+    <col min="14854" max="14854" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15104" width="8.7265625" style="6"/>
+    <col min="15105" max="15106" width="10.54296875" style="6" customWidth="1"/>
+    <col min="15107" max="15107" width="11" style="6" customWidth="1"/>
+    <col min="15108" max="15108" width="11.54296875" style="6" customWidth="1"/>
+    <col min="15109" max="15109" width="8.7265625" style="6"/>
+    <col min="15110" max="15110" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15360" width="8.7265625" style="6"/>
+    <col min="15361" max="15362" width="10.54296875" style="6" customWidth="1"/>
+    <col min="15363" max="15363" width="11" style="6" customWidth="1"/>
+    <col min="15364" max="15364" width="11.54296875" style="6" customWidth="1"/>
+    <col min="15365" max="15365" width="8.7265625" style="6"/>
+    <col min="15366" max="15366" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15616" width="8.7265625" style="6"/>
+    <col min="15617" max="15618" width="10.54296875" style="6" customWidth="1"/>
+    <col min="15619" max="15619" width="11" style="6" customWidth="1"/>
+    <col min="15620" max="15620" width="11.54296875" style="6" customWidth="1"/>
+    <col min="15621" max="15621" width="8.7265625" style="6"/>
+    <col min="15622" max="15622" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15872" width="8.7265625" style="6"/>
+    <col min="15873" max="15874" width="10.54296875" style="6" customWidth="1"/>
+    <col min="15875" max="15875" width="11" style="6" customWidth="1"/>
+    <col min="15876" max="15876" width="11.54296875" style="6" customWidth="1"/>
+    <col min="15877" max="15877" width="8.7265625" style="6"/>
+    <col min="15878" max="15878" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16128" width="8.7265625" style="6"/>
+    <col min="16129" max="16130" width="10.54296875" style="6" customWidth="1"/>
+    <col min="16131" max="16131" width="11" style="6" customWidth="1"/>
+    <col min="16132" max="16132" width="11.54296875" style="6" customWidth="1"/>
+    <col min="16133" max="16133" width="8.7265625" style="6"/>
+    <col min="16134" max="16134" width="18.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="28">
+      <c r="A1" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>52.8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>52.4</v>
+      </c>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+    </row>
+    <row r="6" spans="1:20" ht="13" thickBot="1">
+      <c r="A6" s="6">
+        <v>52.5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>55.8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+    </row>
+    <row r="7" spans="1:20" ht="13">
+      <c r="A7" s="6">
+        <v>45.9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>49.8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>57.8</v>
+      </c>
+      <c r="F7" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>54.2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>51.8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>53.2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="132">
+        <f>COUNTA($A$5:$A$12)</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="132">
+        <f>SUM($A$5:$A$12)</f>
+        <v>398</v>
+      </c>
+      <c r="I8" s="132">
+        <f>AVERAGE($A$5:$A$12)</f>
+        <v>49.75</v>
+      </c>
+      <c r="J8" s="132">
+        <f>_xlfn.VAR.S($A$5:$A$12)</f>
+        <v>5.4314285714285742</v>
+      </c>
+      <c r="N8" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" s="129">
+        <v>8</v>
+      </c>
+      <c r="P8" s="129">
+        <v>398</v>
+      </c>
+      <c r="Q8" s="129">
+        <v>49.75</v>
+      </c>
+      <c r="R8" s="129">
+        <v>5.4314285714285742</v>
+      </c>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="6">
+        <v>51.7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>53.6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>51.8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>49.1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="132">
+        <f>COUNTA($B$5:$B$11)</f>
+        <v>7</v>
+      </c>
+      <c r="H9" s="132">
+        <f>SUM(B5:B11)</f>
+        <v>368.5</v>
+      </c>
+      <c r="I9" s="132">
+        <f>AVERAGE(B5:B11)</f>
+        <v>52.642857142857146</v>
+      </c>
+      <c r="J9" s="132">
+        <f>_xlfn.VAR.S(B5:B11)</f>
+        <v>2.5728571428571425</v>
+      </c>
+      <c r="N9" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9" s="129">
+        <v>7</v>
+      </c>
+      <c r="P9" s="129">
+        <v>368.5</v>
+      </c>
+      <c r="Q9" s="129">
+        <v>52.642857142857146</v>
+      </c>
+      <c r="R9" s="129">
+        <v>2.5728571428571425</v>
+      </c>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>52.8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>53.2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="132">
+        <f>COUNTA($C$5:$C$11)</f>
+        <v>7</v>
+      </c>
+      <c r="H10" s="132">
+        <f>SUM(C5:C11)</f>
+        <v>364</v>
+      </c>
+      <c r="I10" s="132">
+        <f>AVERAGE(C5:C11)</f>
+        <v>52</v>
+      </c>
+      <c r="J10" s="132">
+        <f>_xlfn.VAR.S(C5:C11)</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="N10" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="129">
+        <v>7</v>
+      </c>
+      <c r="P10" s="129">
+        <v>364</v>
+      </c>
+      <c r="Q10" s="129">
+        <v>52</v>
+      </c>
+      <c r="R10" s="129">
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+    </row>
+    <row r="11" spans="1:20" ht="13" thickBot="1">
+      <c r="A11" s="6">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="134">
+        <f>COUNTA($D$5:$D$12)</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="134">
+        <f>SUM($D$5:$D$12)</f>
+        <v>409.6</v>
+      </c>
+      <c r="I11" s="134">
+        <f>AVERAGE($D$5:$D$12)</f>
+        <v>51.2</v>
+      </c>
+      <c r="J11" s="134">
+        <f>_xlfn.VAR.S($D$5:$D$12)</f>
+        <v>14.997142857142844</v>
+      </c>
+      <c r="N11" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="135">
+        <v>8</v>
+      </c>
+      <c r="P11" s="135">
+        <v>409.6</v>
+      </c>
+      <c r="Q11" s="135">
+        <v>51.2</v>
+      </c>
+      <c r="R11" s="135">
+        <v>14.997142857142844</v>
+      </c>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="F12" s="132">
+        <f>COUNTA(F8:F11)</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="132">
+        <f>SUM(G8:G11)</f>
+        <v>30</v>
+      </c>
+      <c r="H12" s="132">
+        <f>SUM(H8:H11)</f>
+        <v>1540.1</v>
+      </c>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="F13" s="136" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="136" t="s">
+        <v>185</v>
+      </c>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+    </row>
+    <row r="14" spans="1:20" ht="13" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.5">
+      <c r="A15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="132">
+        <f>H8^2/G8+H9^2/G9+H10^2/G10+H11^2/G11-H12^2/G12</f>
+        <v>35.312523809538106</v>
+      </c>
+      <c r="H16" s="132">
+        <f>COUNTA(A4:D4)-1</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="132">
+        <f>G16/H16</f>
+        <v>11.770841269846036</v>
+      </c>
+      <c r="J16" s="132">
+        <f>I16/I17</f>
+        <v>1.6775195457630061</v>
+      </c>
+      <c r="K16" s="132">
+        <f>_xlfn.F.DIST.RT(J16,H16,H17)</f>
+        <v>0.19626872010960775</v>
+      </c>
+      <c r="L16" s="132">
+        <f>_xlfn.F.INV.RT(0.05,H16,H17)</f>
+        <v>2.9751539639733933</v>
+      </c>
+      <c r="N16" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="129">
+        <v>35.312523809523782</v>
+      </c>
+      <c r="P16" s="129">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="129">
+        <v>11.770841269841261</v>
+      </c>
+      <c r="R16" s="129">
+        <v>1.6775195457622276</v>
+      </c>
+      <c r="S16" s="129">
+        <v>0.196268720109773</v>
+      </c>
+      <c r="T16" s="129">
+        <v>2.9751539639733933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.5">
+      <c r="A17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="132">
+        <f>G19-G16</f>
+        <v>182.43714285713213</v>
+      </c>
+      <c r="H17" s="132">
+        <f>COUNTA(A5:D12)-COUNTA(A4:D4)</f>
+        <v>26</v>
+      </c>
+      <c r="I17" s="132">
+        <f>G17/H17</f>
+        <v>7.0168131868127741</v>
+      </c>
+      <c r="N17" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" s="129">
+        <v>182.43714285714279</v>
+      </c>
+      <c r="P17" s="129">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="129">
+        <v>7.0168131868131844</v>
+      </c>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+    </row>
+    <row r="19" spans="1:20" ht="13" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="134">
+        <f>SUM(F43:I50)-(H12^2)/G12</f>
+        <v>217.74966666667024</v>
+      </c>
+      <c r="H19" s="134">
+        <f>H16+H17</f>
+        <v>29</v>
+      </c>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="N19" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="135">
+        <v>217.74966666666657</v>
+      </c>
+      <c r="P19" s="135">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.5">
+      <c r="F20" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="F22" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="138" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.5">
+      <c r="A24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="141" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="12.5" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="141" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="141" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="142" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" s="141"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="141"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="144" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="D30" s="145" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="D31" s="145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="D32" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="D33" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="129"/>
+    </row>
+    <row r="34" spans="1:11" ht="13">
+      <c r="A34" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="146" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="13">
+      <c r="A39" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13">
+      <c r="A40" s="145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="147" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="147" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="128">
+        <v>47.6</v>
+      </c>
+      <c r="B43" s="128">
+        <v>52.8</v>
+      </c>
+      <c r="C43" s="128">
+        <v>50.4</v>
+      </c>
+      <c r="D43" s="128">
+        <v>52.4</v>
+      </c>
+      <c r="F43" s="128">
+        <f>A43^2</f>
+        <v>2265.7600000000002</v>
+      </c>
+      <c r="G43" s="128">
+        <f t="shared" ref="G43:I50" si="0">B43^2</f>
+        <v>2787.8399999999997</v>
+      </c>
+      <c r="H43" s="128">
+        <f t="shared" si="0"/>
+        <v>2540.16</v>
+      </c>
+      <c r="I43" s="128">
+        <f t="shared" si="0"/>
+        <v>2745.7599999999998</v>
+      </c>
+      <c r="K43" s="6">
+        <f>SUM(F43:I50)</f>
+        <v>79281.349999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="128">
+        <v>52.5</v>
+      </c>
+      <c r="B44" s="128">
+        <v>51.4</v>
+      </c>
+      <c r="C44" s="128">
+        <v>55.8</v>
+      </c>
+      <c r="D44" s="128">
+        <v>51.6</v>
+      </c>
+      <c r="F44" s="128">
+        <f t="shared" ref="F44:F50" si="1">A44^2</f>
+        <v>2756.25</v>
+      </c>
+      <c r="G44" s="128">
+        <f t="shared" si="0"/>
+        <v>2641.96</v>
+      </c>
+      <c r="H44" s="128">
+        <f t="shared" si="0"/>
+        <v>3113.64</v>
+      </c>
+      <c r="I44" s="128">
+        <f t="shared" si="0"/>
+        <v>2662.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="128">
+        <v>45.9</v>
+      </c>
+      <c r="B45" s="128">
+        <v>49.7</v>
+      </c>
+      <c r="C45" s="128">
+        <v>49.8</v>
+      </c>
+      <c r="D45" s="128">
+        <v>57.8</v>
+      </c>
+      <c r="F45" s="128">
+        <f t="shared" si="1"/>
+        <v>2106.81</v>
+      </c>
+      <c r="G45" s="128">
+        <f t="shared" si="0"/>
+        <v>2470.09</v>
+      </c>
+      <c r="H45" s="128">
+        <f t="shared" si="0"/>
+        <v>2480.0399999999995</v>
+      </c>
+      <c r="I45" s="128">
+        <f t="shared" si="0"/>
+        <v>3340.8399999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="128">
+        <v>51.6</v>
+      </c>
+      <c r="B46" s="128">
+        <v>54.2</v>
+      </c>
+      <c r="C46" s="128">
+        <v>51.8</v>
+      </c>
+      <c r="D46" s="128">
+        <v>53.2</v>
+      </c>
+      <c r="F46" s="128">
+        <f t="shared" si="1"/>
+        <v>2662.56</v>
+      </c>
+      <c r="G46" s="128">
+        <f t="shared" si="0"/>
+        <v>2937.6400000000003</v>
+      </c>
+      <c r="H46" s="128">
+        <f t="shared" si="0"/>
+        <v>2683.24</v>
+      </c>
+      <c r="I46" s="128">
+        <f t="shared" si="0"/>
+        <v>2830.2400000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="128">
+        <v>51.7</v>
+      </c>
+      <c r="B47" s="128">
+        <v>53.6</v>
+      </c>
+      <c r="C47" s="128">
+        <v>51.8</v>
+      </c>
+      <c r="D47" s="128">
+        <v>49.1</v>
+      </c>
+      <c r="F47" s="128">
+        <f t="shared" si="1"/>
+        <v>2672.8900000000003</v>
+      </c>
+      <c r="G47" s="128">
+        <f t="shared" si="0"/>
+        <v>2872.96</v>
+      </c>
+      <c r="H47" s="128">
+        <f t="shared" si="0"/>
+        <v>2683.24</v>
+      </c>
+      <c r="I47" s="128">
+        <f t="shared" si="0"/>
+        <v>2410.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="128">
+        <v>50.4</v>
+      </c>
+      <c r="B48" s="128">
+        <v>52.8</v>
+      </c>
+      <c r="C48" s="128">
+        <v>53.2</v>
+      </c>
+      <c r="D48" s="128">
+        <v>51.6</v>
+      </c>
+      <c r="F48" s="128">
+        <f t="shared" si="1"/>
+        <v>2540.16</v>
+      </c>
+      <c r="G48" s="128">
+        <f t="shared" si="0"/>
+        <v>2787.8399999999997</v>
+      </c>
+      <c r="H48" s="128">
+        <f t="shared" si="0"/>
+        <v>2830.2400000000002</v>
+      </c>
+      <c r="I48" s="128">
+        <f t="shared" si="0"/>
+        <v>2662.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="128">
+        <v>48</v>
+      </c>
+      <c r="B49" s="128">
+        <v>54</v>
+      </c>
+      <c r="C49" s="128">
+        <v>51.2</v>
+      </c>
+      <c r="D49" s="128">
+        <v>44.2</v>
+      </c>
+      <c r="F49" s="128">
+        <f t="shared" si="1"/>
+        <v>2304</v>
+      </c>
+      <c r="G49" s="128">
+        <f t="shared" si="0"/>
+        <v>2916</v>
+      </c>
+      <c r="H49" s="128">
+        <f t="shared" si="0"/>
+        <v>2621.4400000000005</v>
+      </c>
+      <c r="I49" s="128">
+        <f t="shared" si="0"/>
+        <v>1953.6400000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="128">
+        <v>50.3</v>
+      </c>
+      <c r="D50" s="128">
+        <v>49.7</v>
+      </c>
+      <c r="F50" s="128">
+        <f t="shared" si="1"/>
+        <v>2530.0899999999997</v>
+      </c>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128">
+        <f t="shared" si="0"/>
+        <v>2470.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="148" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="148" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{476D9637-465A-4F27-80F6-399708C45335}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -19117,11 +21614,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="14.5">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="12">
         <v>50</v>
       </c>
@@ -19130,8 +21627,8 @@
         <v>53</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="12">
         <v>50</v>
       </c>
@@ -19420,1940 +21917,1936 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="88"/>
-    <col min="2" max="2" width="12.90625" style="88" customWidth="1"/>
-    <col min="3" max="6" width="8.7265625" style="88"/>
-    <col min="7" max="7" width="14.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="8.7265625" style="88"/>
-    <col min="18" max="18" width="13.54296875" style="88" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" style="88" customWidth="1"/>
-    <col min="20" max="20" width="11" style="88" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="88"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="20.26953125" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="87" t="s">
+      <c r="O3" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="87" t="s">
+      <c r="P3" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="94">
+      <c r="R3" s="88">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="86" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="89">
+      <c r="B4" s="83">
         <v>1</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="84">
         <v>15.85</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="84">
         <v>16.02</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="84">
         <v>15.83</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="84">
         <v>15.93</v>
       </c>
-      <c r="G4" s="90">
+      <c r="G4" s="84">
         <f>AVERAGE(C4:F4)</f>
         <v>15.907499999999999</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="84">
         <f>MAX(C4:F4)-MIN(C4:F4)</f>
         <v>0.1899999999999995</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="84">
         <f>$R$4</f>
         <v>15.946900000000003</v>
       </c>
-      <c r="J4" s="90">
+      <c r="J4" s="84">
         <f>$R$10</f>
         <v>16.156900000000004</v>
       </c>
-      <c r="K4" s="90">
+      <c r="K4" s="84">
         <f>$R$11</f>
         <v>15.736900000000002</v>
       </c>
-      <c r="L4" s="90">
+      <c r="L4" s="84">
         <f>$R$13</f>
         <v>16.156264000000004</v>
       </c>
-      <c r="M4" s="90">
+      <c r="M4" s="84">
         <f>$R$14</f>
         <v>15.737536000000002</v>
       </c>
-      <c r="N4" s="90">
+      <c r="N4" s="84">
         <f>$R$5</f>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O4" s="90">
+      <c r="O4" s="84">
         <f>$R$17</f>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="84">
         <f>$R$18</f>
         <v>0</v>
       </c>
-      <c r="R4" s="91">
+      <c r="R4" s="85">
         <f>AVERAGE(G4:G28)</f>
         <v>15.946900000000003</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="89">
+      <c r="B5" s="83">
         <v>2</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="84">
         <v>16.12</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="84">
         <v>16</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="84">
         <v>15.85</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="84">
         <f t="shared" ref="G5:G28" si="0">AVERAGE(C5:F5)</f>
         <v>15.995000000000001</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="84">
         <f t="shared" ref="H5:H28" si="1">MAX(C5:F5)-MIN(C5:F5)</f>
         <v>0.27000000000000135</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="84">
         <f t="shared" ref="I5:I28" si="2">$R$4</f>
         <v>15.946900000000003</v>
       </c>
-      <c r="J5" s="90">
+      <c r="J5" s="84">
         <f t="shared" ref="J5:J28" si="3">$R$10</f>
         <v>16.156900000000004</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="84">
         <f t="shared" ref="K5:K28" si="4">$R$11</f>
         <v>15.736900000000002</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="84">
         <f t="shared" ref="L5:L28" si="5">$R$13</f>
         <v>16.156264000000004</v>
       </c>
-      <c r="M5" s="90">
+      <c r="M5" s="84">
         <f t="shared" ref="M5:M28" si="6">$R$14</f>
         <v>15.737536000000002</v>
       </c>
-      <c r="N5" s="90">
+      <c r="N5" s="84">
         <f t="shared" ref="N5:N28" si="7">$R$5</f>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O5" s="90">
+      <c r="O5" s="84">
         <f t="shared" ref="O5:O28" si="8">$R$17</f>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="84">
         <f t="shared" ref="P5:P28" si="9">$R$18</f>
         <v>0</v>
       </c>
-      <c r="R5" s="91">
+      <c r="R5" s="85">
         <f>AVERAGE(H4:H28)</f>
         <v>0.28680000000000017</v>
       </c>
-      <c r="S5" s="92" t="s">
+      <c r="S5" s="86" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="89">
+      <c r="B6" s="83">
         <v>3</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="84">
         <v>16</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="84">
         <v>15.91</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="84">
         <v>15.94</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="84">
         <v>15.83</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="84">
         <f t="shared" si="0"/>
         <v>15.92</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="84">
         <f t="shared" si="1"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M6" s="90">
+      <c r="M6" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N6" s="90">
+      <c r="N6" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O6" s="90">
+      <c r="O6" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P6" s="90">
+      <c r="P6" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R6" s="94">
+      <c r="R6" s="88">
         <v>3</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="86" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="89">
+      <c r="B7" s="83">
         <v>4</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="84">
         <v>16.2</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="84">
         <v>15.85</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="84">
         <v>15.74</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="84">
         <v>15.93</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="84">
         <f t="shared" si="0"/>
         <v>15.93</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="84">
         <f t="shared" si="1"/>
         <v>0.45999999999999908</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M7" s="90">
+      <c r="M7" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N7" s="90">
+      <c r="N7" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O7" s="90">
+      <c r="O7" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R7" s="88">
+      <c r="R7">
         <f>COUNTA(C3:F3)</f>
         <v>4</v>
       </c>
-      <c r="S7" s="92" t="s">
+      <c r="S7" s="86" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="89">
+      <c r="B8" s="83">
         <v>5</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="84">
         <v>15.74</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="84">
         <v>15.86</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="84">
         <v>16.21</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="84">
         <v>16.100000000000001</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="84">
         <f t="shared" si="0"/>
         <v>15.977500000000001</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="84">
         <f t="shared" si="1"/>
         <v>0.47000000000000064</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M8" s="90">
+      <c r="M8" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N8" s="90">
+      <c r="N8" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O8" s="90">
+      <c r="O8" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P8" s="90">
+      <c r="P8" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R8" s="88">
+      <c r="R8">
         <f>COUNT(B4:B28)</f>
         <v>25</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="S8" s="86" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="89">
+      <c r="B9" s="83">
         <v>6</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="84">
         <v>15.94</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="84">
         <v>16.14</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="84">
         <v>16.03</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="84">
         <f t="shared" si="0"/>
         <v>16.03</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="84">
         <f t="shared" si="1"/>
         <v>0.20000000000000107</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L9" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M9" s="90">
+      <c r="M9" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O9" s="90">
+      <c r="O9" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P9" s="90">
+      <c r="P9" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R9" s="88">
+      <c r="R9">
         <f>R3/SQRT(R7)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S9" s="92" t="s">
+      <c r="S9" s="86" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="89">
+      <c r="B10" s="83">
         <v>7</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="84">
         <v>15.75</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="84">
         <v>16.21</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="84">
         <v>15.86</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="84">
         <f t="shared" si="0"/>
         <v>15.9575</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="84">
         <f t="shared" si="1"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M10" s="90">
+      <c r="M10" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N10" s="90">
+      <c r="N10" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O10" s="90">
+      <c r="O10" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R10" s="88">
+      <c r="R10">
         <f>R4+R6*R9</f>
         <v>16.156900000000004</v>
       </c>
-      <c r="S10" s="92" t="s">
+      <c r="S10" s="86" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="89">
+      <c r="B11" s="83">
         <v>8</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="84">
         <v>15.82</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="84">
         <v>15.94</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="84">
         <v>16.02</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="84">
         <v>15.94</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="84">
         <f t="shared" si="0"/>
         <v>15.93</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="84">
         <f t="shared" si="1"/>
         <v>0.19999999999999929</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M11" s="90">
+      <c r="M11" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N11" s="90">
+      <c r="N11" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R11" s="88">
+      <c r="R11">
         <f>R4-R6*R9</f>
         <v>15.736900000000002</v>
       </c>
-      <c r="S11" s="92" t="s">
+      <c r="S11" s="86" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="89">
+      <c r="B12" s="83">
         <v>9</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="84">
         <v>16.04</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="84">
         <v>15.98</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="84">
         <v>15.83</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="84">
         <v>15.98</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="84">
         <f t="shared" si="0"/>
         <v>15.9575</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="84">
         <f t="shared" si="1"/>
         <v>0.20999999999999908</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M12" s="90">
+      <c r="M12" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N12" s="90">
+      <c r="N12" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O12" s="90">
+      <c r="O12" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P12" s="90">
+      <c r="P12" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R12" s="88">
+      <c r="R12">
         <f>VLOOKUP(R7,R23:U46,2,FALSE)</f>
         <v>0.73</v>
       </c>
-      <c r="S12" s="92" t="s">
+      <c r="S12" s="86" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="89">
+      <c r="B13" s="83">
         <v>10</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="84">
         <v>15.64</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="84">
         <v>15.86</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="84">
         <v>15.94</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="84">
         <v>15.89</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="84">
         <f t="shared" si="0"/>
         <v>15.8325</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="84">
         <f t="shared" si="1"/>
         <v>0.29999999999999893</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M13" s="90">
+      <c r="M13" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N13" s="90">
+      <c r="N13" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R13" s="88">
+      <c r="R13">
         <f>R4+R12*R5</f>
         <v>16.156264000000004</v>
       </c>
-      <c r="S13" s="92" t="s">
+      <c r="S13" s="86" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="89">
+      <c r="B14" s="83">
         <v>11</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="84">
         <v>16.11</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="84">
         <v>16</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="84">
         <v>15.82</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="84">
         <f t="shared" si="0"/>
         <v>15.985000000000001</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="84">
         <f t="shared" si="1"/>
         <v>0.28999999999999915</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N14" s="90">
+      <c r="N14" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R14" s="88">
+      <c r="R14">
         <f>R4-R12*R5</f>
         <v>15.737536000000002</v>
       </c>
-      <c r="S14" s="92" t="s">
+      <c r="S14" s="86" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="89">
+      <c r="B15" s="83">
         <v>12</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="84">
         <v>15.72</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="84">
         <v>15.85</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="84">
         <v>16.12</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="84">
         <v>16.149999999999999</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="84">
         <f t="shared" si="0"/>
         <v>15.959999999999999</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="84">
         <f t="shared" si="1"/>
         <v>0.42999999999999794</v>
       </c>
-      <c r="I15" s="90">
+      <c r="I15" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J15" s="90">
+      <c r="J15" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M15" s="90">
+      <c r="M15" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N15" s="90">
+      <c r="N15" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O15" s="90">
+      <c r="O15" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R15" s="88">
+      <c r="R15">
         <f>VLOOKUP(R7,R23:U46,4,FALSE)</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="S15" s="92" t="s">
+      <c r="S15" s="86" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="89">
+      <c r="B16" s="83">
         <v>13</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="84">
         <v>15.85</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="84">
         <v>15.76</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="84">
         <v>15.74</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="84">
         <v>15.98</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="84">
         <f t="shared" si="0"/>
         <v>15.8325</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="84">
         <f t="shared" si="1"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N16" s="90">
+      <c r="N16" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P16" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R16" s="88">
+      <c r="R16">
         <f>VLOOKUP(R7,R23:U46,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="92" t="s">
+      <c r="S16" s="86" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="89">
+      <c r="B17" s="83">
         <v>14</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="84">
         <v>15.73</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="84">
         <v>15.84</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="84">
         <v>15.96</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="84">
         <v>16.100000000000001</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="84">
         <f t="shared" si="0"/>
         <v>15.907500000000001</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="84">
         <f t="shared" si="1"/>
         <v>0.37000000000000099</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M17" s="90">
+      <c r="M17" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O17" s="90">
+      <c r="O17" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R17" s="88">
+      <c r="R17">
         <f>R15*R5</f>
         <v>0.65390400000000037</v>
       </c>
-      <c r="S17" s="92" t="s">
+      <c r="S17" s="86" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="89">
+      <c r="B18" s="83">
         <v>15</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="84">
         <v>16.2</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="84">
         <v>16.100000000000001</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="84">
         <v>15.89</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="84">
         <f t="shared" si="0"/>
         <v>16.05</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="84">
         <f t="shared" si="1"/>
         <v>0.30999999999999872</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L18" s="90">
+      <c r="L18" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N18" s="90">
+      <c r="N18" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O18" s="90">
+      <c r="O18" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P18" s="90">
+      <c r="P18" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R18" s="88">
+      <c r="R18">
         <f>R16*R5</f>
         <v>0</v>
       </c>
-      <c r="S18" s="92" t="s">
+      <c r="S18" s="86" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="89">
+      <c r="B19" s="83">
         <v>16</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="84">
         <v>16.12</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="84">
         <v>16.079999999999998</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="84">
         <v>15.83</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="84">
         <v>15.94</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G19" s="84">
         <f t="shared" si="0"/>
         <v>15.9925</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="84">
         <f t="shared" si="1"/>
         <v>0.29000000000000092</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M19" s="90">
+      <c r="M19" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N19" s="90">
+      <c r="N19" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O19" s="90">
+      <c r="O19" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P19" s="90">
+      <c r="P19" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="89">
+      <c r="B20" s="83">
         <v>17</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="84">
         <v>15.93</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="84">
         <v>15.81</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="84">
         <v>15.68</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="84">
         <f t="shared" si="0"/>
         <v>15.8575</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="84">
         <f t="shared" si="1"/>
         <v>0.33000000000000185</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L20" s="90">
+      <c r="L20" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M20" s="90">
+      <c r="M20" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N20" s="90">
+      <c r="N20" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O20" s="90">
+      <c r="O20" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P20" s="90">
+      <c r="P20" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="89">
+      <c r="B21" s="83">
         <v>18</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="84">
         <v>15.78</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="84">
         <v>16.04</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="84">
         <v>16.11</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="84">
         <v>16.12</v>
       </c>
-      <c r="G21" s="90">
+      <c r="G21" s="84">
         <f t="shared" si="0"/>
         <v>16.012499999999999</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="84">
         <f t="shared" si="1"/>
         <v>0.34000000000000163</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L21" s="90">
+      <c r="L21" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M21" s="90">
+      <c r="M21" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N21" s="90">
+      <c r="N21" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O21" s="90">
+      <c r="O21" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P21" s="90">
+      <c r="P21" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R21" s="95"/>
-      <c r="S21" s="96" t="s">
+      <c r="R21" s="89"/>
+      <c r="S21" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="T21" s="101" t="s">
+      <c r="T21" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="U21" s="101"/>
+      <c r="U21" s="104"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="89">
+      <c r="B22" s="83">
         <v>19</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="84">
         <v>15.84</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="84">
         <v>15.92</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="84">
         <v>16.05</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="84">
         <v>16.12</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="84">
         <f t="shared" si="0"/>
         <v>15.982500000000002</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="84">
         <f t="shared" si="1"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L22" s="90">
+      <c r="L22" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M22" s="90">
+      <c r="M22" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N22" s="90">
+      <c r="N22" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O22" s="90">
+      <c r="O22" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P22" s="90">
+      <c r="P22" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R22" s="96" t="s">
+      <c r="R22" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="S22" s="96" t="s">
+      <c r="S22" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="T22" s="96" t="s">
+      <c r="T22" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="U22" s="97" t="s">
+      <c r="U22" s="90" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="89">
+      <c r="B23" s="83">
         <v>20</v>
       </c>
-      <c r="C23" s="90">
+      <c r="C23" s="84">
         <v>15.92</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="84">
         <v>16.09</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="84">
         <v>16.12</v>
       </c>
-      <c r="F23" s="90">
+      <c r="F23" s="84">
         <v>15.93</v>
       </c>
-      <c r="G23" s="90">
+      <c r="G23" s="84">
         <f t="shared" si="0"/>
         <v>16.015000000000001</v>
       </c>
-      <c r="H23" s="90">
+      <c r="H23" s="84">
         <f t="shared" si="1"/>
         <v>0.20000000000000107</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I23" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K23" s="90">
+      <c r="K23" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L23" s="90">
+      <c r="L23" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M23" s="90">
+      <c r="M23" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N23" s="90">
+      <c r="N23" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O23" s="90">
+      <c r="O23" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P23" s="90">
+      <c r="P23" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R23" s="98">
+      <c r="R23" s="91">
         <v>2</v>
       </c>
-      <c r="S23" s="99">
+      <c r="S23" s="92">
         <v>1.88</v>
       </c>
-      <c r="T23" s="100">
+      <c r="T23" s="93">
         <v>0</v>
       </c>
-      <c r="U23" s="99">
+      <c r="U23" s="92">
         <v>3.27</v>
       </c>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="89">
+      <c r="B24" s="83">
         <v>21</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="84">
         <v>16.11</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="84">
         <v>16.02</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="84">
         <v>16</v>
       </c>
-      <c r="F24" s="90">
+      <c r="F24" s="84">
         <v>15.88</v>
       </c>
-      <c r="G24" s="90">
+      <c r="G24" s="84">
         <f t="shared" si="0"/>
         <v>16.002499999999998</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="84">
         <f t="shared" si="1"/>
         <v>0.22999999999999865</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L24" s="90">
+      <c r="L24" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M24" s="90">
+      <c r="M24" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N24" s="90">
+      <c r="N24" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O24" s="90">
+      <c r="O24" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P24" s="90">
+      <c r="P24" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R24" s="98">
+      <c r="R24" s="91">
         <v>3</v>
       </c>
-      <c r="S24" s="99">
+      <c r="S24" s="92">
         <v>1.02</v>
       </c>
-      <c r="T24" s="100">
+      <c r="T24" s="93">
         <v>0</v>
       </c>
-      <c r="U24" s="99">
+      <c r="U24" s="92">
         <v>2.57</v>
       </c>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="89">
+      <c r="B25" s="83">
         <v>22</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="84">
         <v>15.98</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="84">
         <v>15.82</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="84">
         <v>15.89</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="84">
         <v>15.89</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="84">
         <f t="shared" si="0"/>
         <v>15.895</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="84">
         <f t="shared" si="1"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M25" s="90">
+      <c r="M25" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N25" s="90">
+      <c r="N25" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O25" s="90">
+      <c r="O25" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P25" s="90">
+      <c r="P25" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R25" s="98">
+      <c r="R25" s="91">
         <v>4</v>
       </c>
-      <c r="S25" s="99">
+      <c r="S25" s="92">
         <v>0.73</v>
       </c>
-      <c r="T25" s="100">
+      <c r="T25" s="93">
         <v>0</v>
       </c>
-      <c r="U25" s="99">
+      <c r="U25" s="92">
         <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="89">
+      <c r="B26" s="83">
         <v>23</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="84">
         <v>16.05</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="84">
         <v>15.73</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="84">
         <v>15.73</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="84">
         <v>15.93</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="84">
         <f t="shared" si="0"/>
         <v>15.860000000000001</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="84">
         <f t="shared" si="1"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M26" s="90">
+      <c r="M26" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N26" s="90">
+      <c r="N26" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O26" s="90">
+      <c r="O26" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P26" s="90">
+      <c r="P26" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R26" s="98">
+      <c r="R26" s="91">
         <v>5</v>
       </c>
-      <c r="S26" s="99">
+      <c r="S26" s="92">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T26" s="100">
+      <c r="T26" s="93">
         <v>0</v>
       </c>
-      <c r="U26" s="99">
+      <c r="U26" s="92">
         <v>2.11</v>
       </c>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="89">
+      <c r="B27" s="83">
         <v>24</v>
       </c>
-      <c r="C27" s="90">
+      <c r="C27" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="84">
         <v>15.89</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F27" s="84">
         <v>15.86</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G27" s="84">
         <f t="shared" si="0"/>
         <v>15.942500000000001</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="84">
         <f t="shared" si="1"/>
         <v>0.15000000000000213</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L27" s="90">
+      <c r="L27" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M27" s="90">
+      <c r="M27" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N27" s="90">
+      <c r="N27" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O27" s="90">
+      <c r="O27" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P27" s="90">
+      <c r="P27" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R27" s="98">
+      <c r="R27" s="91">
         <v>6</v>
       </c>
-      <c r="S27" s="99">
+      <c r="S27" s="92">
         <v>0.48</v>
       </c>
-      <c r="T27" s="100">
+      <c r="T27" s="93">
         <v>0</v>
       </c>
-      <c r="U27" s="99">
+      <c r="U27" s="92">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="89">
+      <c r="B28" s="83">
         <v>25</v>
       </c>
-      <c r="C28" s="90">
+      <c r="C28" s="84">
         <v>16.079999999999998</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="84">
         <v>15.78</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="84">
         <v>15.92</v>
       </c>
-      <c r="F28" s="90">
+      <c r="F28" s="84">
         <v>15.98</v>
       </c>
-      <c r="G28" s="90">
+      <c r="G28" s="84">
         <f t="shared" si="0"/>
         <v>15.940000000000001</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="84">
         <f t="shared" si="1"/>
         <v>0.29999999999999893</v>
       </c>
-      <c r="I28" s="90">
+      <c r="I28" s="84">
         <f t="shared" si="2"/>
         <v>15.946900000000003</v>
       </c>
-      <c r="J28" s="90">
+      <c r="J28" s="84">
         <f t="shared" si="3"/>
         <v>16.156900000000004</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28" s="84">
         <f t="shared" si="4"/>
         <v>15.736900000000002</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L28" s="84">
         <f t="shared" si="5"/>
         <v>16.156264000000004</v>
       </c>
-      <c r="M28" s="90">
+      <c r="M28" s="84">
         <f t="shared" si="6"/>
         <v>15.737536000000002</v>
       </c>
-      <c r="N28" s="90">
+      <c r="N28" s="84">
         <f t="shared" si="7"/>
         <v>0.28680000000000017</v>
       </c>
-      <c r="O28" s="90">
+      <c r="O28" s="84">
         <f t="shared" si="8"/>
         <v>0.65390400000000037</v>
       </c>
-      <c r="P28" s="90">
+      <c r="P28" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R28" s="98">
+      <c r="R28" s="91">
         <v>7</v>
       </c>
-      <c r="S28" s="99">
+      <c r="S28" s="92">
         <v>0.42</v>
       </c>
-      <c r="T28" s="99">
+      <c r="T28" s="92">
         <v>0.08</v>
       </c>
-      <c r="U28" s="99">
+      <c r="U28" s="92">
         <v>1.92</v>
       </c>
     </row>
     <row r="29" spans="2:21">
-      <c r="R29" s="98">
+      <c r="R29" s="91">
         <v>8</v>
       </c>
-      <c r="S29" s="99">
+      <c r="S29" s="92">
         <v>0.37</v>
       </c>
-      <c r="T29" s="99">
+      <c r="T29" s="92">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U29" s="99">
+      <c r="U29" s="92">
         <v>1.86</v>
       </c>
     </row>
     <row r="30" spans="2:21">
-      <c r="R30" s="98">
+      <c r="R30" s="91">
         <v>9</v>
       </c>
-      <c r="S30" s="99">
+      <c r="S30" s="92">
         <v>0.34</v>
       </c>
-      <c r="T30" s="99">
+      <c r="T30" s="92">
         <v>0.18</v>
       </c>
-      <c r="U30" s="99">
+      <c r="U30" s="92">
         <v>1.82</v>
       </c>
     </row>
     <row r="31" spans="2:21">
-      <c r="R31" s="98">
+      <c r="R31" s="91">
         <v>10</v>
       </c>
-      <c r="S31" s="99">
+      <c r="S31" s="92">
         <v>0.31</v>
       </c>
-      <c r="T31" s="99">
+      <c r="T31" s="92">
         <v>0.22</v>
       </c>
-      <c r="U31" s="99">
+      <c r="U31" s="92">
         <v>1.78</v>
       </c>
     </row>
     <row r="32" spans="2:21">
-      <c r="R32" s="98">
+      <c r="R32" s="91">
         <v>11</v>
       </c>
-      <c r="S32" s="99">
+      <c r="S32" s="92">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T32" s="99">
+      <c r="T32" s="92">
         <v>0.26</v>
       </c>
-      <c r="U32" s="99">
+      <c r="U32" s="92">
         <v>1.74</v>
       </c>
     </row>
     <row r="33" spans="18:21">
-      <c r="R33" s="98">
+      <c r="R33" s="91">
         <v>12</v>
       </c>
-      <c r="S33" s="99">
+      <c r="S33" s="92">
         <v>0.27</v>
       </c>
-      <c r="T33" s="99">
+      <c r="T33" s="92">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U33" s="99">
+      <c r="U33" s="92">
         <v>1.72</v>
       </c>
     </row>
     <row r="34" spans="18:21">
-      <c r="R34" s="98">
+      <c r="R34" s="91">
         <v>13</v>
       </c>
-      <c r="S34" s="99">
+      <c r="S34" s="92">
         <v>0.25</v>
       </c>
-      <c r="T34" s="99">
+      <c r="T34" s="92">
         <v>0.31</v>
       </c>
-      <c r="U34" s="99">
+      <c r="U34" s="92">
         <v>1.69</v>
       </c>
     </row>
     <row r="35" spans="18:21">
-      <c r="R35" s="98">
+      <c r="R35" s="91">
         <v>14</v>
       </c>
-      <c r="S35" s="99">
+      <c r="S35" s="92">
         <v>0.24</v>
       </c>
-      <c r="T35" s="99">
+      <c r="T35" s="92">
         <v>0.33</v>
       </c>
-      <c r="U35" s="99">
+      <c r="U35" s="92">
         <v>1.67</v>
       </c>
     </row>
     <row r="36" spans="18:21">
-      <c r="R36" s="98">
+      <c r="R36" s="91">
         <v>15</v>
       </c>
-      <c r="S36" s="99">
+      <c r="S36" s="92">
         <v>0.22</v>
       </c>
-      <c r="T36" s="99">
+      <c r="T36" s="92">
         <v>0.35</v>
       </c>
-      <c r="U36" s="99">
+      <c r="U36" s="92">
         <v>1.65</v>
       </c>
     </row>
     <row r="37" spans="18:21">
-      <c r="R37" s="98">
+      <c r="R37" s="91">
         <v>16</v>
       </c>
-      <c r="S37" s="99">
+      <c r="S37" s="92">
         <v>0.21</v>
       </c>
-      <c r="T37" s="99">
+      <c r="T37" s="92">
         <v>0.36</v>
       </c>
-      <c r="U37" s="99">
+      <c r="U37" s="92">
         <v>1.64</v>
       </c>
     </row>
     <row r="38" spans="18:21">
-      <c r="R38" s="98">
+      <c r="R38" s="91">
         <v>17</v>
       </c>
-      <c r="S38" s="99">
+      <c r="S38" s="92">
         <v>0.2</v>
       </c>
-      <c r="T38" s="99">
+      <c r="T38" s="92">
         <v>0.38</v>
       </c>
-      <c r="U38" s="99">
+      <c r="U38" s="92">
         <v>1.62</v>
       </c>
     </row>
     <row r="39" spans="18:21">
-      <c r="R39" s="98">
+      <c r="R39" s="91">
         <v>18</v>
       </c>
-      <c r="S39" s="99">
+      <c r="S39" s="92">
         <v>0.19</v>
       </c>
-      <c r="T39" s="99">
+      <c r="T39" s="92">
         <v>0.39</v>
       </c>
-      <c r="U39" s="99">
+      <c r="U39" s="92">
         <v>1.61</v>
       </c>
     </row>
     <row r="40" spans="18:21">
-      <c r="R40" s="98">
+      <c r="R40" s="91">
         <v>19</v>
       </c>
-      <c r="S40" s="99">
+      <c r="S40" s="92">
         <v>0.19</v>
       </c>
-      <c r="T40" s="99">
+      <c r="T40" s="92">
         <v>0.4</v>
       </c>
-      <c r="U40" s="99">
+      <c r="U40" s="92">
         <v>1.6</v>
       </c>
     </row>
     <row r="41" spans="18:21">
-      <c r="R41" s="98">
+      <c r="R41" s="91">
         <v>20</v>
       </c>
-      <c r="S41" s="99">
+      <c r="S41" s="92">
         <v>0.18</v>
       </c>
-      <c r="T41" s="99">
+      <c r="T41" s="92">
         <v>0.41</v>
       </c>
-      <c r="U41" s="99">
+      <c r="U41" s="92">
         <v>1.59</v>
       </c>
     </row>
     <row r="42" spans="18:21">
-      <c r="R42" s="98">
+      <c r="R42" s="91">
         <v>21</v>
       </c>
-      <c r="S42" s="99">
+      <c r="S42" s="92">
         <v>0.17</v>
       </c>
-      <c r="T42" s="99">
+      <c r="T42" s="92">
         <v>0.43</v>
       </c>
-      <c r="U42" s="99">
+      <c r="U42" s="92">
         <v>1.58</v>
       </c>
     </row>
     <row r="43" spans="18:21">
-      <c r="R43" s="98">
+      <c r="R43" s="91">
         <v>22</v>
       </c>
-      <c r="S43" s="99">
+      <c r="S43" s="92">
         <v>0.17</v>
       </c>
-      <c r="T43" s="99">
+      <c r="T43" s="92">
         <v>0.43</v>
       </c>
-      <c r="U43" s="99">
+      <c r="U43" s="92">
         <v>1.57</v>
       </c>
     </row>
     <row r="44" spans="18:21">
-      <c r="R44" s="98">
+      <c r="R44" s="91">
         <v>23</v>
       </c>
-      <c r="S44" s="99">
+      <c r="S44" s="92">
         <v>0.16</v>
       </c>
-      <c r="T44" s="99">
+      <c r="T44" s="92">
         <v>0.44</v>
       </c>
-      <c r="U44" s="99">
+      <c r="U44" s="92">
         <v>1.56</v>
       </c>
     </row>
     <row r="45" spans="18:21">
-      <c r="R45" s="98">
+      <c r="R45" s="91">
         <v>24</v>
       </c>
-      <c r="S45" s="99">
+      <c r="S45" s="92">
         <v>0.16</v>
       </c>
-      <c r="T45" s="99">
+      <c r="T45" s="92">
         <v>0.45</v>
       </c>
-      <c r="U45" s="99">
+      <c r="U45" s="92">
         <v>1.55</v>
       </c>
     </row>
     <row r="46" spans="18:21">
-      <c r="R46" s="98">
+      <c r="R46" s="91">
         <v>25</v>
       </c>
-      <c r="S46" s="99">
+      <c r="S46" s="92">
         <v>0.15</v>
       </c>
-      <c r="T46" s="99">
+      <c r="T46" s="92">
         <v>0.46</v>
       </c>
-      <c r="U46" s="99">
+      <c r="U46" s="92">
         <v>1.54</v>
       </c>
     </row>
@@ -21380,2039 +23873,2035 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="88"/>
-    <col min="2" max="2" width="12.90625" style="88" customWidth="1"/>
-    <col min="3" max="6" width="8.7265625" style="88"/>
-    <col min="7" max="7" width="14.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="8.7265625" style="88"/>
-    <col min="18" max="18" width="13.54296875" style="88" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" style="88" customWidth="1"/>
-    <col min="20" max="20" width="11" style="88" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="88"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="20.26953125" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="B1" s="89">
+      <c r="B1" s="83">
         <v>4</v>
       </c>
-      <c r="C1" s="90">
+      <c r="C1" s="84">
         <v>16.2</v>
       </c>
-      <c r="D1" s="90">
+      <c r="D1" s="84">
         <v>15.85</v>
       </c>
-      <c r="E1" s="90">
+      <c r="E1" s="84">
         <v>15.74</v>
       </c>
-      <c r="F1" s="90">
+      <c r="F1" s="84">
         <v>15.93</v>
       </c>
-      <c r="G1" s="91">
+      <c r="G1" s="85">
         <f>AVERAGE(C1:F1)</f>
         <v>15.93</v>
       </c>
-      <c r="H1" s="91">
+      <c r="H1" s="85">
         <f>MAX(C1:F1)-MIN(C1:F1)</f>
         <v>0.45999999999999908</v>
       </c>
-      <c r="K1" s="102">
+      <c r="K1" s="94">
         <v>8</v>
       </c>
-      <c r="L1" s="90">
+      <c r="L1" s="84">
         <v>15.82</v>
       </c>
-      <c r="M1" s="90">
+      <c r="M1" s="84">
         <v>15.94</v>
       </c>
-      <c r="N1" s="90">
+      <c r="N1" s="84">
         <v>16.02</v>
       </c>
-      <c r="O1" s="90">
+      <c r="O1" s="84">
         <v>15.94</v>
       </c>
-      <c r="P1" s="91">
+      <c r="P1" s="85">
         <f>AVERAGE(L1:O1)</f>
         <v>15.93</v>
       </c>
-      <c r="Q1" s="91">
+      <c r="Q1" s="85">
         <f>MAX(L1:O1)-MIN(L1:O1)</f>
         <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="2" spans="2:19">
-      <c r="B2" s="89">
+      <c r="B2" s="83">
         <v>4</v>
       </c>
-      <c r="C2" s="104">
+      <c r="C2" s="84">
         <v>16.7</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="84">
         <v>16.350000000000001</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="84">
         <v>16.240000000000002</v>
       </c>
-      <c r="F2" s="104">
+      <c r="F2" s="84">
         <v>16.43</v>
       </c>
-      <c r="G2" s="91">
+      <c r="G2" s="85">
         <f>AVERAGE(C2:F2)</f>
         <v>16.43</v>
       </c>
-      <c r="H2" s="91">
+      <c r="H2" s="85">
         <f>MAX(C2:F2)-MIN(C2:F2)</f>
         <v>0.4599999999999973</v>
       </c>
-      <c r="I2" s="103">
+      <c r="I2" s="95">
         <v>0.5</v>
       </c>
-      <c r="K2" s="102">
+      <c r="K2" s="94">
         <v>8</v>
       </c>
-      <c r="L2" s="90">
+      <c r="L2" s="84">
         <v>16.32</v>
       </c>
-      <c r="M2" s="90">
+      <c r="M2" s="84">
         <v>15.94</v>
       </c>
-      <c r="N2" s="90">
+      <c r="N2" s="84">
         <v>16.02</v>
       </c>
-      <c r="O2" s="90">
+      <c r="O2" s="84">
         <v>15.44</v>
       </c>
-      <c r="P2" s="91">
+      <c r="P2" s="85">
         <f>AVERAGE(L2:O2)</f>
         <v>15.93</v>
       </c>
-      <c r="Q2" s="91">
+      <c r="Q2" s="85">
         <f>MAX(L2:O2)-MIN(L2:O2)</f>
         <v>0.88000000000000078</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="94">
+      <c r="R4" s="88">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="89">
+      <c r="B5" s="83">
         <v>1</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="84">
         <v>15.85</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="84">
         <v>16.02</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="84">
         <v>15.83</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="84">
         <v>15.93</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="84">
         <f>AVERAGE(C5:F5)</f>
         <v>15.907499999999999</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="84">
         <f>MAX(C5:F5)-MIN(C5:F5)</f>
         <v>0.1899999999999995</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="84">
         <f>$R$5</f>
         <v>15.966900000000003</v>
       </c>
-      <c r="J5" s="90">
+      <c r="J5" s="84">
         <f>$R$11</f>
         <v>16.176900000000003</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="84">
         <f>$R$12</f>
         <v>15.756900000000002</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="84">
         <f>$R$14</f>
         <v>16.196120000000004</v>
       </c>
-      <c r="M5" s="90">
+      <c r="M5" s="84">
         <f>$R$15</f>
         <v>15.737680000000003</v>
       </c>
-      <c r="N5" s="90">
+      <c r="N5" s="84">
         <f>$R$6</f>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O5" s="90">
+      <c r="O5" s="84">
         <f>$R$18</f>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="84">
         <f>$R$19</f>
         <v>0</v>
       </c>
-      <c r="R5" s="91">
+      <c r="R5" s="85">
         <f>AVERAGE(G5:G29)</f>
         <v>15.966900000000003</v>
       </c>
-      <c r="S5" s="93" t="s">
+      <c r="S5" s="87" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="89">
+      <c r="B6" s="83">
         <v>2</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="84">
         <v>16.12</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="84">
         <v>16</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="84">
         <v>15.85</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="84">
         <f t="shared" ref="G6:G29" si="0">AVERAGE(C6:F6)</f>
         <v>15.995000000000001</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="84">
         <f t="shared" ref="H6:H29" si="1">MAX(C6:F6)-MIN(C6:F6)</f>
         <v>0.27000000000000135</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="84">
         <f t="shared" ref="I6:I29" si="2">$R$5</f>
         <v>15.966900000000003</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="84">
         <f t="shared" ref="J6:J29" si="3">$R$11</f>
         <v>16.176900000000003</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="84">
         <f t="shared" ref="K6:K29" si="4">$R$12</f>
         <v>15.756900000000002</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="84">
         <f t="shared" ref="L6:L29" si="5">$R$14</f>
         <v>16.196120000000004</v>
       </c>
-      <c r="M6" s="90">
+      <c r="M6" s="84">
         <f t="shared" ref="M6:M29" si="6">$R$15</f>
         <v>15.737680000000003</v>
       </c>
-      <c r="N6" s="90">
+      <c r="N6" s="84">
         <f t="shared" ref="N6:N29" si="7">$R$6</f>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O6" s="90">
+      <c r="O6" s="84">
         <f t="shared" ref="O6:O29" si="8">$R$18</f>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P6" s="90">
+      <c r="P6" s="84">
         <f t="shared" ref="P6:P29" si="9">$R$19</f>
         <v>0</v>
       </c>
-      <c r="R6" s="91">
+      <c r="R6" s="85">
         <f>AVERAGE(H5:H29)</f>
         <v>0.31400000000000011</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="86" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="89">
+      <c r="B7" s="83">
         <v>3</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="84">
         <v>16</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="84">
         <v>15.91</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="84">
         <v>15.94</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="84">
         <v>15.83</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="84">
         <f t="shared" si="0"/>
         <v>15.92</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="84">
         <f t="shared" si="1"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M7" s="90">
+      <c r="M7" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N7" s="90">
+      <c r="N7" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O7" s="90">
+      <c r="O7" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R7" s="94">
+      <c r="R7" s="88">
         <v>3</v>
       </c>
-      <c r="S7" s="92" t="s">
+      <c r="S7" s="86" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="102">
+      <c r="B8" s="94">
         <v>4</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="84">
         <v>16.7</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="84">
         <v>16.350000000000001</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="84">
         <v>16.240000000000002</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="84">
         <v>16.43</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="84">
         <f t="shared" si="0"/>
         <v>16.43</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="84">
         <f t="shared" si="1"/>
         <v>0.4599999999999973</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M8" s="90">
+      <c r="M8" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N8" s="90">
+      <c r="N8" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O8" s="90">
+      <c r="O8" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P8" s="90">
+      <c r="P8" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R8" s="88">
+      <c r="R8">
         <f>COUNTA(C4:F4)</f>
         <v>4</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="S8" s="86" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="89">
+      <c r="B9" s="83">
         <v>5</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="84">
         <v>15.74</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="84">
         <v>15.86</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="84">
         <v>16.21</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="84">
         <v>16.100000000000001</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="84">
         <f t="shared" si="0"/>
         <v>15.977500000000001</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="84">
         <f t="shared" si="1"/>
         <v>0.47000000000000064</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L9" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M9" s="90">
+      <c r="M9" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O9" s="90">
+      <c r="O9" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P9" s="90">
+      <c r="P9" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R9" s="88">
+      <c r="R9">
         <f>COUNT(B5:B29)</f>
         <v>25</v>
       </c>
-      <c r="S9" s="92" t="s">
+      <c r="S9" s="86" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="89">
+      <c r="B10" s="83">
         <v>6</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="84">
         <v>15.94</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="84">
         <v>16.14</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="84">
         <v>16.03</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="84">
         <f t="shared" si="0"/>
         <v>16.03</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="84">
         <f t="shared" si="1"/>
         <v>0.20000000000000107</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M10" s="90">
+      <c r="M10" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N10" s="90">
+      <c r="N10" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O10" s="90">
+      <c r="O10" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R10" s="88">
+      <c r="R10">
         <f>R4/SQRT(R8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S10" s="92" t="s">
+      <c r="S10" s="86" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="89">
+      <c r="B11" s="83">
         <v>7</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="84">
         <v>15.75</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="84">
         <v>16.21</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="84">
         <v>15.86</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="84">
         <f t="shared" si="0"/>
         <v>15.9575</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="84">
         <f t="shared" si="1"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M11" s="90">
+      <c r="M11" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N11" s="90">
+      <c r="N11" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R11" s="88">
+      <c r="R11">
         <f>R5+R7*R10</f>
         <v>16.176900000000003</v>
       </c>
-      <c r="S11" s="92" t="s">
+      <c r="S11" s="86" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="102">
+      <c r="B12" s="94">
         <v>8</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="84">
         <v>16.32</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="84">
         <v>15.94</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="84">
         <v>16.02</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="84">
         <v>15.44</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="84">
         <f t="shared" si="0"/>
         <v>15.93</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="84">
         <f t="shared" si="1"/>
         <v>0.88000000000000078</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M12" s="90">
+      <c r="M12" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N12" s="90">
+      <c r="N12" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O12" s="90">
+      <c r="O12" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P12" s="90">
+      <c r="P12" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R12" s="88">
+      <c r="R12">
         <f>R5-R7*R10</f>
         <v>15.756900000000002</v>
       </c>
-      <c r="S12" s="92" t="s">
+      <c r="S12" s="86" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="89">
+      <c r="B13" s="83">
         <v>9</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="84">
         <v>16.04</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="84">
         <v>15.98</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="84">
         <v>15.83</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="84">
         <v>15.98</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="84">
         <f t="shared" si="0"/>
         <v>15.9575</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="84">
         <f t="shared" si="1"/>
         <v>0.20999999999999908</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M13" s="90">
+      <c r="M13" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N13" s="90">
+      <c r="N13" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R13" s="88">
+      <c r="R13">
         <f>VLOOKUP(R8,R24:U47,2,FALSE)</f>
         <v>0.73</v>
       </c>
-      <c r="S13" s="92" t="s">
+      <c r="S13" s="86" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="89">
+      <c r="B14" s="83">
         <v>10</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="84">
         <v>15.64</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="84">
         <v>15.86</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="84">
         <v>15.94</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="84">
         <v>15.89</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="84">
         <f t="shared" si="0"/>
         <v>15.8325</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="84">
         <f t="shared" si="1"/>
         <v>0.29999999999999893</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N14" s="90">
+      <c r="N14" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R14" s="88">
+      <c r="R14">
         <f>R5+R13*R6</f>
         <v>16.196120000000004</v>
       </c>
-      <c r="S14" s="92" t="s">
+      <c r="S14" s="86" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="89">
+      <c r="B15" s="83">
         <v>11</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="84">
         <v>16.11</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="84">
         <v>16</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="84">
         <v>15.82</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="84">
         <f t="shared" si="0"/>
         <v>15.985000000000001</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="84">
         <f t="shared" si="1"/>
         <v>0.28999999999999915</v>
       </c>
-      <c r="I15" s="90">
+      <c r="I15" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J15" s="90">
+      <c r="J15" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M15" s="90">
+      <c r="M15" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N15" s="90">
+      <c r="N15" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O15" s="90">
+      <c r="O15" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R15" s="88">
+      <c r="R15">
         <f>R5-R13*R6</f>
         <v>15.737680000000003</v>
       </c>
-      <c r="S15" s="92" t="s">
+      <c r="S15" s="86" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="89">
+      <c r="B16" s="83">
         <v>12</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="84">
         <v>15.72</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="84">
         <v>15.85</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="84">
         <v>16.12</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="84">
         <v>16.149999999999999</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="84">
         <f t="shared" si="0"/>
         <v>15.959999999999999</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="84">
         <f t="shared" si="1"/>
         <v>0.42999999999999794</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N16" s="90">
+      <c r="N16" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P16" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R16" s="88">
+      <c r="R16">
         <f>VLOOKUP(R8,R24:U47,4,FALSE)</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="S16" s="92" t="s">
+      <c r="S16" s="86" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="89">
+      <c r="B17" s="83">
         <v>13</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="84">
         <v>15.85</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="84">
         <v>15.76</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="84">
         <v>15.74</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="84">
         <v>15.98</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="84">
         <f t="shared" si="0"/>
         <v>15.8325</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="84">
         <f t="shared" si="1"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M17" s="90">
+      <c r="M17" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O17" s="90">
+      <c r="O17" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R17" s="88">
+      <c r="R17">
         <f>VLOOKUP(R8,R24:U47,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="92" t="s">
+      <c r="S17" s="86" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="89">
+      <c r="B18" s="83">
         <v>14</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="84">
         <v>15.73</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="84">
         <v>15.84</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="84">
         <v>15.96</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="84">
         <v>16.100000000000001</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="84">
         <f t="shared" si="0"/>
         <v>15.907500000000001</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="84">
         <f t="shared" si="1"/>
         <v>0.37000000000000099</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L18" s="90">
+      <c r="L18" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N18" s="90">
+      <c r="N18" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O18" s="90">
+      <c r="O18" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P18" s="90">
+      <c r="P18" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R18" s="88">
+      <c r="R18">
         <f>R16*R6</f>
         <v>0.71592000000000022</v>
       </c>
-      <c r="S18" s="92" t="s">
+      <c r="S18" s="86" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="89">
+      <c r="B19" s="83">
         <v>15</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="84">
         <v>16.2</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="84">
         <v>16.100000000000001</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="84">
         <v>15.89</v>
       </c>
-      <c r="G19" s="90">
+      <c r="G19" s="84">
         <f t="shared" si="0"/>
         <v>16.05</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="84">
         <f t="shared" si="1"/>
         <v>0.30999999999999872</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M19" s="90">
+      <c r="M19" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N19" s="90">
+      <c r="N19" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O19" s="90">
+      <c r="O19" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P19" s="90">
+      <c r="P19" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R19" s="88">
+      <c r="R19">
         <f>R17*R6</f>
         <v>0</v>
       </c>
-      <c r="S19" s="92" t="s">
+      <c r="S19" s="86" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="89">
+      <c r="B20" s="83">
         <v>16</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="84">
         <v>16.12</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="84">
         <v>16.079999999999998</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="84">
         <v>15.83</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="84">
         <v>15.94</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="84">
         <f t="shared" si="0"/>
         <v>15.9925</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="84">
         <f t="shared" si="1"/>
         <v>0.29000000000000092</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L20" s="90">
+      <c r="L20" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M20" s="90">
+      <c r="M20" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N20" s="90">
+      <c r="N20" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O20" s="90">
+      <c r="O20" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P20" s="90">
+      <c r="P20" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="89">
+      <c r="B21" s="83">
         <v>17</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="84">
         <v>15.93</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="84">
         <v>15.81</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="84">
         <v>15.68</v>
       </c>
-      <c r="G21" s="90">
+      <c r="G21" s="84">
         <f t="shared" si="0"/>
         <v>15.8575</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="84">
         <f t="shared" si="1"/>
         <v>0.33000000000000185</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L21" s="90">
+      <c r="L21" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M21" s="90">
+      <c r="M21" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N21" s="90">
+      <c r="N21" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O21" s="90">
+      <c r="O21" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P21" s="90">
+      <c r="P21" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="89">
+      <c r="B22" s="83">
         <v>18</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="84">
         <v>15.78</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="84">
         <v>16.04</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="84">
         <v>16.11</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="84">
         <v>16.12</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="84">
         <f t="shared" si="0"/>
         <v>16.012499999999999</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="84">
         <f t="shared" si="1"/>
         <v>0.34000000000000163</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L22" s="90">
+      <c r="L22" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M22" s="90">
+      <c r="M22" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N22" s="90">
+      <c r="N22" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O22" s="90">
+      <c r="O22" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P22" s="90">
+      <c r="P22" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R22" s="95"/>
-      <c r="S22" s="96" t="s">
+      <c r="R22" s="89"/>
+      <c r="S22" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="T22" s="101" t="s">
+      <c r="T22" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="U22" s="101"/>
+      <c r="U22" s="104"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="89">
+      <c r="B23" s="83">
         <v>19</v>
       </c>
-      <c r="C23" s="90">
+      <c r="C23" s="84">
         <v>15.84</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="84">
         <v>15.92</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="84">
         <v>16.05</v>
       </c>
-      <c r="F23" s="90">
+      <c r="F23" s="84">
         <v>16.12</v>
       </c>
-      <c r="G23" s="90">
+      <c r="G23" s="84">
         <f t="shared" si="0"/>
         <v>15.982500000000002</v>
       </c>
-      <c r="H23" s="90">
+      <c r="H23" s="84">
         <f t="shared" si="1"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I23" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K23" s="90">
+      <c r="K23" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L23" s="90">
+      <c r="L23" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M23" s="90">
+      <c r="M23" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N23" s="90">
+      <c r="N23" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O23" s="90">
+      <c r="O23" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P23" s="90">
+      <c r="P23" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R23" s="96" t="s">
+      <c r="R23" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="S23" s="96" t="s">
+      <c r="S23" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="T23" s="96" t="s">
+      <c r="T23" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="U23" s="97" t="s">
+      <c r="U23" s="90" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="89">
+      <c r="B24" s="83">
         <v>20</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="84">
         <v>15.92</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="84">
         <v>16.09</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="84">
         <v>16.12</v>
       </c>
-      <c r="F24" s="90">
+      <c r="F24" s="84">
         <v>15.93</v>
       </c>
-      <c r="G24" s="90">
+      <c r="G24" s="84">
         <f t="shared" si="0"/>
         <v>16.015000000000001</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="84">
         <f t="shared" si="1"/>
         <v>0.20000000000000107</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L24" s="90">
+      <c r="L24" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M24" s="90">
+      <c r="M24" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N24" s="90">
+      <c r="N24" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O24" s="90">
+      <c r="O24" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P24" s="90">
+      <c r="P24" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R24" s="98">
+      <c r="R24" s="91">
         <v>2</v>
       </c>
-      <c r="S24" s="99">
+      <c r="S24" s="92">
         <v>1.88</v>
       </c>
-      <c r="T24" s="100">
+      <c r="T24" s="93">
         <v>0</v>
       </c>
-      <c r="U24" s="99">
+      <c r="U24" s="92">
         <v>3.27</v>
       </c>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="89">
+      <c r="B25" s="83">
         <v>21</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="84">
         <v>16.11</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="84">
         <v>16.02</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="84">
         <v>16</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="84">
         <v>15.88</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="84">
         <f t="shared" si="0"/>
         <v>16.002499999999998</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="84">
         <f t="shared" si="1"/>
         <v>0.22999999999999865</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M25" s="90">
+      <c r="M25" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N25" s="90">
+      <c r="N25" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O25" s="90">
+      <c r="O25" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P25" s="90">
+      <c r="P25" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R25" s="98">
+      <c r="R25" s="91">
         <v>3</v>
       </c>
-      <c r="S25" s="99">
+      <c r="S25" s="92">
         <v>1.02</v>
       </c>
-      <c r="T25" s="100">
+      <c r="T25" s="93">
         <v>0</v>
       </c>
-      <c r="U25" s="99">
+      <c r="U25" s="92">
         <v>2.57</v>
       </c>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="89">
+      <c r="B26" s="83">
         <v>22</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="84">
         <v>15.98</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="84">
         <v>15.82</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="84">
         <v>15.89</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="84">
         <v>15.89</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="84">
         <f t="shared" si="0"/>
         <v>15.895</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="84">
         <f t="shared" si="1"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M26" s="90">
+      <c r="M26" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N26" s="90">
+      <c r="N26" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O26" s="90">
+      <c r="O26" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P26" s="90">
+      <c r="P26" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R26" s="98">
+      <c r="R26" s="91">
         <v>4</v>
       </c>
-      <c r="S26" s="99">
+      <c r="S26" s="92">
         <v>0.73</v>
       </c>
-      <c r="T26" s="100">
+      <c r="T26" s="93">
         <v>0</v>
       </c>
-      <c r="U26" s="99">
+      <c r="U26" s="92">
         <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="89">
+      <c r="B27" s="83">
         <v>23</v>
       </c>
-      <c r="C27" s="90">
+      <c r="C27" s="84">
         <v>16.05</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="84">
         <v>15.73</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="84">
         <v>15.73</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F27" s="84">
         <v>15.93</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G27" s="84">
         <f t="shared" si="0"/>
         <v>15.860000000000001</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="84">
         <f t="shared" si="1"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L27" s="90">
+      <c r="L27" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M27" s="90">
+      <c r="M27" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N27" s="90">
+      <c r="N27" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O27" s="90">
+      <c r="O27" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P27" s="90">
+      <c r="P27" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R27" s="98">
+      <c r="R27" s="91">
         <v>5</v>
       </c>
-      <c r="S27" s="99">
+      <c r="S27" s="92">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T27" s="100">
+      <c r="T27" s="93">
         <v>0</v>
       </c>
-      <c r="U27" s="99">
+      <c r="U27" s="92">
         <v>2.11</v>
       </c>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="89">
+      <c r="B28" s="83">
         <v>24</v>
       </c>
-      <c r="C28" s="90">
+      <c r="C28" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="84">
         <v>16.010000000000002</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="84">
         <v>15.89</v>
       </c>
-      <c r="F28" s="90">
+      <c r="F28" s="84">
         <v>15.86</v>
       </c>
-      <c r="G28" s="90">
+      <c r="G28" s="84">
         <f t="shared" si="0"/>
         <v>15.942500000000001</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="84">
         <f t="shared" si="1"/>
         <v>0.15000000000000213</v>
       </c>
-      <c r="I28" s="90">
+      <c r="I28" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J28" s="90">
+      <c r="J28" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L28" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M28" s="90">
+      <c r="M28" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N28" s="90">
+      <c r="N28" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O28" s="90">
+      <c r="O28" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P28" s="90">
+      <c r="P28" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R28" s="98">
+      <c r="R28" s="91">
         <v>6</v>
       </c>
-      <c r="S28" s="99">
+      <c r="S28" s="92">
         <v>0.48</v>
       </c>
-      <c r="T28" s="100">
+      <c r="T28" s="93">
         <v>0</v>
       </c>
-      <c r="U28" s="99">
+      <c r="U28" s="92">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="89">
+      <c r="B29" s="83">
         <v>25</v>
       </c>
-      <c r="C29" s="90">
+      <c r="C29" s="84">
         <v>16.079999999999998</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="84">
         <v>15.78</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29" s="84">
         <v>15.92</v>
       </c>
-      <c r="F29" s="90">
+      <c r="F29" s="84">
         <v>15.98</v>
       </c>
-      <c r="G29" s="90">
+      <c r="G29" s="84">
         <f t="shared" si="0"/>
         <v>15.940000000000001</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="84">
         <f t="shared" si="1"/>
         <v>0.29999999999999893</v>
       </c>
-      <c r="I29" s="90">
+      <c r="I29" s="84">
         <f t="shared" si="2"/>
         <v>15.966900000000003</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="84">
         <f t="shared" si="3"/>
         <v>16.176900000000003</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="84">
         <f t="shared" si="4"/>
         <v>15.756900000000002</v>
       </c>
-      <c r="L29" s="90">
+      <c r="L29" s="84">
         <f t="shared" si="5"/>
         <v>16.196120000000004</v>
       </c>
-      <c r="M29" s="90">
+      <c r="M29" s="84">
         <f t="shared" si="6"/>
         <v>15.737680000000003</v>
       </c>
-      <c r="N29" s="90">
+      <c r="N29" s="84">
         <f t="shared" si="7"/>
         <v>0.31400000000000011</v>
       </c>
-      <c r="O29" s="90">
+      <c r="O29" s="84">
         <f t="shared" si="8"/>
         <v>0.71592000000000022</v>
       </c>
-      <c r="P29" s="90">
+      <c r="P29" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R29" s="98">
+      <c r="R29" s="91">
         <v>7</v>
       </c>
-      <c r="S29" s="99">
+      <c r="S29" s="92">
         <v>0.42</v>
       </c>
-      <c r="T29" s="99">
+      <c r="T29" s="92">
         <v>0.08</v>
       </c>
-      <c r="U29" s="99">
+      <c r="U29" s="92">
         <v>1.92</v>
       </c>
     </row>
     <row r="30" spans="2:21">
-      <c r="R30" s="98">
+      <c r="R30" s="91">
         <v>8</v>
       </c>
-      <c r="S30" s="99">
+      <c r="S30" s="92">
         <v>0.37</v>
       </c>
-      <c r="T30" s="99">
+      <c r="T30" s="92">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U30" s="99">
+      <c r="U30" s="92">
         <v>1.86</v>
       </c>
     </row>
     <row r="31" spans="2:21">
-      <c r="R31" s="98">
+      <c r="R31" s="91">
         <v>9</v>
       </c>
-      <c r="S31" s="99">
+      <c r="S31" s="92">
         <v>0.34</v>
       </c>
-      <c r="T31" s="99">
+      <c r="T31" s="92">
         <v>0.18</v>
       </c>
-      <c r="U31" s="99">
+      <c r="U31" s="92">
         <v>1.82</v>
       </c>
     </row>
     <row r="32" spans="2:21">
-      <c r="R32" s="98">
+      <c r="R32" s="91">
         <v>10</v>
       </c>
-      <c r="S32" s="99">
+      <c r="S32" s="92">
         <v>0.31</v>
       </c>
-      <c r="T32" s="99">
+      <c r="T32" s="92">
         <v>0.22</v>
       </c>
-      <c r="U32" s="99">
+      <c r="U32" s="92">
         <v>1.78</v>
       </c>
     </row>
     <row r="33" spans="18:21">
-      <c r="R33" s="98">
+      <c r="R33" s="91">
         <v>11</v>
       </c>
-      <c r="S33" s="99">
+      <c r="S33" s="92">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T33" s="99">
+      <c r="T33" s="92">
         <v>0.26</v>
       </c>
-      <c r="U33" s="99">
+      <c r="U33" s="92">
         <v>1.74</v>
       </c>
     </row>
     <row r="34" spans="18:21">
-      <c r="R34" s="98">
+      <c r="R34" s="91">
         <v>12</v>
       </c>
-      <c r="S34" s="99">
+      <c r="S34" s="92">
         <v>0.27</v>
       </c>
-      <c r="T34" s="99">
+      <c r="T34" s="92">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U34" s="99">
+      <c r="U34" s="92">
         <v>1.72</v>
       </c>
     </row>
     <row r="35" spans="18:21">
-      <c r="R35" s="98">
+      <c r="R35" s="91">
         <v>13</v>
       </c>
-      <c r="S35" s="99">
+      <c r="S35" s="92">
         <v>0.25</v>
       </c>
-      <c r="T35" s="99">
+      <c r="T35" s="92">
         <v>0.31</v>
       </c>
-      <c r="U35" s="99">
+      <c r="U35" s="92">
         <v>1.69</v>
       </c>
     </row>
     <row r="36" spans="18:21">
-      <c r="R36" s="98">
+      <c r="R36" s="91">
         <v>14</v>
       </c>
-      <c r="S36" s="99">
+      <c r="S36" s="92">
         <v>0.24</v>
       </c>
-      <c r="T36" s="99">
+      <c r="T36" s="92">
         <v>0.33</v>
       </c>
-      <c r="U36" s="99">
+      <c r="U36" s="92">
         <v>1.67</v>
       </c>
     </row>
     <row r="37" spans="18:21">
-      <c r="R37" s="98">
+      <c r="R37" s="91">
         <v>15</v>
       </c>
-      <c r="S37" s="99">
+      <c r="S37" s="92">
         <v>0.22</v>
       </c>
-      <c r="T37" s="99">
+      <c r="T37" s="92">
         <v>0.35</v>
       </c>
-      <c r="U37" s="99">
+      <c r="U37" s="92">
         <v>1.65</v>
       </c>
     </row>
     <row r="38" spans="18:21">
-      <c r="R38" s="98">
+      <c r="R38" s="91">
         <v>16</v>
       </c>
-      <c r="S38" s="99">
+      <c r="S38" s="92">
         <v>0.21</v>
       </c>
-      <c r="T38" s="99">
+      <c r="T38" s="92">
         <v>0.36</v>
       </c>
-      <c r="U38" s="99">
+      <c r="U38" s="92">
         <v>1.64</v>
       </c>
     </row>
     <row r="39" spans="18:21">
-      <c r="R39" s="98">
+      <c r="R39" s="91">
         <v>17</v>
       </c>
-      <c r="S39" s="99">
+      <c r="S39" s="92">
         <v>0.2</v>
       </c>
-      <c r="T39" s="99">
+      <c r="T39" s="92">
         <v>0.38</v>
       </c>
-      <c r="U39" s="99">
+      <c r="U39" s="92">
         <v>1.62</v>
       </c>
     </row>
     <row r="40" spans="18:21">
-      <c r="R40" s="98">
+      <c r="R40" s="91">
         <v>18</v>
       </c>
-      <c r="S40" s="99">
+      <c r="S40" s="92">
         <v>0.19</v>
       </c>
-      <c r="T40" s="99">
+      <c r="T40" s="92">
         <v>0.39</v>
       </c>
-      <c r="U40" s="99">
+      <c r="U40" s="92">
         <v>1.61</v>
       </c>
     </row>
     <row r="41" spans="18:21">
-      <c r="R41" s="98">
+      <c r="R41" s="91">
         <v>19</v>
       </c>
-      <c r="S41" s="99">
+      <c r="S41" s="92">
         <v>0.19</v>
       </c>
-      <c r="T41" s="99">
+      <c r="T41" s="92">
         <v>0.4</v>
       </c>
-      <c r="U41" s="99">
+      <c r="U41" s="92">
         <v>1.6</v>
       </c>
     </row>
     <row r="42" spans="18:21">
-      <c r="R42" s="98">
+      <c r="R42" s="91">
         <v>20</v>
       </c>
-      <c r="S42" s="99">
+      <c r="S42" s="92">
         <v>0.18</v>
       </c>
-      <c r="T42" s="99">
+      <c r="T42" s="92">
         <v>0.41</v>
       </c>
-      <c r="U42" s="99">
+      <c r="U42" s="92">
         <v>1.59</v>
       </c>
     </row>
     <row r="43" spans="18:21">
-      <c r="R43" s="98">
+      <c r="R43" s="91">
         <v>21</v>
       </c>
-      <c r="S43" s="99">
+      <c r="S43" s="92">
         <v>0.17</v>
       </c>
-      <c r="T43" s="99">
+      <c r="T43" s="92">
         <v>0.43</v>
       </c>
-      <c r="U43" s="99">
+      <c r="U43" s="92">
         <v>1.58</v>
       </c>
     </row>
     <row r="44" spans="18:21">
-      <c r="R44" s="98">
+      <c r="R44" s="91">
         <v>22</v>
       </c>
-      <c r="S44" s="99">
+      <c r="S44" s="92">
         <v>0.17</v>
       </c>
-      <c r="T44" s="99">
+      <c r="T44" s="92">
         <v>0.43</v>
       </c>
-      <c r="U44" s="99">
+      <c r="U44" s="92">
         <v>1.57</v>
       </c>
     </row>
     <row r="45" spans="18:21">
-      <c r="R45" s="98">
+      <c r="R45" s="91">
         <v>23</v>
       </c>
-      <c r="S45" s="99">
+      <c r="S45" s="92">
         <v>0.16</v>
       </c>
-      <c r="T45" s="99">
+      <c r="T45" s="92">
         <v>0.44</v>
       </c>
-      <c r="U45" s="99">
+      <c r="U45" s="92">
         <v>1.56</v>
       </c>
     </row>
     <row r="46" spans="18:21">
-      <c r="R46" s="98">
+      <c r="R46" s="91">
         <v>24</v>
       </c>
-      <c r="S46" s="99">
+      <c r="S46" s="92">
         <v>0.16</v>
       </c>
-      <c r="T46" s="99">
+      <c r="T46" s="92">
         <v>0.45</v>
       </c>
-      <c r="U46" s="99">
+      <c r="U46" s="92">
         <v>1.55</v>
       </c>
     </row>
     <row r="47" spans="18:21">
-      <c r="R47" s="98">
+      <c r="R47" s="91">
         <v>25</v>
       </c>
-      <c r="S47" s="99">
+      <c r="S47" s="92">
         <v>0.15</v>
       </c>
-      <c r="T47" s="99">
+      <c r="T47" s="92">
         <v>0.46</v>
       </c>
-      <c r="U47" s="99">
+      <c r="U47" s="92">
         <v>1.54</v>
       </c>
     </row>
@@ -23439,563 +25928,561 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="84"/>
-    <col min="3" max="3" width="14.6328125" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="84"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="86" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="2:10">
-      <c r="I2" s="84">
+      <c r="I2">
         <f>COUNT(B4:B23)</f>
         <v>20</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="105">
+      <c r="I3" s="88">
         <v>20</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="85">
+      <c r="B4" s="80">
         <v>1</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="80">
         <v>3</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="84">
         <f>C4/$I$3</f>
         <v>0.15</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="92">
         <f>$I$5</f>
         <v>0.1</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="1">
         <f>$I$7</f>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G4" s="107">
+      <c r="G4" s="1">
         <f>$I$8</f>
         <v>0</v>
       </c>
-      <c r="I4" s="105">
+      <c r="I4" s="88">
         <v>3</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="85">
+      <c r="B5" s="80">
         <v>2</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="80">
         <v>2</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="84">
         <f t="shared" ref="D5:D23" si="0">C5/$I$3</f>
         <v>0.1</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="92">
         <f t="shared" ref="E5:E23" si="1">$I$5</f>
         <v>0.1</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F23" si="2">$I$7</f>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="1">
         <f t="shared" ref="G5:G23" si="3">$I$8</f>
         <v>0</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="85">
         <f>AVERAGE(D4:D23)</f>
         <v>0.1</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="85">
+      <c r="B6" s="80">
         <v>3</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="80">
         <v>1</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="84">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I6" s="84">
+      <c r="I6">
         <f>SQRT((I5*(1-I5))/I3)</f>
         <v>6.7082039324993695E-2</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="85">
+      <c r="B7" s="80">
         <v>4</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="80">
         <v>2</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="84">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7">
         <f>I5+I4*I6</f>
         <v>0.30124611797498113</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="85">
+      <c r="B8" s="80">
         <v>5</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="80">
         <v>1</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="84">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8">
         <f>MAX(0, I5-I4*I6)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="85">
+      <c r="B9" s="80">
         <v>6</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="80">
         <v>3</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="84">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="85">
+      <c r="B10" s="80">
         <v>7</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="80">
         <v>3</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="84">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="85">
+      <c r="B11" s="80">
         <v>8</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="80">
         <v>2</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="84">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="85">
+      <c r="B12" s="80">
         <v>9</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="80">
         <v>1</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="84">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="85">
+      <c r="B13" s="80">
         <v>10</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="80">
         <v>2</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="84">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="85">
+      <c r="B14" s="80">
         <v>11</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="80">
         <v>3</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="84">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="85">
+      <c r="B15" s="80">
         <v>12</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="80">
         <v>2</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="84">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="85">
+      <c r="B16" s="80">
         <v>13</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="80">
         <v>2</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="84">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="85">
+      <c r="B17" s="80">
         <v>14</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="80">
         <v>1</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="84">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="85">
+      <c r="B18" s="80">
         <v>15</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="80">
         <v>1</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="84">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="85">
+      <c r="B19" s="80">
         <v>16</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="80">
         <v>2</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="84">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="85">
+      <c r="B20" s="80">
         <v>17</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="80">
         <v>4</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="84">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="85">
+      <c r="B21" s="80">
         <v>18</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="80">
         <v>3</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="84">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="85">
+      <c r="B22" s="80">
         <v>19</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="80">
         <v>1</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="84">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="85">
+      <c r="B23" s="80">
         <v>20</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="80">
         <v>1</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="84">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>0.30124611797498113</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -24011,7 +26498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8195707-E91F-47E1-A910-E2AC1CDC45B7}">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -24019,16 +26508,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="111"/>
+      <c r="B2" s="96"/>
+      <c r="L2" s="86" t="s">
+        <v>144</v>
+      </c>
       <c r="U2">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="90" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -24047,15 +26539,25 @@
       <c r="H3" t="s">
         <v>139</v>
       </c>
+      <c r="L3">
+        <v>0.9</v>
+      </c>
+      <c r="M3">
+        <v>0.8</v>
+      </c>
+      <c r="N3">
+        <f>L3+M3*(1-L3)</f>
+        <v>0.98</v>
+      </c>
       <c r="U3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="113">
+      <c r="B4" s="98">
         <v>1</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="98">
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -24097,11 +26599,23 @@
         <f t="shared" ref="F5:F23" si="2">$G$7</f>
         <v>0</v>
       </c>
-      <c r="G5" s="114">
+      <c r="G5" s="88">
         <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>130</v>
+      </c>
+      <c r="L5">
+        <v>0.9</v>
+      </c>
+      <c r="M5">
+        <v>0.85</v>
+      </c>
+      <c r="N5">
+        <v>0.9</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="2:21">
@@ -24130,6 +26644,12 @@
       <c r="H6" t="s">
         <v>142</v>
       </c>
+      <c r="M6">
+        <v>0.85</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1">
@@ -24157,6 +26677,29 @@
       <c r="H7" t="s">
         <v>142</v>
       </c>
+      <c r="L7">
+        <f>L5</f>
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <f>M5+(1-M5)*M6</f>
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="N7">
+        <f>N5+(1-N5)*N6</f>
+        <v>0.99</v>
+      </c>
+      <c r="O7">
+        <f>O5</f>
+        <v>0.95</v>
+      </c>
+      <c r="P7">
+        <f>PRODUCT(L7:O7)</f>
+        <v>0.82740487499999993</v>
+      </c>
+      <c r="Q7">
+        <v>0.82740487500000004</v>
+      </c>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="1">
@@ -24197,6 +26740,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="P9" s="99">
+        <f>0.9^3</f>
+        <v>0.72900000000000009</v>
+      </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="1">
@@ -24217,6 +26764,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="P10" s="99">
+        <f>EXP(-0.008*100)</f>
+        <v>0.44932896411722156</v>
+      </c>
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="1">
@@ -24479,78 +27030,951 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="C26" s="111"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="C27" s="111"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="C28" s="111"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="C29" s="111"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="111"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="111"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="C32" s="111"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="111"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="111"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="111"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2149CAE2-2913-402D-A2B1-7DF4D822C760}">
+  <dimension ref="A2:U25"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="18" max="18" width="17.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" ht="30">
+      <c r="B2" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="106">
+        <v>47.6</v>
+      </c>
+      <c r="C3" s="106">
+        <v>52.8</v>
+      </c>
+      <c r="D3" s="106">
+        <v>50.4</v>
+      </c>
+      <c r="E3" s="106">
+        <v>52.4</v>
+      </c>
+      <c r="H3" s="120" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3">
+        <f>SUM(B3:E10)</f>
+        <v>1540.1000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16" thickBot="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="106">
+        <v>52.5</v>
+      </c>
+      <c r="C4" s="106">
+        <v>51.4</v>
+      </c>
+      <c r="D4" s="106">
+        <v>55.8</v>
+      </c>
+      <c r="E4" s="106">
+        <v>51.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <f>COUNT(B3:E10)</f>
+        <v>30</v>
+      </c>
+      <c r="K4" s="120" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4">
+        <f>COUNTA(B2:E2)</f>
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="106">
+        <v>45.9</v>
+      </c>
+      <c r="C5" s="106">
+        <v>49.7</v>
+      </c>
+      <c r="D5" s="106">
+        <v>49.8</v>
+      </c>
+      <c r="E5" s="106">
+        <v>57.8</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="S5" s="110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="106">
+        <v>51.6</v>
+      </c>
+      <c r="C6" s="106">
+        <v>54.2</v>
+      </c>
+      <c r="D6" s="106">
+        <v>51.8</v>
+      </c>
+      <c r="E6" s="106">
+        <v>53.2</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="59">
+        <v>8</v>
+      </c>
+      <c r="I6" s="59">
+        <v>398</v>
+      </c>
+      <c r="J6" s="59">
+        <v>49.75</v>
+      </c>
+      <c r="K6" s="59">
+        <v>5.4314285714285742</v>
+      </c>
+      <c r="O6" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="108">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="108">
+        <v>398</v>
+      </c>
+      <c r="R6" s="108">
+        <v>49.75</v>
+      </c>
+      <c r="S6" s="108">
+        <v>5.4314285714285742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="106">
+        <v>51.7</v>
+      </c>
+      <c r="C7" s="106">
+        <v>53.6</v>
+      </c>
+      <c r="D7" s="106">
+        <v>51.8</v>
+      </c>
+      <c r="E7" s="106">
+        <v>49.1</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="59">
+        <v>7</v>
+      </c>
+      <c r="I7" s="59">
+        <v>368.5</v>
+      </c>
+      <c r="J7" s="59">
+        <v>52.642857142857146</v>
+      </c>
+      <c r="K7" s="59">
+        <v>2.5728571428571425</v>
+      </c>
+      <c r="O7" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="108">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="108">
+        <v>368.5</v>
+      </c>
+      <c r="R7" s="108">
+        <v>52.642857142857146</v>
+      </c>
+      <c r="S7" s="108">
+        <v>2.5728571428571425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="106">
+        <v>50.4</v>
+      </c>
+      <c r="C8" s="106">
+        <v>52.8</v>
+      </c>
+      <c r="D8" s="106">
+        <v>53.2</v>
+      </c>
+      <c r="E8" s="106">
+        <v>51.6</v>
+      </c>
+      <c r="G8" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="59">
+        <v>7</v>
+      </c>
+      <c r="I8" s="59">
+        <v>364</v>
+      </c>
+      <c r="J8" s="59">
+        <v>52</v>
+      </c>
+      <c r="K8" s="59">
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="O8" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" s="108">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="108">
+        <v>364</v>
+      </c>
+      <c r="R8" s="108">
+        <v>52</v>
+      </c>
+      <c r="S8" s="108">
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16" thickBot="1">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="106">
+        <v>48</v>
+      </c>
+      <c r="C9" s="106">
+        <v>54</v>
+      </c>
+      <c r="D9" s="106">
+        <v>51.2</v>
+      </c>
+      <c r="E9" s="106">
+        <v>44.2</v>
+      </c>
+      <c r="G9" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="111">
+        <v>8</v>
+      </c>
+      <c r="I9" s="111">
+        <v>409.6</v>
+      </c>
+      <c r="J9" s="111">
+        <v>51.2</v>
+      </c>
+      <c r="K9" s="111">
+        <v>14.997142857142844</v>
+      </c>
+      <c r="O9" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="109">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="109">
+        <v>409.6</v>
+      </c>
+      <c r="R9" s="109">
+        <v>51.2</v>
+      </c>
+      <c r="S9" s="109">
+        <v>14.997142857142844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="106">
+        <v>50.3</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="106">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <f>COUNT($B$3:$B$10)</f>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>COUNT($C$3:$C$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>COUNT($D$3:$D$9)</f>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>COUNT($E$3:$E$10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12">
+        <f>SUM($B$3:$B$10)</f>
+        <v>398</v>
+      </c>
+      <c r="C12">
+        <f>SUM($C$3:$C$9)</f>
+        <v>368.5</v>
+      </c>
+      <c r="D12">
+        <f>SUM($D$3:$D$9)</f>
+        <v>364</v>
+      </c>
+      <c r="E12">
+        <f>SUM($E$3:$E$10)</f>
+        <v>409.6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE($B$3:$B$10)</f>
+        <v>49.75</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE($C$3:$C$9)</f>
+        <v>52.642857142857146</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE($D$3:$D$9)</f>
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE($E$3:$E$10)</f>
+        <v>51.2</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="O13" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.5">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.VAR.S($B$3:$B$10)</f>
+        <v>5.4314285714285742</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.VAR.S($C$3:$C$9)</f>
+        <v>2.5728571428571425</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.VAR.S($D$3:$D$9)</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.VAR.S($E$3:$E$10)</f>
+        <v>14.997142857142844</v>
+      </c>
+      <c r="G14" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="121">
+        <f>I6^2/H6+I7^2/H7+I8^2/H8+I9^2/H9-I3^2/I4</f>
+        <v>35.312523809523555</v>
+      </c>
+      <c r="I14" s="124">
+        <f>L4-1</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="121">
+        <f>H14/I14</f>
+        <v>11.770841269841185</v>
+      </c>
+      <c r="K14" s="125">
+        <f>J14/J15</f>
+        <v>1.6775195457623147</v>
+      </c>
+      <c r="L14" s="108">
+        <v>0.196268720109773</v>
+      </c>
+      <c r="M14" s="126">
+        <v>2.9752000000000001</v>
+      </c>
+      <c r="O14" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="108">
+        <v>35.312523809523782</v>
+      </c>
+      <c r="Q14" s="108">
+        <v>3</v>
+      </c>
+      <c r="R14" s="108">
+        <v>11.770841269841261</v>
+      </c>
+      <c r="S14" s="108">
+        <v>1.6775195457622276</v>
+      </c>
+      <c r="T14" s="108">
+        <v>0.196268720109773</v>
+      </c>
+      <c r="U14" s="108">
+        <v>2.9751539639733933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="G15" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="122">
+        <f>H17-H14</f>
+        <v>182.43714285713213</v>
+      </c>
+      <c r="I15" s="124">
+        <f>I4-L4</f>
+        <v>26</v>
+      </c>
+      <c r="J15" s="125">
+        <f>H15/I15</f>
+        <v>7.0168131868127741</v>
+      </c>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="O15" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="108">
+        <v>182.43714285714279</v>
+      </c>
+      <c r="Q15" s="108">
+        <v>26</v>
+      </c>
+      <c r="R15" s="108">
+        <v>7.0168131868131844</v>
+      </c>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" thickBot="1">
+      <c r="B17" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="123">
+        <f>SUM(B18:E25)-I3^2/I4</f>
+        <v>217.74966666665568</v>
+      </c>
+      <c r="I17" s="111">
+        <f>SUM(I14:I15)</f>
+        <v>29</v>
+      </c>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="O17" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="109">
+        <v>217.74966666666657</v>
+      </c>
+      <c r="Q17" s="109">
+        <v>29</v>
+      </c>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="106">
+        <f>B3^2</f>
+        <v>2265.7600000000002</v>
+      </c>
+      <c r="C18" s="106">
+        <f t="shared" ref="C18:E18" si="0">C3^2</f>
+        <v>2787.8399999999997</v>
+      </c>
+      <c r="D18" s="106">
+        <f t="shared" si="0"/>
+        <v>2540.16</v>
+      </c>
+      <c r="E18" s="106">
+        <f t="shared" si="0"/>
+        <v>2745.7599999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.5">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="106">
+        <f t="shared" ref="B19:E19" si="1">B4^2</f>
+        <v>2756.25</v>
+      </c>
+      <c r="C19" s="106">
+        <f t="shared" si="1"/>
+        <v>2641.96</v>
+      </c>
+      <c r="D19" s="106">
+        <f t="shared" si="1"/>
+        <v>3113.64</v>
+      </c>
+      <c r="E19" s="106">
+        <f t="shared" si="1"/>
+        <v>2662.56</v>
+      </c>
+      <c r="O19" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q19" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="R19" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="106">
+        <f t="shared" ref="B20:E20" si="2">B5^2</f>
+        <v>2106.81</v>
+      </c>
+      <c r="C20" s="106">
+        <f t="shared" si="2"/>
+        <v>2470.09</v>
+      </c>
+      <c r="D20" s="106">
+        <f t="shared" si="2"/>
+        <v>2480.0399999999995</v>
+      </c>
+      <c r="E20" s="106">
+        <f t="shared" si="2"/>
+        <v>3340.8399999999997</v>
+      </c>
+      <c r="O20" s="113" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" s="113" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="117"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="106">
+        <f t="shared" ref="B21:E21" si="3">B6^2</f>
+        <v>2662.56</v>
+      </c>
+      <c r="C21" s="106">
+        <f t="shared" si="3"/>
+        <v>2937.6400000000003</v>
+      </c>
+      <c r="D21" s="106">
+        <f t="shared" si="3"/>
+        <v>2683.24</v>
+      </c>
+      <c r="E21" s="106">
+        <f t="shared" si="3"/>
+        <v>2830.2400000000002</v>
+      </c>
+      <c r="O21" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q21" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="R21" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.5">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="106">
+        <f t="shared" ref="B22:E22" si="4">B7^2</f>
+        <v>2672.8900000000003</v>
+      </c>
+      <c r="C22" s="106">
+        <f t="shared" si="4"/>
+        <v>2872.96</v>
+      </c>
+      <c r="D22" s="106">
+        <f t="shared" si="4"/>
+        <v>2683.24</v>
+      </c>
+      <c r="E22" s="106">
+        <f t="shared" si="4"/>
+        <v>2410.81</v>
+      </c>
+      <c r="O22" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="106">
+        <f t="shared" ref="B23:E23" si="5">B8^2</f>
+        <v>2540.16</v>
+      </c>
+      <c r="C23" s="106">
+        <f t="shared" si="5"/>
+        <v>2787.8399999999997</v>
+      </c>
+      <c r="D23" s="106">
+        <f t="shared" si="5"/>
+        <v>2830.2400000000002</v>
+      </c>
+      <c r="E23" s="106">
+        <f t="shared" si="5"/>
+        <v>2662.56</v>
+      </c>
+      <c r="O23" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="106" t="s">
+        <v>176</v>
+      </c>
+      <c r="R23" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="S23" s="106"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="106">
+        <f t="shared" ref="B24:E24" si="6">B9^2</f>
+        <v>2304</v>
+      </c>
+      <c r="C24" s="106">
+        <f t="shared" si="6"/>
+        <v>2916</v>
+      </c>
+      <c r="D24" s="106">
+        <f t="shared" si="6"/>
+        <v>2621.4400000000005</v>
+      </c>
+      <c r="E24" s="106">
+        <f t="shared" si="6"/>
+        <v>1953.6400000000003</v>
+      </c>
+      <c r="O24" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q24" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="106">
+        <f t="shared" ref="B25:E25" si="7">B10^2</f>
+        <v>2530.0899999999997</v>
+      </c>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106">
+        <f t="shared" si="7"/>
+        <v>2470.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C11:C14" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Deloitte ClassWork.xlsx
+++ b/Deloitte ClassWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arnab Docs\Six Sigma\SS Study Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B91241-FFDF-4E79-94D4-1A39F04454D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCEAFD-D941-4ADF-890C-8A91054327FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Bias Linearity" sheetId="15" r:id="rId14"/>
     <sheet name="Bias" sheetId="16" r:id="rId15"/>
     <sheet name="Repeatability &amp; Reproducibility" sheetId="17" r:id="rId16"/>
+    <sheet name="Linearity-2" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="__shared_1_0_0" localSheetId="11">#REF!*#REF!^#REF!</definedName>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="346">
   <si>
     <t>Name</t>
   </si>
@@ -1714,12 +1715,173 @@
   <si>
     <t>Total variation =</t>
   </si>
+  <si>
+    <t>Linearity</t>
+  </si>
+  <si>
+    <t>Reference (x)</t>
+  </si>
+  <si>
+    <t>Bias (y)</t>
+  </si>
+  <si>
+    <t>x * y</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Trial 4</t>
+  </si>
+  <si>
+    <t>Trial 5</t>
+  </si>
+  <si>
+    <t>Total =</t>
+  </si>
+  <si>
+    <r>
+      <t>The bias at any point can be estimate from the slope and the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-intercept, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> of the best-fit line.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope (b) = </t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y-intercept (y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)= </t>
+    </r>
+  </si>
+  <si>
+    <t>r^2 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Linearity = </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1728,9 +1890,12 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="174" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2018,8 +2183,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2106,6 +2298,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3091,7 +3289,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3430,90 +3628,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3523,12 +3637,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3536,12 +3644,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3572,7 +3674,7 @@
     <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="14" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="14" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="4" applyFill="1"/>
@@ -3586,26 +3688,8 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="73" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3618,9 +3702,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3638,9 +3719,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3670,6 +3748,173 @@
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="37" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="37" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="37" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="37" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="71" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="72" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="73" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
@@ -5599,6 +5844,566 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scatter Plot Reference vs. Bias</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.38984120734908134"/>
+                  <c:y val="-6.2485783027121607E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linearity-2'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linearity-2'!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.16600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.3999999999998494E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6000000000001791E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7999999999994714E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000005116E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3999999999995794E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9999999999988063E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8000000000001819E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12399999999999523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1460000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B1A-4F2D-9DE7-81199851607F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="171759280"/>
+        <c:axId val="171741040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="171759280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reference (x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171741040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="171741040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bias (y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171759280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -11527,6 +12332,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12905,6 +13750,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20800,6 +22161,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396239</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3C061A-D2DB-4A0C-9AFF-6E30B4B4A634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3733800" y="3752850"/>
+          <a:ext cx="2174239" cy="1117601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570230</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1712D0BB-773B-493C-ACAB-A4E07C79AD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6178550" y="3759200"/>
+          <a:ext cx="1751330" cy="876119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302D72AD-C221-4EC1-6B2C-660727CFB72F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -21973,8 +23489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22773,12 +24289,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="245" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="114" t="s">
@@ -23344,46 +24860,46 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="F22" s="173" t="s">
+      <c r="F22" s="243" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="173" t="s">
+      <c r="G22" s="243" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="173" t="s">
+      <c r="H22" s="243" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="173" t="s">
+      <c r="I22" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="J22" s="173" t="s">
+      <c r="J22" s="243" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="174"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="244"/>
     </row>
     <row r="24" spans="1:20" ht="15.5">
       <c r="A24" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="177" t="s">
+      <c r="F24" s="240" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="177" t="s">
+      <c r="G24" s="240" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="177" t="s">
+      <c r="H24" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="I24" s="177" t="s">
+      <c r="I24" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="J24" s="177" t="s">
+      <c r="J24" s="240" t="s">
         <v>174</v>
       </c>
     </row>
@@ -23391,39 +24907,39 @@
       <c r="A25" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="240"/>
+      <c r="H25" s="240"/>
+      <c r="I25" s="240"/>
+      <c r="J25" s="240"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="177" t="s">
+      <c r="F26" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="177" t="s">
+      <c r="G26" s="240" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="177" t="s">
+      <c r="H26" s="240" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="178" t="s">
+      <c r="I26" s="241" t="s">
         <v>177</v>
       </c>
-      <c r="J26" s="177"/>
+      <c r="J26" s="240"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="177"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="240"/>
+      <c r="H27" s="240"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="240"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="6" t="s">
@@ -23771,22 +25287,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{476D9637-465A-4F27-80F6-399708C45335}"/>
@@ -23812,12 +25328,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="245" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -23832,14 +25348,14 @@
       <c r="F2" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="180" t="s">
+      <c r="L2" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
@@ -23854,12 +25370,12 @@
       <c r="D3">
         <v>9</v>
       </c>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4">
@@ -24025,14 +25541,14 @@
       <c r="D10">
         <v>10</v>
       </c>
-      <c r="L10" s="180" t="s">
+      <c r="L10" s="247" t="s">
         <v>226</v>
       </c>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="180"/>
+      <c r="M10" s="247"/>
+      <c r="N10" s="247"/>
+      <c r="O10" s="247"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="247"/>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1">
       <c r="B11">
@@ -24051,12 +25567,12 @@
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
       <c r="J11" s="129"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="180"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="247"/>
+      <c r="N11" s="247"/>
+      <c r="O11" s="247"/>
+      <c r="P11" s="247"/>
+      <c r="Q11" s="247"/>
     </row>
     <row r="12" spans="1:17">
       <c r="F12" t="s">
@@ -24253,14 +25769,14 @@
       <c r="I26">
         <v>7.5555555555555554</v>
       </c>
-      <c r="L26" s="180" t="s">
+      <c r="L26" s="247" t="s">
         <v>227</v>
       </c>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="180"/>
+      <c r="M26" s="247"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="247"/>
+      <c r="P26" s="247"/>
+      <c r="Q26" s="247"/>
     </row>
     <row r="27" spans="6:17">
       <c r="F27" t="s">
@@ -24275,20 +25791,20 @@
       <c r="I27">
         <v>10.277777777777771</v>
       </c>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="180"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="247"/>
+      <c r="N27" s="247"/>
+      <c r="O27" s="247"/>
+      <c r="P27" s="247"/>
+      <c r="Q27" s="247"/>
     </row>
     <row r="28" spans="6:17">
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="247"/>
+      <c r="N28" s="247"/>
+      <c r="O28" s="247"/>
+      <c r="P28" s="247"/>
+      <c r="Q28" s="247"/>
     </row>
     <row r="30" spans="6:17" ht="15" thickBot="1">
       <c r="F30" t="s">
@@ -25448,28 +26964,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="41" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="245" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
       <c r="F1" s="6" cm="1">
         <f t="array" ref="F1">SUMPRODUCT(1/COUNTIF(B4:B11,B4:B11))</f>
         <v>2</v>
       </c>
-      <c r="I1" s="182" t="s">
+      <c r="I1" s="248" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
       <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:21" ht="13" thickBot="1"/>
@@ -25764,7 +27280,7 @@
         <f t="shared" si="0"/>
         <v>12.96</v>
       </c>
-      <c r="L11" s="181" t="s">
+      <c r="L11" s="249" t="s">
         <v>87</v>
       </c>
       <c r="M11" s="146">
@@ -25810,7 +27326,7 @@
         <f>SUM(J4:J11)</f>
         <v>146.6</v>
       </c>
-      <c r="L12" s="181"/>
+      <c r="L12" s="249"/>
       <c r="M12" s="146">
         <v>600</v>
       </c>
@@ -25842,7 +27358,7 @@
       <c r="I13" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="L13" s="181" t="s">
+      <c r="L13" s="249" t="s">
         <v>235</v>
       </c>
       <c r="M13" s="146">
@@ -25869,37 +27385,37 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.5" customHeight="1">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="250" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="252" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="183" t="s">
+      <c r="C14" s="252" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="185" t="s">
+      <c r="D14" s="254" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="187" t="s">
+      <c r="E14" s="256" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="188" t="s">
+      <c r="G14" s="250" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="183" t="s">
+      <c r="H14" s="252" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="183" t="s">
+      <c r="I14" s="252" t="s">
         <v>194</v>
       </c>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="254" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="187" t="s">
+      <c r="K14" s="256" t="s">
         <v>246</v>
       </c>
-      <c r="L14" s="181"/>
+      <c r="L14" s="249"/>
       <c r="M14" s="146">
         <v>1500</v>
       </c>
@@ -25920,17 +27436,17 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.5" customHeight="1">
-      <c r="A15" s="189"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="187"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="181" t="s">
+      <c r="A15" s="251"/>
+      <c r="B15" s="253"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="256"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="255"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="249" t="s">
         <v>236</v>
       </c>
       <c r="M15" s="146">
@@ -25991,7 +27507,7 @@
         <f>J16/$H$22</f>
         <v>1.4400000000000241</v>
       </c>
-      <c r="L16" s="181"/>
+      <c r="L16" s="249"/>
       <c r="M16" s="146">
         <v>15</v>
       </c>
@@ -26046,7 +27562,7 @@
         <f t="shared" ref="K17:K21" si="6">J17/$H$22</f>
         <v>0.75111111111112328</v>
       </c>
-      <c r="L17" s="181" t="s">
+      <c r="L17" s="249" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="146">
@@ -26107,7 +27623,7 @@
         <f t="shared" si="6"/>
         <v>0.28444444444444922</v>
       </c>
-      <c r="L18" s="181"/>
+      <c r="L18" s="249"/>
       <c r="M18" s="146">
         <v>2.5</v>
       </c>
@@ -26155,7 +27671,7 @@
         <f t="shared" si="6"/>
         <v>0.28444444444444922</v>
       </c>
-      <c r="L19" s="181" t="s">
+      <c r="L19" s="249" t="s">
         <v>237</v>
       </c>
       <c r="M19" s="152">
@@ -26209,7 +27725,7 @@
         <f t="shared" si="6"/>
         <v>1.0000000000000162</v>
       </c>
-      <c r="L20" s="181"/>
+      <c r="L20" s="249"/>
       <c r="M20" s="152">
         <v>0.01</v>
       </c>
@@ -26257,7 +27773,7 @@
         <f t="shared" si="6"/>
         <v>0.11111111111111278</v>
       </c>
-      <c r="L21" s="181" t="s">
+      <c r="L21" s="249" t="s">
         <v>238</v>
       </c>
       <c r="M21" s="152">
@@ -26306,7 +27822,7 @@
         <v>1.1249999999999831</v>
       </c>
       <c r="K22" s="153"/>
-      <c r="L22" s="181"/>
+      <c r="L22" s="249"/>
       <c r="M22" s="152">
         <v>0.05</v>
       </c>
@@ -26354,70 +27870,70 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="12.5" customHeight="1">
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="248" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="248"/>
+      <c r="F26" s="248"/>
+      <c r="G26" s="248"/>
+      <c r="H26" s="248"/>
+      <c r="I26" s="248"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="182"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="248"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="248"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="248"/>
+      <c r="J27" s="248"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="182"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="248"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="248"/>
+      <c r="I28" s="248"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
+      <c r="B29" s="248"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="248"/>
+      <c r="I29" s="248"/>
+      <c r="J29" s="248"/>
+      <c r="K29" s="248"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="248"/>
+      <c r="O29" s="248"/>
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="154">
@@ -26555,6 +28071,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="B26:O29"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I1:R1"/>
     <mergeCell ref="L11:L12"/>
@@ -26565,15 +28090,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="B26:O29"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G25" r:id="rId1" xr:uid="{EFFD46BB-CA0C-4D50-AEC2-1C0728FBEBD1}"/>
@@ -26747,8 +28263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A32A08-632D-4643-8037-6D4239F15462}">
   <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26758,77 +28274,77 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1"/>
     <row r="2" spans="2:4" ht="30" customHeight="1">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="257" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="259" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="195" t="s">
+      <c r="D2" s="261" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1">
-      <c r="B3" s="191"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="196"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="262"/>
     </row>
     <row r="4" spans="2:4" ht="15.5">
-      <c r="B4" s="192">
+      <c r="B4" s="164">
         <v>12</v>
       </c>
-      <c r="C4" s="202">
+      <c r="C4" s="170">
         <v>11.98</v>
       </c>
-      <c r="D4" s="197">
+      <c r="D4" s="167">
         <f>C4-B4</f>
         <v>-1.9999999999999574E-2</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.5">
-      <c r="B5" s="193">
+      <c r="B5" s="165">
         <v>14</v>
       </c>
-      <c r="C5" s="203">
+      <c r="C5" s="171">
         <v>13.99</v>
       </c>
-      <c r="D5" s="198">
+      <c r="D5" s="168">
         <f t="shared" ref="D5:D8" si="0">C5-B5</f>
         <v>-9.9999999999997868E-3</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.5">
-      <c r="B6" s="193">
+      <c r="B6" s="165">
         <v>16</v>
       </c>
-      <c r="C6" s="203">
+      <c r="C6" s="171">
         <v>16</v>
       </c>
-      <c r="D6" s="198">
+      <c r="D6" s="168">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.5">
-      <c r="B7" s="193">
+      <c r="B7" s="165">
         <v>18</v>
       </c>
-      <c r="C7" s="203">
+      <c r="C7" s="171">
         <v>18.010000000000002</v>
       </c>
-      <c r="D7" s="198">
+      <c r="D7" s="168">
         <f t="shared" si="0"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="16" thickBot="1">
-      <c r="B8" s="194">
+      <c r="B8" s="166">
         <v>20</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="172">
         <v>20.02</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="169">
         <f t="shared" si="0"/>
         <v>1.9999999999999574E-2</v>
       </c>
@@ -26887,7 +28403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="173" t="s">
         <v>268</v>
       </c>
     </row>
@@ -26895,19 +28411,19 @@
       <c r="F2" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="O2" s="206">
+      <c r="O2" s="174">
         <v>100.1</v>
       </c>
-      <c r="P2" s="206">
+      <c r="P2" s="174">
         <v>100.6</v>
       </c>
-      <c r="Q2" s="206">
+      <c r="Q2" s="174">
         <v>101.5</v>
       </c>
-      <c r="R2" s="206">
+      <c r="R2" s="174">
         <v>101.6</v>
       </c>
-      <c r="S2" s="206">
+      <c r="S2" s="174">
         <v>101.8</v>
       </c>
     </row>
@@ -26915,56 +28431,56 @@
       <c r="A3" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="207">
+      <c r="B3" s="175">
         <v>100.3</v>
       </c>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="176" t="s">
         <v>271</v>
       </c>
-      <c r="O3" s="206">
+      <c r="O3" s="174">
         <v>101.9</v>
       </c>
-      <c r="P3" s="206">
+      <c r="P3" s="174">
         <v>100.2</v>
       </c>
-      <c r="Q3" s="206">
+      <c r="Q3" s="174">
         <v>100.8</v>
       </c>
-      <c r="R3" s="206">
+      <c r="R3" s="174">
         <v>101.3</v>
       </c>
-      <c r="S3" s="206">
+      <c r="S3" s="174">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="177" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="210">
+      <c r="B4" s="178">
         <f>AVERAGE(D4:D33)</f>
         <v>100.91666666666669</v>
       </c>
-      <c r="C4" s="218">
+      <c r="C4" s="186">
         <f>AVERAGE(O2:S7)</f>
         <v>100.9166666666667</v>
       </c>
-      <c r="D4" s="211">
+      <c r="D4" s="179">
         <v>100.1</v>
       </c>
-      <c r="O4" s="206">
+      <c r="O4" s="174">
         <v>101</v>
       </c>
-      <c r="P4" s="206">
+      <c r="P4" s="174">
         <v>101.1</v>
       </c>
-      <c r="Q4" s="206">
+      <c r="Q4" s="174">
         <v>102</v>
       </c>
-      <c r="R4" s="206">
+      <c r="R4" s="174">
         <v>100.5</v>
       </c>
-      <c r="S4" s="206">
+      <c r="S4" s="174">
         <v>100.7</v>
       </c>
     </row>
@@ -26972,26 +28488,26 @@
       <c r="A5" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="210">
+      <c r="B5" s="178">
         <f>STDEV(D4:D33)</f>
         <v>0.58726915249420708</v>
       </c>
-      <c r="D5" s="211">
+      <c r="D5" s="179">
         <v>101.9</v>
       </c>
-      <c r="O5" s="206">
+      <c r="O5" s="174">
         <v>100.2</v>
       </c>
-      <c r="P5" s="206">
+      <c r="P5" s="174">
         <v>101.6</v>
       </c>
-      <c r="Q5" s="206">
+      <c r="Q5" s="174">
         <v>100.9</v>
       </c>
-      <c r="R5" s="206">
+      <c r="R5" s="174">
         <v>100.6</v>
       </c>
-      <c r="S5" s="206">
+      <c r="S5" s="174">
         <v>100.4</v>
       </c>
     </row>
@@ -26999,55 +28515,55 @@
       <c r="A6" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="212">
+      <c r="B6" s="180">
         <v>0.1</v>
       </c>
-      <c r="D6" s="211">
+      <c r="D6" s="179">
         <v>101</v>
       </c>
-      <c r="O6" s="206">
+      <c r="O6" s="174">
         <v>100.6</v>
       </c>
-      <c r="P6" s="206">
+      <c r="P6" s="174">
         <v>100.8</v>
       </c>
-      <c r="Q6" s="206">
+      <c r="Q6" s="174">
         <v>100.5</v>
       </c>
-      <c r="R6" s="206">
+      <c r="R6" s="174">
         <v>101</v>
       </c>
-      <c r="S6" s="206">
+      <c r="S6" s="174">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="177" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="210">
+      <c r="B7" s="178">
         <f>TINV(B6,COUNT(D4:D33)-1)</f>
         <v>1.6991270265334986</v>
       </c>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="181" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="211">
+      <c r="D7" s="179">
         <v>100.2</v>
       </c>
-      <c r="O7" s="206">
+      <c r="O7" s="174">
         <v>101.5</v>
       </c>
-      <c r="P7" s="206">
+      <c r="P7" s="174">
         <v>101.4</v>
       </c>
-      <c r="Q7" s="206">
+      <c r="Q7" s="174">
         <v>101.3</v>
       </c>
-      <c r="R7" s="206">
+      <c r="R7" s="174">
         <v>100.3</v>
       </c>
-      <c r="S7" s="206">
+      <c r="S7" s="174">
         <v>101.3</v>
       </c>
     </row>
@@ -27055,14 +28571,14 @@
       <c r="A8" s="122" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="210">
+      <c r="B8" s="178">
         <f>(B4-B3)/(B5/(COUNT(D4:D33)^0.5))</f>
         <v>5.7514044856663249</v>
       </c>
       <c r="C8" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="211">
+      <c r="D8" s="179">
         <v>100.6</v>
       </c>
     </row>
@@ -27070,38 +28586,38 @@
       <c r="A9" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="210">
+      <c r="B9" s="178">
         <f>+B4-B3</f>
         <v>0.61666666666668846</v>
       </c>
-      <c r="C9" s="214" t="s">
+      <c r="C9" s="182" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="211">
+      <c r="D9" s="179">
         <v>101.5</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="13">
       <c r="A10" s="122"/>
-      <c r="B10" s="215"/>
-      <c r="D10" s="211">
+      <c r="B10" s="183"/>
+      <c r="D10" s="179">
         <v>100.6</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="13">
       <c r="A11" s="122"/>
-      <c r="B11" s="215"/>
-      <c r="D11" s="211">
+      <c r="B11" s="183"/>
+      <c r="D11" s="179">
         <v>100.2</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="13">
       <c r="A12" s="122"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="214" t="s">
+      <c r="B12" s="183"/>
+      <c r="C12" s="182" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="211">
+      <c r="D12" s="179">
         <v>101.1</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -27110,35 +28626,35 @@
     </row>
     <row r="13" spans="1:19" ht="13">
       <c r="A13" s="122"/>
-      <c r="B13" s="215"/>
-      <c r="D13" s="211">
+      <c r="B13" s="183"/>
+      <c r="D13" s="179">
         <v>101.6</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="13">
       <c r="A14" s="122"/>
-      <c r="B14" s="215"/>
-      <c r="D14" s="211">
+      <c r="B14" s="183"/>
+      <c r="D14" s="179">
         <v>100.8</v>
       </c>
-      <c r="K14" s="213" t="s">
+      <c r="K14" s="181" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13">
       <c r="A15" s="122"/>
-      <c r="B15" s="215"/>
-      <c r="D15" s="211">
+      <c r="B15" s="183"/>
+      <c r="D15" s="179">
         <v>101.4</v>
       </c>
-      <c r="K15" s="216" t="s">
+      <c r="K15" s="184" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="13">
       <c r="A16" s="122"/>
-      <c r="B16" s="215"/>
-      <c r="D16" s="211">
+      <c r="B16" s="183"/>
+      <c r="D16" s="179">
         <v>101.5</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -27147,8 +28663,8 @@
     </row>
     <row r="17" spans="1:11" ht="13">
       <c r="A17" s="122"/>
-      <c r="B17" s="215"/>
-      <c r="D17" s="211">
+      <c r="B17" s="183"/>
+      <c r="D17" s="179">
         <v>100.8</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -27157,8 +28673,8 @@
     </row>
     <row r="18" spans="1:11" ht="13">
       <c r="A18" s="122"/>
-      <c r="B18" s="215"/>
-      <c r="D18" s="211">
+      <c r="B18" s="183"/>
+      <c r="D18" s="179">
         <v>102</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -27166,7 +28682,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="13">
-      <c r="D19" s="211">
+      <c r="D19" s="179">
         <v>100.9</v>
       </c>
       <c r="K19" s="6">
@@ -27176,7 +28692,7 @@
     </row>
     <row r="20" spans="1:11" ht="13">
       <c r="A20" s="122"/>
-      <c r="D20" s="211">
+      <c r="D20" s="179">
         <v>100.5</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -27185,8 +28701,8 @@
     </row>
     <row r="21" spans="1:11" ht="13">
       <c r="A21" s="122"/>
-      <c r="B21" s="215"/>
-      <c r="D21" s="211">
+      <c r="B21" s="183"/>
+      <c r="D21" s="179">
         <v>101.3</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -27195,15 +28711,15 @@
     </row>
     <row r="22" spans="1:11" ht="13">
       <c r="A22" s="122"/>
-      <c r="B22" s="215"/>
-      <c r="D22" s="211">
+      <c r="B22" s="183"/>
+      <c r="D22" s="179">
         <v>101.6</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13">
       <c r="A23" s="122"/>
-      <c r="B23" s="215"/>
-      <c r="D23" s="211">
+      <c r="B23" s="183"/>
+      <c r="D23" s="179">
         <v>101.3</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -27212,8 +28728,8 @@
     </row>
     <row r="24" spans="1:11" ht="17.5">
       <c r="A24" s="122"/>
-      <c r="B24" s="215"/>
-      <c r="D24" s="211">
+      <c r="B24" s="183"/>
+      <c r="D24" s="179">
         <v>100.5</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -27225,8 +28741,8 @@
     </row>
     <row r="25" spans="1:11" ht="13">
       <c r="A25" s="122"/>
-      <c r="B25" s="215"/>
-      <c r="D25" s="211">
+      <c r="B25" s="183"/>
+      <c r="D25" s="179">
         <v>100.6</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -27235,8 +28751,8 @@
     </row>
     <row r="26" spans="1:11" ht="13">
       <c r="A26" s="122"/>
-      <c r="B26" s="215"/>
-      <c r="D26" s="211">
+      <c r="B26" s="183"/>
+      <c r="D26" s="179">
         <v>101</v>
       </c>
       <c r="H26" s="160" t="s">
@@ -27245,29 +28761,29 @@
     </row>
     <row r="27" spans="1:11" ht="13">
       <c r="A27" s="122"/>
-      <c r="B27" s="215"/>
-      <c r="D27" s="211">
+      <c r="B27" s="183"/>
+      <c r="D27" s="179">
         <v>100.3</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13">
       <c r="A28" s="122"/>
-      <c r="B28" s="215"/>
-      <c r="D28" s="211">
+      <c r="B28" s="183"/>
+      <c r="D28" s="179">
         <v>101.8</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13">
       <c r="A29" s="122"/>
-      <c r="B29" s="215"/>
-      <c r="D29" s="211">
+      <c r="B29" s="183"/>
+      <c r="D29" s="179">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13">
       <c r="A30" s="122"/>
-      <c r="B30" s="215"/>
-      <c r="D30" s="211">
+      <c r="B30" s="183"/>
+      <c r="D30" s="179">
         <v>100.7</v>
       </c>
       <c r="K30" s="160" t="s">
@@ -27276,246 +28792,246 @@
     </row>
     <row r="31" spans="1:11" ht="13">
       <c r="A31" s="122"/>
-      <c r="B31" s="215"/>
-      <c r="D31" s="211">
+      <c r="B31" s="183"/>
+      <c r="D31" s="179">
         <v>100.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13">
       <c r="A32" s="122"/>
-      <c r="B32" s="215"/>
-      <c r="D32" s="211">
+      <c r="B32" s="183"/>
+      <c r="D32" s="179">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13">
       <c r="A33" s="122"/>
-      <c r="B33" s="215"/>
-      <c r="D33" s="211">
+      <c r="B33" s="183"/>
+      <c r="D33" s="179">
         <v>101.3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="122"/>
-      <c r="B34" s="215"/>
+      <c r="B34" s="183"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="122"/>
-      <c r="B35" s="215"/>
+      <c r="B35" s="183"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="122"/>
-      <c r="B36" s="215"/>
+      <c r="B36" s="183"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="215"/>
+      <c r="B37" s="183"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="215"/>
+      <c r="B38" s="183"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="215"/>
+      <c r="B39" s="183"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="215"/>
+      <c r="B40" s="183"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="215"/>
+      <c r="B41" s="183"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="215"/>
+      <c r="B42" s="183"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="215"/>
+      <c r="B43" s="183"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="215"/>
+      <c r="B44" s="183"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="215"/>
+      <c r="B45" s="183"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="215"/>
+      <c r="B46" s="183"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="215"/>
+      <c r="B47" s="183"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="215"/>
+      <c r="B48" s="183"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="215"/>
+      <c r="B49" s="183"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="215"/>
+      <c r="B50" s="183"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="215"/>
+      <c r="B51" s="183"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="215"/>
+      <c r="B52" s="183"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="215"/>
+      <c r="B53" s="183"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="215"/>
+      <c r="B54" s="183"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="215"/>
+      <c r="B55" s="183"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="215"/>
+      <c r="B56" s="183"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="215"/>
+      <c r="B57" s="183"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="215"/>
+      <c r="B58" s="183"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="215"/>
+      <c r="B59" s="183"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="215"/>
+      <c r="B60" s="183"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="215"/>
+      <c r="B61" s="183"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="215"/>
+      <c r="B62" s="183"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="215"/>
+      <c r="B63" s="183"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="215"/>
+      <c r="B64" s="183"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="215"/>
+      <c r="B65" s="183"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="215"/>
+      <c r="B66" s="183"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="215"/>
+      <c r="B67" s="183"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="215"/>
+      <c r="B68" s="183"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="215"/>
+      <c r="B69" s="183"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="215"/>
+      <c r="B70" s="183"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="215"/>
+      <c r="B71" s="183"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="215"/>
+      <c r="B72" s="183"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="215"/>
+      <c r="B73" s="183"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="215"/>
+      <c r="B74" s="183"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="215"/>
+      <c r="B75" s="183"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="215"/>
+      <c r="B76" s="183"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="215"/>
+      <c r="B77" s="183"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="215"/>
+      <c r="B78" s="183"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="215"/>
+      <c r="B79" s="183"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="215"/>
+      <c r="B80" s="183"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="215"/>
+      <c r="B81" s="183"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="215"/>
+      <c r="B82" s="183"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="215"/>
+      <c r="B83" s="183"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="215"/>
+      <c r="B84" s="183"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="215"/>
+      <c r="B85" s="183"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="215"/>
+      <c r="B86" s="183"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="215"/>
+      <c r="B87" s="183"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="215"/>
+      <c r="B88" s="183"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="215"/>
+      <c r="B89" s="183"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="215"/>
+      <c r="B90" s="183"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="215"/>
+      <c r="B91" s="183"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="215"/>
+      <c r="B92" s="183"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="215"/>
+      <c r="B93" s="183"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="215"/>
+      <c r="B94" s="183"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="215"/>
+      <c r="B95" s="183"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="215"/>
+      <c r="B96" s="183"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="215"/>
+      <c r="B97" s="183"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="215"/>
+      <c r="B98" s="183"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="215"/>
+      <c r="B99" s="183"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="215"/>
+      <c r="B100" s="183"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="215"/>
+      <c r="B101" s="183"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="215"/>
+      <c r="B102" s="183"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="215"/>
+      <c r="B103" s="183"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="215"/>
+      <c r="B104" s="183"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="215"/>
+      <c r="B105" s="183"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="215"/>
+      <c r="B106" s="183"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27532,9 +29048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C63EB-5488-4A64-88D6-88AB6035AB82}">
   <dimension ref="A2:S65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -27556,177 +29070,177 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="265" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="268" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="222"/>
-      <c r="I2" s="223" t="s">
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="270"/>
+      <c r="I2" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="223" t="s">
+      <c r="J2" s="187" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="223" t="s">
+      <c r="K2" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="223" t="s">
+      <c r="L2" s="187" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="223" t="s">
+      <c r="M2" s="187" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="224"/>
-      <c r="B3" s="220" t="s">
+      <c r="A3" s="266"/>
+      <c r="B3" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="222"/>
-      <c r="D3" s="220" t="s">
+      <c r="C3" s="270"/>
+      <c r="D3" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="220" t="s">
+      <c r="E3" s="270"/>
+      <c r="F3" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="222"/>
-      <c r="I3" s="225" t="s">
+      <c r="G3" s="270"/>
+      <c r="I3" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="J3" s="225" t="s">
+      <c r="J3" s="188" t="s">
         <v>292</v>
       </c>
-      <c r="K3" s="225" t="s">
+      <c r="K3" s="188" t="s">
         <v>293</v>
       </c>
-      <c r="L3" s="225" t="s">
+      <c r="L3" s="188" t="s">
         <v>294</v>
       </c>
-      <c r="M3" s="225" t="s">
+      <c r="M3" s="188" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5">
-      <c r="A4" s="226"/>
-      <c r="B4" s="227" t="s">
+      <c r="A4" s="267"/>
+      <c r="B4" s="189" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="227" t="s">
+      <c r="C4" s="189" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="227" t="s">
+      <c r="D4" s="189" t="s">
         <v>296</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="189" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="227" t="s">
+      <c r="F4" s="189" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="227" t="s">
+      <c r="G4" s="189" t="s">
         <v>297</v>
       </c>
-      <c r="I4" s="225" t="s">
+      <c r="I4" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="J4" s="225" t="s">
+      <c r="J4" s="188" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="225" t="s">
+      <c r="K4" s="188" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="225" t="s">
+      <c r="L4" s="188" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="225" t="s">
+      <c r="M4" s="188" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5">
-      <c r="A5" s="228">
+      <c r="A5" s="190">
         <v>1</v>
       </c>
-      <c r="B5" s="228">
+      <c r="B5" s="190">
         <v>65.2</v>
       </c>
-      <c r="C5" s="228">
+      <c r="C5" s="190">
         <v>60.1</v>
       </c>
-      <c r="D5" s="228">
+      <c r="D5" s="190">
         <v>62.9</v>
       </c>
-      <c r="E5" s="228">
+      <c r="E5" s="190">
         <v>56.3</v>
       </c>
-      <c r="F5" s="228">
+      <c r="F5" s="190">
         <v>71.599999999999994</v>
       </c>
-      <c r="G5" s="228">
+      <c r="G5" s="190">
         <v>60.6</v>
       </c>
-      <c r="I5" s="229" t="s">
+      <c r="I5" s="263" t="s">
         <v>303</v>
       </c>
-      <c r="J5" s="229" t="s">
+      <c r="J5" s="263" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="229" t="s">
+      <c r="K5" s="263" t="s">
         <v>305</v>
       </c>
-      <c r="L5" s="229" t="s">
+      <c r="L5" s="263" t="s">
         <v>306</v>
       </c>
-      <c r="M5" s="229" t="s">
+      <c r="M5" s="263" t="s">
         <v>307</v>
       </c>
-      <c r="P5" s="230" t="s">
+      <c r="P5" s="192" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="230" t="s">
+      <c r="Q5" s="192" t="s">
         <v>153</v>
       </c>
-      <c r="R5" s="230" t="s">
+      <c r="R5" s="192" t="s">
         <v>308</v>
       </c>
-      <c r="S5" s="230" t="s">
+      <c r="S5" s="192" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.5">
-      <c r="A6" s="228">
+      <c r="A6" s="190">
         <v>2</v>
       </c>
-      <c r="B6" s="228">
+      <c r="B6" s="190">
         <v>85.8</v>
       </c>
-      <c r="C6" s="228">
+      <c r="C6" s="190">
         <v>86.3</v>
       </c>
-      <c r="D6" s="228">
+      <c r="D6" s="190">
         <v>85.7</v>
       </c>
-      <c r="E6" s="228">
+      <c r="E6" s="190">
         <v>80.5</v>
       </c>
-      <c r="F6" s="228">
+      <c r="F6" s="190">
         <v>92</v>
       </c>
-      <c r="G6" s="228">
+      <c r="G6" s="190">
         <v>87.4</v>
       </c>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="P6" s="232" t="s">
+      <c r="I6" s="264"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="264"/>
+      <c r="L6" s="264"/>
+      <c r="M6" s="264"/>
+      <c r="P6" s="193" t="s">
         <v>14</v>
       </c>
       <c r="Q6" s="146">
@@ -27743,41 +29257,41 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5">
-      <c r="A7" s="228">
+      <c r="A7" s="190">
         <v>3</v>
       </c>
-      <c r="B7" s="228">
+      <c r="B7" s="190">
         <v>100.2</v>
       </c>
-      <c r="C7" s="228">
+      <c r="C7" s="190">
         <v>94.8</v>
       </c>
-      <c r="D7" s="228">
+      <c r="D7" s="190">
         <v>100.1</v>
       </c>
-      <c r="E7" s="228">
+      <c r="E7" s="190">
         <v>94.5</v>
       </c>
-      <c r="F7" s="228">
+      <c r="F7" s="190">
         <v>107.3</v>
       </c>
-      <c r="G7" s="228">
+      <c r="G7" s="190">
         <v>104.4</v>
       </c>
-      <c r="I7" s="225" t="s">
+      <c r="I7" s="188" t="s">
         <v>310</v>
       </c>
-      <c r="J7" s="225" t="s">
+      <c r="J7" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="225" t="s">
+      <c r="K7" s="188" t="s">
         <v>311</v>
       </c>
-      <c r="L7" s="225" t="s">
+      <c r="L7" s="188" t="s">
         <v>312</v>
       </c>
-      <c r="M7" s="225"/>
-      <c r="P7" s="233" t="s">
+      <c r="M7" s="188"/>
+      <c r="P7" s="194" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="146">
@@ -27794,39 +29308,39 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5">
-      <c r="A8" s="228">
+      <c r="A8" s="190">
         <v>4</v>
       </c>
-      <c r="B8" s="228">
+      <c r="B8" s="190">
         <v>85</v>
       </c>
-      <c r="C8" s="228">
+      <c r="C8" s="190">
         <v>95.1</v>
       </c>
-      <c r="D8" s="228">
+      <c r="D8" s="190">
         <v>84.8</v>
       </c>
-      <c r="E8" s="228">
+      <c r="E8" s="190">
         <v>90.3</v>
       </c>
-      <c r="F8" s="228">
+      <c r="F8" s="190">
         <v>92.3</v>
       </c>
-      <c r="G8" s="228">
+      <c r="G8" s="190">
         <v>94.6</v>
       </c>
-      <c r="I8" s="225" t="s">
+      <c r="I8" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="225" t="s">
+      <c r="J8" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="225" t="s">
+      <c r="K8" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="P8" s="232" t="s">
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="P8" s="193" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="146">
@@ -27843,28 +29357,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5">
-      <c r="A9" s="228">
+      <c r="A9" s="190">
         <v>5</v>
       </c>
-      <c r="B9" s="228">
+      <c r="B9" s="190">
         <v>54.7</v>
       </c>
-      <c r="C9" s="228">
+      <c r="C9" s="190">
         <v>65.8</v>
       </c>
-      <c r="D9" s="228">
+      <c r="D9" s="190">
         <v>51.7</v>
       </c>
-      <c r="E9" s="228">
+      <c r="E9" s="190">
         <v>60</v>
       </c>
-      <c r="F9" s="228">
+      <c r="F9" s="190">
         <v>58.9</v>
       </c>
-      <c r="G9" s="228">
+      <c r="G9" s="190">
         <v>67.2</v>
       </c>
-      <c r="R9" s="208" t="s">
+      <c r="R9" s="176" t="s">
         <v>68</v>
       </c>
       <c r="S9" s="6">
@@ -27873,276 +29387,276 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="17.5">
-      <c r="A10" s="228">
+      <c r="A10" s="190">
         <v>6</v>
       </c>
-      <c r="B10" s="228">
+      <c r="B10" s="190">
         <v>98.7</v>
       </c>
-      <c r="C10" s="228">
+      <c r="C10" s="190">
         <v>90.2</v>
       </c>
-      <c r="D10" s="228">
+      <c r="D10" s="190">
         <v>92.7</v>
       </c>
-      <c r="E10" s="228">
+      <c r="E10" s="190">
         <v>87.2</v>
       </c>
-      <c r="F10" s="228">
+      <c r="F10" s="190">
         <v>98.9</v>
       </c>
-      <c r="G10" s="228">
+      <c r="G10" s="190">
         <v>93.5</v>
       </c>
       <c r="I10" s="6">
         <f>COUNTA(B3:G3)</f>
         <v>3</v>
       </c>
-      <c r="J10" s="234" t="s">
+      <c r="J10" s="195" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.5">
-      <c r="A11" s="228">
+      <c r="A11" s="190">
         <v>7</v>
       </c>
-      <c r="B11" s="228">
+      <c r="B11" s="190">
         <v>94.5</v>
       </c>
-      <c r="C11" s="228">
+      <c r="C11" s="190">
         <v>94.5</v>
       </c>
-      <c r="D11" s="228">
+      <c r="D11" s="190">
         <v>91</v>
       </c>
-      <c r="E11" s="228">
+      <c r="E11" s="190">
         <v>93.4</v>
       </c>
-      <c r="F11" s="228">
+      <c r="F11" s="190">
         <v>95.4</v>
       </c>
-      <c r="G11" s="228">
+      <c r="G11" s="190">
         <v>103.3</v>
       </c>
       <c r="I11" s="6">
         <f>COUNTA(A5:A14)</f>
         <v>10</v>
       </c>
-      <c r="J11" s="234" t="s">
+      <c r="J11" s="195" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.5">
-      <c r="A12" s="228">
+      <c r="A12" s="190">
         <v>8</v>
       </c>
-      <c r="B12" s="228">
+      <c r="B12" s="190">
         <v>87.2</v>
       </c>
-      <c r="C12" s="228">
+      <c r="C12" s="190">
         <v>82.4</v>
       </c>
-      <c r="D12" s="228">
+      <c r="D12" s="190">
         <v>83.9</v>
       </c>
-      <c r="E12" s="228">
+      <c r="E12" s="190">
         <v>78.8</v>
       </c>
-      <c r="F12" s="228">
+      <c r="F12" s="190">
         <v>93</v>
       </c>
-      <c r="G12" s="228">
+      <c r="G12" s="190">
         <v>85.8</v>
       </c>
       <c r="I12" s="6">
         <f>COUNTA(B4:C4)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="234" t="s">
+      <c r="J12" s="195" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.5">
-      <c r="A13" s="228">
+      <c r="A13" s="190">
         <v>9</v>
       </c>
-      <c r="B13" s="228">
+      <c r="B13" s="190">
         <v>82.4</v>
       </c>
-      <c r="C13" s="228">
+      <c r="C13" s="190">
         <v>82.2</v>
       </c>
-      <c r="D13" s="228">
+      <c r="D13" s="190">
         <v>80.7</v>
       </c>
-      <c r="E13" s="228">
+      <c r="E13" s="190">
         <v>80.3</v>
       </c>
-      <c r="F13" s="228">
+      <c r="F13" s="190">
         <v>87.9</v>
       </c>
-      <c r="G13" s="228">
+      <c r="G13" s="190">
         <v>88.1</v>
       </c>
       <c r="I13" s="6">
         <f>COUNTA(B5:G14)</f>
         <v>60</v>
       </c>
-      <c r="J13" s="234" t="s">
+      <c r="J13" s="195" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.5">
-      <c r="A14" s="228">
+      <c r="A14" s="190">
         <v>10</v>
       </c>
-      <c r="B14" s="228">
+      <c r="B14" s="190">
         <v>100.2</v>
       </c>
-      <c r="C14" s="228">
+      <c r="C14" s="190">
         <v>104.9</v>
       </c>
-      <c r="D14" s="228">
+      <c r="D14" s="190">
         <v>99.7</v>
       </c>
-      <c r="E14" s="228">
+      <c r="E14" s="190">
         <v>103.2</v>
       </c>
-      <c r="F14" s="228">
+      <c r="F14" s="190">
         <v>104.3</v>
       </c>
-      <c r="G14" s="228">
+      <c r="G14" s="190">
         <v>111.5</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15">
-      <c r="I15" s="223" t="s">
+      <c r="I15" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="223" t="s">
+      <c r="J15" s="187" t="s">
         <v>193</v>
       </c>
-      <c r="K15" s="223" t="s">
+      <c r="K15" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="L15" s="223" t="s">
+      <c r="L15" s="187" t="s">
         <v>195</v>
       </c>
-      <c r="M15" s="235" t="s">
+      <c r="M15" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="230" t="s">
+      <c r="N15" s="192" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5">
-      <c r="I16" s="225" t="s">
+      <c r="I16" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="J16" s="236">
+      <c r="J16" s="197">
         <f>S9-SUM(B5:G14)^2/I13</f>
         <v>502.48633333371254</v>
       </c>
-      <c r="K16" s="236">
+      <c r="K16" s="197">
         <f>I10-1</f>
         <v>2</v>
       </c>
-      <c r="L16" s="236">
+      <c r="L16" s="197">
         <f>J16/K16</f>
         <v>251.24316666685627</v>
       </c>
-      <c r="M16" s="237">
+      <c r="M16" s="198">
         <f>L16/$L$19</f>
         <v>13.783994586843546</v>
       </c>
-      <c r="N16" s="233">
+      <c r="N16" s="194">
         <v>5.7000000000000003E-5</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.5">
-      <c r="A17" s="219" t="s">
+      <c r="A17" s="265" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="268" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="222"/>
-      <c r="I17" s="225" t="s">
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="270"/>
+      <c r="I17" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="J17" s="236">
+      <c r="J17" s="197">
         <f>S28-SUM(B5:G14)^2/I13</f>
         <v>11545.491500000237</v>
       </c>
-      <c r="K17" s="236">
+      <c r="K17" s="197">
         <f>I11-1</f>
         <v>9</v>
       </c>
-      <c r="L17" s="236">
+      <c r="L17" s="197">
         <f t="shared" ref="L17:L19" si="2">J17/K17</f>
         <v>1282.8323888889151</v>
       </c>
-      <c r="M17" s="237">
+      <c r="M17" s="198">
         <f t="shared" ref="M17:M18" si="3">L17/$L$19</f>
         <v>70.380241336947961</v>
       </c>
-      <c r="N17" s="233">
+      <c r="N17" s="194">
         <v>0</v>
       </c>
-      <c r="P17" s="230" t="s">
+      <c r="P17" s="192" t="s">
         <v>289</v>
       </c>
-      <c r="Q17" s="230" t="s">
+      <c r="Q17" s="192" t="s">
         <v>153</v>
       </c>
-      <c r="R17" s="230" t="s">
+      <c r="R17" s="192" t="s">
         <v>308</v>
       </c>
-      <c r="S17" s="230" t="s">
+      <c r="S17" s="192" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" customHeight="1">
-      <c r="A18" s="224"/>
-      <c r="B18" s="220" t="s">
+      <c r="A18" s="266"/>
+      <c r="B18" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="220" t="s">
+      <c r="C18" s="270"/>
+      <c r="D18" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="222"/>
-      <c r="F18" s="220" t="s">
+      <c r="E18" s="270"/>
+      <c r="F18" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="222"/>
-      <c r="I18" s="238" t="s">
+      <c r="G18" s="270"/>
+      <c r="I18" s="191" t="s">
         <v>303</v>
       </c>
-      <c r="J18" s="239">
+      <c r="J18" s="199">
         <f>S64-SUM(B5:G14)^2/I13-J16-J17</f>
         <v>35.61699999962002</v>
       </c>
-      <c r="K18" s="239">
+      <c r="K18" s="199">
         <f>K16*K17</f>
         <v>18</v>
       </c>
-      <c r="L18" s="236">
+      <c r="L18" s="197">
         <f t="shared" si="2"/>
         <v>1.9787222222011123</v>
       </c>
-      <c r="M18" s="237">
+      <c r="M18" s="198">
         <f t="shared" si="3"/>
         <v>0.10855895808642192</v>
       </c>
-      <c r="N18" s="233">
+      <c r="N18" s="194">
         <v>0.999996</v>
       </c>
-      <c r="P18" s="233">
+      <c r="P18" s="194">
         <v>1</v>
       </c>
       <c r="Q18" s="146">
@@ -28159,43 +29673,43 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5">
-      <c r="A19" s="226"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="267"/>
+      <c r="B19" s="189" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="227" t="s">
+      <c r="C19" s="189" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="227" t="s">
+      <c r="D19" s="189" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="227" t="s">
+      <c r="E19" s="189" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="227" t="s">
+      <c r="F19" s="189" t="s">
         <v>319</v>
       </c>
-      <c r="G19" s="227" t="s">
+      <c r="G19" s="189" t="s">
         <v>320</v>
       </c>
-      <c r="I19" s="225" t="s">
+      <c r="I19" s="188" t="s">
         <v>310</v>
       </c>
-      <c r="J19" s="236">
+      <c r="J19" s="197">
         <f>J20-SUM(J16:J18)</f>
         <v>546.81500000006054</v>
       </c>
-      <c r="K19" s="236">
+      <c r="K19" s="197">
         <f>I10*I11*(I12-1)</f>
         <v>30</v>
       </c>
-      <c r="L19" s="236">
+      <c r="L19" s="197">
         <f t="shared" si="2"/>
         <v>18.227166666668683</v>
       </c>
-      <c r="M19" s="240"/>
+      <c r="M19" s="200"/>
       <c r="N19" s="146"/>
-      <c r="P19" s="233">
+      <c r="P19" s="194">
         <v>2</v>
       </c>
       <c r="Q19" s="146">
@@ -28212,48 +29726,48 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.5">
-      <c r="A20" s="228">
+      <c r="A20" s="190">
         <v>1</v>
       </c>
-      <c r="B20" s="241">
+      <c r="B20" s="201">
         <f>B5^2</f>
         <v>4251.04</v>
       </c>
-      <c r="C20" s="241">
+      <c r="C20" s="201">
         <f t="shared" ref="C20:G20" si="7">C5^2</f>
         <v>3612.01</v>
       </c>
-      <c r="D20" s="241">
+      <c r="D20" s="201">
         <f t="shared" si="7"/>
         <v>3956.41</v>
       </c>
-      <c r="E20" s="241">
+      <c r="E20" s="201">
         <f t="shared" si="7"/>
         <v>3169.6899999999996</v>
       </c>
-      <c r="F20" s="241">
+      <c r="F20" s="201">
         <f t="shared" si="7"/>
         <v>5126.5599999999995</v>
       </c>
-      <c r="G20" s="241">
+      <c r="G20" s="201">
         <f t="shared" si="7"/>
         <v>3672.36</v>
       </c>
-      <c r="I20" s="225" t="s">
+      <c r="I20" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="236">
+      <c r="J20" s="197">
         <f>SUM(B20:G29)-SUM(B5:G14)^2/I13</f>
         <v>12630.40983333363</v>
       </c>
-      <c r="K20" s="236">
+      <c r="K20" s="197">
         <f>I13-1</f>
         <v>59</v>
       </c>
-      <c r="L20" s="225"/>
-      <c r="M20" s="240"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="200"/>
       <c r="N20" s="146"/>
-      <c r="P20" s="233">
+      <c r="P20" s="194">
         <v>3</v>
       </c>
       <c r="Q20" s="146">
@@ -28270,34 +29784,34 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.5">
-      <c r="A21" s="228">
+      <c r="A21" s="190">
         <v>2</v>
       </c>
-      <c r="B21" s="241">
+      <c r="B21" s="201">
         <f t="shared" ref="B21:G29" si="8">B6^2</f>
         <v>7361.6399999999994</v>
       </c>
-      <c r="C21" s="241">
+      <c r="C21" s="201">
         <f t="shared" si="8"/>
         <v>7447.69</v>
       </c>
-      <c r="D21" s="241">
+      <c r="D21" s="201">
         <f t="shared" si="8"/>
         <v>7344.4900000000007</v>
       </c>
-      <c r="E21" s="241">
+      <c r="E21" s="201">
         <f t="shared" si="8"/>
         <v>6480.25</v>
       </c>
-      <c r="F21" s="241">
+      <c r="F21" s="201">
         <f t="shared" si="8"/>
         <v>8464</v>
       </c>
-      <c r="G21" s="241">
+      <c r="G21" s="201">
         <f t="shared" si="8"/>
         <v>7638.7600000000011</v>
       </c>
-      <c r="P21" s="233">
+      <c r="P21" s="194">
         <v>4</v>
       </c>
       <c r="Q21" s="146">
@@ -28314,34 +29828,34 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.5">
-      <c r="A22" s="228">
+      <c r="A22" s="190">
         <v>3</v>
       </c>
-      <c r="B22" s="241">
+      <c r="B22" s="201">
         <f t="shared" si="8"/>
         <v>10040.040000000001</v>
       </c>
-      <c r="C22" s="241">
+      <c r="C22" s="201">
         <f t="shared" si="8"/>
         <v>8987.0399999999991</v>
       </c>
-      <c r="D22" s="241">
+      <c r="D22" s="201">
         <f t="shared" si="8"/>
         <v>10020.009999999998</v>
       </c>
-      <c r="E22" s="241">
+      <c r="E22" s="201">
         <f t="shared" si="8"/>
         <v>8930.25</v>
       </c>
-      <c r="F22" s="241">
+      <c r="F22" s="201">
         <f t="shared" si="8"/>
         <v>11513.289999999999</v>
       </c>
-      <c r="G22" s="241">
+      <c r="G22" s="201">
         <f t="shared" si="8"/>
         <v>10899.36</v>
       </c>
-      <c r="P22" s="233">
+      <c r="P22" s="194">
         <v>5</v>
       </c>
       <c r="Q22" s="146">
@@ -28358,53 +29872,53 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.5">
-      <c r="A23" s="228">
+      <c r="A23" s="190">
         <v>4</v>
       </c>
-      <c r="B23" s="241">
+      <c r="B23" s="201">
         <f t="shared" si="8"/>
         <v>7225</v>
       </c>
-      <c r="C23" s="241">
+      <c r="C23" s="201">
         <f t="shared" si="8"/>
         <v>9044.0099999999984</v>
       </c>
-      <c r="D23" s="241">
+      <c r="D23" s="201">
         <f t="shared" si="8"/>
         <v>7191.04</v>
       </c>
-      <c r="E23" s="241">
+      <c r="E23" s="201">
         <f t="shared" si="8"/>
         <v>8154.0899999999992</v>
       </c>
-      <c r="F23" s="241">
+      <c r="F23" s="201">
         <f t="shared" si="8"/>
         <v>8519.2899999999991</v>
       </c>
-      <c r="G23" s="241">
+      <c r="G23" s="201">
         <f t="shared" si="8"/>
         <v>8949.159999999998</v>
       </c>
-      <c r="I23" s="230" t="s">
+      <c r="I23" s="192" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="230" t="s">
+      <c r="J23" s="192" t="s">
         <v>193</v>
       </c>
-      <c r="K23" s="230" t="s">
+      <c r="K23" s="192" t="s">
         <v>194</v>
       </c>
-      <c r="L23" s="230" t="s">
+      <c r="L23" s="192" t="s">
         <v>195</v>
       </c>
-      <c r="M23" s="230" t="s">
+      <c r="M23" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="230" t="s">
+      <c r="N23" s="192" t="s">
         <v>317</v>
       </c>
-      <c r="O23" s="242"/>
-      <c r="P23" s="233">
+      <c r="O23" s="202"/>
+      <c r="P23" s="194">
         <v>6</v>
       </c>
       <c r="Q23" s="146">
@@ -28421,53 +29935,53 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.5">
-      <c r="A24" s="228">
+      <c r="A24" s="190">
         <v>5</v>
       </c>
-      <c r="B24" s="241">
+      <c r="B24" s="201">
         <f t="shared" si="8"/>
         <v>2992.09</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="201">
         <f t="shared" si="8"/>
         <v>4329.6399999999994</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="201">
         <f t="shared" si="8"/>
         <v>2672.8900000000003</v>
       </c>
-      <c r="E24" s="241">
+      <c r="E24" s="201">
         <f t="shared" si="8"/>
         <v>3600</v>
       </c>
-      <c r="F24" s="241">
+      <c r="F24" s="201">
         <f t="shared" si="8"/>
         <v>3469.21</v>
       </c>
-      <c r="G24" s="241">
+      <c r="G24" s="201">
         <f t="shared" si="8"/>
         <v>4515.84</v>
       </c>
-      <c r="I24" s="243" t="s">
+      <c r="I24" s="203" t="s">
         <v>291</v>
       </c>
-      <c r="J24" s="233">
+      <c r="J24" s="194">
         <v>502.5</v>
       </c>
-      <c r="K24" s="233">
+      <c r="K24" s="194">
         <v>2</v>
       </c>
-      <c r="L24" s="233">
+      <c r="L24" s="194">
         <v>251.3</v>
       </c>
-      <c r="M24" s="233">
+      <c r="M24" s="194">
         <v>13.8</v>
       </c>
-      <c r="N24" s="233">
+      <c r="N24" s="194">
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="O24" s="244"/>
-      <c r="P24" s="233">
+      <c r="O24" s="204"/>
+      <c r="P24" s="194">
         <v>7</v>
       </c>
       <c r="Q24" s="146">
@@ -28484,53 +29998,53 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.5">
-      <c r="A25" s="228">
+      <c r="A25" s="190">
         <v>6</v>
       </c>
-      <c r="B25" s="241">
+      <c r="B25" s="201">
         <f t="shared" si="8"/>
         <v>9741.69</v>
       </c>
-      <c r="C25" s="241">
+      <c r="C25" s="201">
         <f t="shared" si="8"/>
         <v>8136.0400000000009</v>
       </c>
-      <c r="D25" s="241">
+      <c r="D25" s="201">
         <f t="shared" si="8"/>
         <v>8593.2900000000009</v>
       </c>
-      <c r="E25" s="241">
+      <c r="E25" s="201">
         <f t="shared" si="8"/>
         <v>7603.84</v>
       </c>
-      <c r="F25" s="241">
+      <c r="F25" s="201">
         <f t="shared" si="8"/>
         <v>9781.2100000000009</v>
       </c>
-      <c r="G25" s="241">
+      <c r="G25" s="201">
         <f t="shared" si="8"/>
         <v>8742.25</v>
       </c>
-      <c r="I25" s="243" t="s">
+      <c r="I25" s="203" t="s">
         <v>298</v>
       </c>
-      <c r="J25" s="245">
+      <c r="J25" s="205">
         <v>11545.5</v>
       </c>
-      <c r="K25" s="233">
+      <c r="K25" s="194">
         <v>9</v>
       </c>
-      <c r="L25" s="245">
+      <c r="L25" s="205">
         <v>1282.8</v>
       </c>
-      <c r="M25" s="233">
+      <c r="M25" s="194">
         <v>70.400000000000006</v>
       </c>
-      <c r="N25" s="233">
+      <c r="N25" s="194">
         <v>0</v>
       </c>
-      <c r="O25" s="244"/>
-      <c r="P25" s="233">
+      <c r="O25" s="204"/>
+      <c r="P25" s="194">
         <v>8</v>
       </c>
       <c r="Q25" s="146">
@@ -28547,53 +30061,53 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.5">
-      <c r="A26" s="228">
+      <c r="A26" s="190">
         <v>7</v>
       </c>
-      <c r="B26" s="241">
+      <c r="B26" s="201">
         <f t="shared" si="8"/>
         <v>8930.25</v>
       </c>
-      <c r="C26" s="241">
+      <c r="C26" s="201">
         <f t="shared" si="8"/>
         <v>8930.25</v>
       </c>
-      <c r="D26" s="241">
+      <c r="D26" s="201">
         <f t="shared" si="8"/>
         <v>8281</v>
       </c>
-      <c r="E26" s="241">
+      <c r="E26" s="201">
         <f t="shared" si="8"/>
         <v>8723.5600000000013</v>
       </c>
-      <c r="F26" s="241">
+      <c r="F26" s="201">
         <f t="shared" si="8"/>
         <v>9101.1600000000017</v>
       </c>
-      <c r="G26" s="241">
+      <c r="G26" s="201">
         <f t="shared" si="8"/>
         <v>10670.89</v>
       </c>
-      <c r="I26" s="238" t="s">
+      <c r="I26" s="191" t="s">
         <v>303</v>
       </c>
-      <c r="J26" s="233">
+      <c r="J26" s="194">
         <v>35.6</v>
       </c>
-      <c r="K26" s="233">
+      <c r="K26" s="194">
         <v>18</v>
       </c>
-      <c r="L26" s="233">
+      <c r="L26" s="194">
         <v>1.98</v>
       </c>
-      <c r="M26" s="233">
+      <c r="M26" s="194">
         <v>0.11</v>
       </c>
-      <c r="N26" s="233">
+      <c r="N26" s="194">
         <v>0.999996</v>
       </c>
-      <c r="O26" s="244"/>
-      <c r="P26" s="233">
+      <c r="O26" s="204"/>
+      <c r="P26" s="194">
         <v>9</v>
       </c>
       <c r="Q26" s="146">
@@ -28610,49 +30124,49 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5">
-      <c r="A27" s="228">
+      <c r="A27" s="190">
         <v>8</v>
       </c>
-      <c r="B27" s="241">
+      <c r="B27" s="201">
         <f t="shared" si="8"/>
         <v>7603.84</v>
       </c>
-      <c r="C27" s="241">
+      <c r="C27" s="201">
         <f t="shared" si="8"/>
         <v>6789.7600000000011</v>
       </c>
-      <c r="D27" s="241">
+      <c r="D27" s="201">
         <f t="shared" si="8"/>
         <v>7039.2100000000009</v>
       </c>
-      <c r="E27" s="241">
+      <c r="E27" s="201">
         <f t="shared" si="8"/>
         <v>6209.44</v>
       </c>
-      <c r="F27" s="241">
+      <c r="F27" s="201">
         <f t="shared" si="8"/>
         <v>8649</v>
       </c>
-      <c r="G27" s="241">
+      <c r="G27" s="201">
         <f t="shared" si="8"/>
         <v>7361.6399999999994</v>
       </c>
-      <c r="I27" s="243" t="s">
+      <c r="I27" s="203" t="s">
         <v>310</v>
       </c>
-      <c r="J27" s="233">
+      <c r="J27" s="194">
         <v>546.79999999999995</v>
       </c>
-      <c r="K27" s="233">
+      <c r="K27" s="194">
         <v>30</v>
       </c>
-      <c r="L27" s="233">
+      <c r="L27" s="194">
         <v>18.2</v>
       </c>
-      <c r="M27" s="233"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="244"/>
-      <c r="P27" s="233">
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="204"/>
+      <c r="P27" s="194">
         <v>10</v>
       </c>
       <c r="Q27" s="146">
@@ -28669,85 +30183,85 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.5">
-      <c r="A28" s="228">
+      <c r="A28" s="190">
         <v>9</v>
       </c>
-      <c r="B28" s="241">
+      <c r="B28" s="201">
         <f t="shared" si="8"/>
         <v>6789.7600000000011</v>
       </c>
-      <c r="C28" s="241">
+      <c r="C28" s="201">
         <f t="shared" si="8"/>
         <v>6756.84</v>
       </c>
-      <c r="D28" s="241">
+      <c r="D28" s="201">
         <f t="shared" si="8"/>
         <v>6512.4900000000007</v>
       </c>
-      <c r="E28" s="241">
+      <c r="E28" s="201">
         <f t="shared" si="8"/>
         <v>6448.0899999999992</v>
       </c>
-      <c r="F28" s="241">
+      <c r="F28" s="201">
         <f t="shared" si="8"/>
         <v>7726.4100000000008</v>
       </c>
-      <c r="G28" s="241">
+      <c r="G28" s="201">
         <f t="shared" si="8"/>
         <v>7761.6099999999988</v>
       </c>
-      <c r="I28" s="243" t="s">
+      <c r="I28" s="203" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="245">
+      <c r="J28" s="205">
         <v>12630.4</v>
       </c>
-      <c r="K28" s="233">
+      <c r="K28" s="194">
         <v>59</v>
       </c>
-      <c r="L28" s="233">
+      <c r="L28" s="194">
         <v>214.1</v>
       </c>
-      <c r="M28" s="233"/>
-      <c r="N28" s="233"/>
-      <c r="O28" s="244"/>
-      <c r="R28" s="208" t="s">
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="204"/>
+      <c r="R28" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="S28" s="246">
+      <c r="S28" s="206">
         <f>SUM(S18:S27)</f>
         <v>456320.8716666667</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.5">
-      <c r="A29" s="228">
+      <c r="A29" s="190">
         <v>10</v>
       </c>
-      <c r="B29" s="241">
+      <c r="B29" s="201">
         <f t="shared" si="8"/>
         <v>10040.040000000001</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="201">
         <f t="shared" si="8"/>
         <v>11004.010000000002</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="201">
         <f t="shared" si="8"/>
         <v>9940.09</v>
       </c>
-      <c r="E29" s="241">
+      <c r="E29" s="201">
         <f t="shared" si="8"/>
         <v>10650.24</v>
       </c>
-      <c r="F29" s="241">
+      <c r="F29" s="201">
         <f t="shared" si="8"/>
         <v>10878.49</v>
       </c>
-      <c r="G29" s="241">
+      <c r="G29" s="201">
         <f t="shared" si="8"/>
         <v>12432.25</v>
       </c>
-      <c r="O29" s="244"/>
+      <c r="O29" s="204"/>
     </row>
     <row r="33" spans="11:19" ht="15">
       <c r="K33" s="6" t="s">
@@ -28757,19 +30271,19 @@
         <f>5.15*SQRT(L19)</f>
         <v>21.987042273046193</v>
       </c>
-      <c r="O33" s="230" t="s">
+      <c r="O33" s="192" t="s">
         <v>289</v>
       </c>
-      <c r="P33" s="230" t="s">
+      <c r="P33" s="192" t="s">
         <v>291</v>
       </c>
-      <c r="Q33" s="230" t="s">
+      <c r="Q33" s="192" t="s">
         <v>153</v>
       </c>
-      <c r="R33" s="230" t="s">
+      <c r="R33" s="192" t="s">
         <v>308</v>
       </c>
-      <c r="S33" s="230" t="s">
+      <c r="S33" s="192" t="s">
         <v>322</v>
       </c>
     </row>
@@ -28777,18 +30291,18 @@
       <c r="O34" s="146">
         <v>1</v>
       </c>
-      <c r="P34" s="247" t="s">
+      <c r="P34" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q34" s="248">
+      <c r="Q34" s="208">
         <f>SUM(B5:C5)</f>
         <v>125.30000000000001</v>
       </c>
-      <c r="R34" s="249">
+      <c r="R34" s="209">
         <f>Q34^2</f>
         <v>15700.090000000002</v>
       </c>
-      <c r="S34" s="249">
+      <c r="S34" s="209">
         <f>R34/$I$12</f>
         <v>7850.045000000001</v>
       </c>
@@ -28797,18 +30311,18 @@
       <c r="O35" s="146">
         <v>2</v>
       </c>
-      <c r="P35" s="247" t="s">
+      <c r="P35" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q35" s="248">
+      <c r="Q35" s="208">
         <f t="shared" ref="Q35:Q43" si="9">SUM(B6:C6)</f>
         <v>172.1</v>
       </c>
-      <c r="R35" s="249">
+      <c r="R35" s="209">
         <f t="shared" ref="R35:R63" si="10">Q35^2</f>
         <v>29618.41</v>
       </c>
-      <c r="S35" s="249">
+      <c r="S35" s="209">
         <f t="shared" ref="S35:S63" si="11">R35/$I$12</f>
         <v>14809.205</v>
       </c>
@@ -28817,18 +30331,18 @@
       <c r="O36" s="146">
         <v>3</v>
       </c>
-      <c r="P36" s="247" t="s">
+      <c r="P36" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q36" s="248">
+      <c r="Q36" s="208">
         <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="R36" s="249">
+      <c r="R36" s="209">
         <f t="shared" si="10"/>
         <v>38025</v>
       </c>
-      <c r="S36" s="249">
+      <c r="S36" s="209">
         <f t="shared" si="11"/>
         <v>19012.5</v>
       </c>
@@ -28837,18 +30351,18 @@
       <c r="O37" s="146">
         <v>4</v>
       </c>
-      <c r="P37" s="247" t="s">
+      <c r="P37" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q37" s="248">
+      <c r="Q37" s="208">
         <f t="shared" si="9"/>
         <v>180.1</v>
       </c>
-      <c r="R37" s="249">
+      <c r="R37" s="209">
         <f t="shared" si="10"/>
         <v>32436.01</v>
       </c>
-      <c r="S37" s="249">
+      <c r="S37" s="209">
         <f t="shared" si="11"/>
         <v>16218.004999999999</v>
       </c>
@@ -28857,18 +30371,18 @@
       <c r="O38" s="146">
         <v>5</v>
       </c>
-      <c r="P38" s="247" t="s">
+      <c r="P38" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q38" s="248">
+      <c r="Q38" s="208">
         <f t="shared" si="9"/>
         <v>120.5</v>
       </c>
-      <c r="R38" s="249">
+      <c r="R38" s="209">
         <f t="shared" si="10"/>
         <v>14520.25</v>
       </c>
-      <c r="S38" s="249">
+      <c r="S38" s="209">
         <f t="shared" si="11"/>
         <v>7260.125</v>
       </c>
@@ -28884,18 +30398,18 @@
       <c r="O39" s="146">
         <v>6</v>
       </c>
-      <c r="P39" s="247" t="s">
+      <c r="P39" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="248">
+      <c r="Q39" s="208">
         <f t="shared" si="9"/>
         <v>188.9</v>
       </c>
-      <c r="R39" s="249">
+      <c r="R39" s="209">
         <f t="shared" si="10"/>
         <v>35683.21</v>
       </c>
-      <c r="S39" s="249">
+      <c r="S39" s="209">
         <f t="shared" si="11"/>
         <v>17841.605</v>
       </c>
@@ -28904,18 +30418,18 @@
       <c r="O40" s="146">
         <v>7</v>
       </c>
-      <c r="P40" s="247" t="s">
+      <c r="P40" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q40" s="248">
+      <c r="Q40" s="208">
         <f t="shared" si="9"/>
         <v>189</v>
       </c>
-      <c r="R40" s="249">
+      <c r="R40" s="209">
         <f t="shared" si="10"/>
         <v>35721</v>
       </c>
-      <c r="S40" s="249">
+      <c r="S40" s="209">
         <f t="shared" si="11"/>
         <v>17860.5</v>
       </c>
@@ -28927,18 +30441,18 @@
       <c r="O41" s="146">
         <v>8</v>
       </c>
-      <c r="P41" s="247" t="s">
+      <c r="P41" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q41" s="248">
+      <c r="Q41" s="208">
         <f t="shared" si="9"/>
         <v>169.60000000000002</v>
       </c>
-      <c r="R41" s="249">
+      <c r="R41" s="209">
         <f t="shared" si="10"/>
         <v>28764.160000000007</v>
       </c>
-      <c r="S41" s="249">
+      <c r="S41" s="209">
         <f t="shared" si="11"/>
         <v>14382.080000000004</v>
       </c>
@@ -28947,18 +30461,18 @@
       <c r="O42" s="146">
         <v>9</v>
       </c>
-      <c r="P42" s="247" t="s">
+      <c r="P42" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q42" s="248">
+      <c r="Q42" s="208">
         <f t="shared" si="9"/>
         <v>164.60000000000002</v>
       </c>
-      <c r="R42" s="249">
+      <c r="R42" s="209">
         <f t="shared" si="10"/>
         <v>27093.160000000007</v>
       </c>
-      <c r="S42" s="249">
+      <c r="S42" s="209">
         <f t="shared" si="11"/>
         <v>13546.580000000004</v>
       </c>
@@ -28967,18 +30481,18 @@
       <c r="O43" s="146">
         <v>10</v>
       </c>
-      <c r="P43" s="247" t="s">
+      <c r="P43" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="248">
+      <c r="Q43" s="208">
         <f t="shared" si="9"/>
         <v>205.10000000000002</v>
       </c>
-      <c r="R43" s="249">
+      <c r="R43" s="209">
         <f t="shared" si="10"/>
         <v>42066.010000000009</v>
       </c>
-      <c r="S43" s="249">
+      <c r="S43" s="209">
         <f t="shared" si="11"/>
         <v>21033.005000000005</v>
       </c>
@@ -28987,18 +30501,18 @@
       <c r="O44" s="146">
         <v>1</v>
       </c>
-      <c r="P44" s="247" t="s">
+      <c r="P44" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q44" s="248">
+      <c r="Q44" s="208">
         <f>SUM(D5:E5)</f>
         <v>119.19999999999999</v>
       </c>
-      <c r="R44" s="249">
+      <c r="R44" s="209">
         <f t="shared" si="10"/>
         <v>14208.639999999998</v>
       </c>
-      <c r="S44" s="249">
+      <c r="S44" s="209">
         <f t="shared" si="11"/>
         <v>7104.3199999999988</v>
       </c>
@@ -29007,18 +30521,18 @@
       <c r="O45" s="146">
         <v>2</v>
       </c>
-      <c r="P45" s="247" t="s">
+      <c r="P45" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q45" s="248">
+      <c r="Q45" s="208">
         <f t="shared" ref="Q45:Q53" si="12">SUM(D6:E6)</f>
         <v>166.2</v>
       </c>
-      <c r="R45" s="249">
+      <c r="R45" s="209">
         <f t="shared" si="10"/>
         <v>27622.439999999995</v>
       </c>
-      <c r="S45" s="249">
+      <c r="S45" s="209">
         <f t="shared" si="11"/>
         <v>13811.219999999998</v>
       </c>
@@ -29034,18 +30548,18 @@
       <c r="O46" s="146">
         <v>3</v>
       </c>
-      <c r="P46" s="247" t="s">
+      <c r="P46" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q46" s="248">
+      <c r="Q46" s="208">
         <f t="shared" si="12"/>
         <v>194.6</v>
       </c>
-      <c r="R46" s="249">
+      <c r="R46" s="209">
         <f t="shared" si="10"/>
         <v>37869.159999999996</v>
       </c>
-      <c r="S46" s="249">
+      <c r="S46" s="209">
         <f t="shared" si="11"/>
         <v>18934.579999999998</v>
       </c>
@@ -29054,18 +30568,18 @@
       <c r="O47" s="146">
         <v>4</v>
       </c>
-      <c r="P47" s="247" t="s">
+      <c r="P47" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q47" s="248">
+      <c r="Q47" s="208">
         <f t="shared" si="12"/>
         <v>175.1</v>
       </c>
-      <c r="R47" s="249">
+      <c r="R47" s="209">
         <f t="shared" si="10"/>
         <v>30660.01</v>
       </c>
-      <c r="S47" s="249">
+      <c r="S47" s="209">
         <f t="shared" si="11"/>
         <v>15330.004999999999</v>
       </c>
@@ -29077,18 +30591,18 @@
       <c r="O48" s="146">
         <v>5</v>
       </c>
-      <c r="P48" s="247" t="s">
+      <c r="P48" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q48" s="248">
+      <c r="Q48" s="208">
         <f t="shared" si="12"/>
         <v>111.7</v>
       </c>
-      <c r="R48" s="249">
+      <c r="R48" s="209">
         <f t="shared" si="10"/>
         <v>12476.890000000001</v>
       </c>
-      <c r="S48" s="249">
+      <c r="S48" s="209">
         <f t="shared" si="11"/>
         <v>6238.4450000000006</v>
       </c>
@@ -29097,18 +30611,18 @@
       <c r="O49" s="146">
         <v>6</v>
       </c>
-      <c r="P49" s="247" t="s">
+      <c r="P49" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q49" s="248">
+      <c r="Q49" s="208">
         <f t="shared" si="12"/>
         <v>179.9</v>
       </c>
-      <c r="R49" s="249">
+      <c r="R49" s="209">
         <f t="shared" si="10"/>
         <v>32364.010000000002</v>
       </c>
-      <c r="S49" s="249">
+      <c r="S49" s="209">
         <f t="shared" si="11"/>
         <v>16182.005000000001</v>
       </c>
@@ -29117,18 +30631,18 @@
       <c r="O50" s="146">
         <v>7</v>
       </c>
-      <c r="P50" s="247" t="s">
+      <c r="P50" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q50" s="248">
+      <c r="Q50" s="208">
         <f t="shared" si="12"/>
         <v>184.4</v>
       </c>
-      <c r="R50" s="249">
+      <c r="R50" s="209">
         <f t="shared" si="10"/>
         <v>34003.360000000001</v>
       </c>
-      <c r="S50" s="249">
+      <c r="S50" s="209">
         <f t="shared" si="11"/>
         <v>17001.68</v>
       </c>
@@ -29137,18 +30651,18 @@
       <c r="O51" s="146">
         <v>8</v>
       </c>
-      <c r="P51" s="247" t="s">
+      <c r="P51" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="248">
+      <c r="Q51" s="208">
         <f t="shared" si="12"/>
         <v>162.69999999999999</v>
       </c>
-      <c r="R51" s="249">
+      <c r="R51" s="209">
         <f t="shared" si="10"/>
         <v>26471.289999999997</v>
       </c>
-      <c r="S51" s="249">
+      <c r="S51" s="209">
         <f t="shared" si="11"/>
         <v>13235.644999999999</v>
       </c>
@@ -29164,18 +30678,18 @@
       <c r="O52" s="146">
         <v>9</v>
       </c>
-      <c r="P52" s="247" t="s">
+      <c r="P52" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q52" s="248">
+      <c r="Q52" s="208">
         <f t="shared" si="12"/>
         <v>161</v>
       </c>
-      <c r="R52" s="249">
+      <c r="R52" s="209">
         <f t="shared" si="10"/>
         <v>25921</v>
       </c>
-      <c r="S52" s="249">
+      <c r="S52" s="209">
         <f t="shared" si="11"/>
         <v>12960.5</v>
       </c>
@@ -29187,18 +30701,18 @@
       <c r="O53" s="146">
         <v>10</v>
       </c>
-      <c r="P53" s="247" t="s">
+      <c r="P53" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="Q53" s="248">
+      <c r="Q53" s="208">
         <f t="shared" si="12"/>
         <v>202.9</v>
       </c>
-      <c r="R53" s="249">
+      <c r="R53" s="209">
         <f t="shared" si="10"/>
         <v>41168.410000000003</v>
       </c>
-      <c r="S53" s="249">
+      <c r="S53" s="209">
         <f t="shared" si="11"/>
         <v>20584.205000000002</v>
       </c>
@@ -29207,18 +30721,18 @@
       <c r="O54" s="146">
         <v>1</v>
       </c>
-      <c r="P54" s="247" t="s">
+      <c r="P54" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q54" s="248">
+      <c r="Q54" s="208">
         <f>SUM(F5:G5)</f>
         <v>132.19999999999999</v>
       </c>
-      <c r="R54" s="249">
+      <c r="R54" s="209">
         <f t="shared" si="10"/>
         <v>17476.839999999997</v>
       </c>
-      <c r="S54" s="249">
+      <c r="S54" s="209">
         <f t="shared" si="11"/>
         <v>8738.4199999999983</v>
       </c>
@@ -29227,18 +30741,18 @@
       <c r="O55" s="146">
         <v>2</v>
       </c>
-      <c r="P55" s="247" t="s">
+      <c r="P55" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q55" s="248">
+      <c r="Q55" s="208">
         <f t="shared" ref="Q55:Q63" si="13">SUM(F6:G6)</f>
         <v>179.4</v>
       </c>
-      <c r="R55" s="249">
+      <c r="R55" s="209">
         <f t="shared" si="10"/>
         <v>32184.36</v>
       </c>
-      <c r="S55" s="249">
+      <c r="S55" s="209">
         <f t="shared" si="11"/>
         <v>16092.18</v>
       </c>
@@ -29247,18 +30761,18 @@
       <c r="O56" s="146">
         <v>3</v>
       </c>
-      <c r="P56" s="247" t="s">
+      <c r="P56" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q56" s="248">
+      <c r="Q56" s="208">
         <f t="shared" si="13"/>
         <v>211.7</v>
       </c>
-      <c r="R56" s="249">
+      <c r="R56" s="209">
         <f t="shared" si="10"/>
         <v>44816.889999999992</v>
       </c>
-      <c r="S56" s="249">
+      <c r="S56" s="209">
         <f t="shared" si="11"/>
         <v>22408.444999999996</v>
       </c>
@@ -29267,18 +30781,18 @@
       <c r="O57" s="146">
         <v>4</v>
       </c>
-      <c r="P57" s="247" t="s">
+      <c r="P57" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q57" s="248">
+      <c r="Q57" s="208">
         <f t="shared" si="13"/>
         <v>186.89999999999998</v>
       </c>
-      <c r="R57" s="249">
+      <c r="R57" s="209">
         <f t="shared" si="10"/>
         <v>34931.609999999993</v>
       </c>
-      <c r="S57" s="249">
+      <c r="S57" s="209">
         <f t="shared" si="11"/>
         <v>17465.804999999997</v>
       </c>
@@ -29287,18 +30801,18 @@
       <c r="O58" s="146">
         <v>5</v>
       </c>
-      <c r="P58" s="247" t="s">
+      <c r="P58" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="248">
+      <c r="Q58" s="208">
         <f t="shared" si="13"/>
         <v>126.1</v>
       </c>
-      <c r="R58" s="249">
+      <c r="R58" s="209">
         <f t="shared" si="10"/>
         <v>15901.21</v>
       </c>
-      <c r="S58" s="249">
+      <c r="S58" s="209">
         <f t="shared" si="11"/>
         <v>7950.6049999999996</v>
       </c>
@@ -29314,18 +30828,18 @@
       <c r="O59" s="146">
         <v>6</v>
       </c>
-      <c r="P59" s="247" t="s">
+      <c r="P59" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="248">
+      <c r="Q59" s="208">
         <f t="shared" si="13"/>
         <v>192.4</v>
       </c>
-      <c r="R59" s="249">
+      <c r="R59" s="209">
         <f t="shared" si="10"/>
         <v>37017.760000000002</v>
       </c>
-      <c r="S59" s="249">
+      <c r="S59" s="209">
         <f t="shared" si="11"/>
         <v>18508.88</v>
       </c>
@@ -29337,18 +30851,18 @@
       <c r="O60" s="146">
         <v>7</v>
       </c>
-      <c r="P60" s="247" t="s">
+      <c r="P60" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q60" s="248">
+      <c r="Q60" s="208">
         <f t="shared" si="13"/>
         <v>198.7</v>
       </c>
-      <c r="R60" s="249">
+      <c r="R60" s="209">
         <f t="shared" si="10"/>
         <v>39481.689999999995</v>
       </c>
-      <c r="S60" s="249">
+      <c r="S60" s="209">
         <f t="shared" si="11"/>
         <v>19740.844999999998</v>
       </c>
@@ -29357,18 +30871,18 @@
       <c r="O61" s="146">
         <v>8</v>
       </c>
-      <c r="P61" s="247" t="s">
+      <c r="P61" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q61" s="248">
+      <c r="Q61" s="208">
         <f t="shared" si="13"/>
         <v>178.8</v>
       </c>
-      <c r="R61" s="249">
+      <c r="R61" s="209">
         <f t="shared" si="10"/>
         <v>31969.440000000002</v>
       </c>
-      <c r="S61" s="249">
+      <c r="S61" s="209">
         <f t="shared" si="11"/>
         <v>15984.720000000001</v>
       </c>
@@ -29377,18 +30891,18 @@
       <c r="O62" s="146">
         <v>9</v>
       </c>
-      <c r="P62" s="247" t="s">
+      <c r="P62" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q62" s="248">
+      <c r="Q62" s="208">
         <f t="shared" si="13"/>
         <v>176</v>
       </c>
-      <c r="R62" s="249">
+      <c r="R62" s="209">
         <f t="shared" si="10"/>
         <v>30976</v>
       </c>
-      <c r="S62" s="249">
+      <c r="S62" s="209">
         <f t="shared" si="11"/>
         <v>15488</v>
       </c>
@@ -29397,24 +30911,24 @@
       <c r="O63" s="146">
         <v>10</v>
       </c>
-      <c r="P63" s="247" t="s">
+      <c r="P63" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q63" s="248">
+      <c r="Q63" s="208">
         <f t="shared" si="13"/>
         <v>215.8</v>
       </c>
-      <c r="R63" s="249">
+      <c r="R63" s="209">
         <f t="shared" si="10"/>
         <v>46569.640000000007</v>
       </c>
-      <c r="S63" s="249">
+      <c r="S63" s="209">
         <f t="shared" si="11"/>
         <v>23284.820000000003</v>
       </c>
     </row>
     <row r="64" spans="11:19">
-      <c r="S64" s="217">
+      <c r="S64" s="185">
         <f>SUM(S34:S63)</f>
         <v>456858.97500000003</v>
       </c>
@@ -29430,6 +30944,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
@@ -29439,15 +30958,810 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q18:Q27 Q34:Q63" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A29EAAF-579A-47FB-B945-A97613803C59}">
+  <dimension ref="A1:U24"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" style="158" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="158" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="158" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="158"/>
+    <col min="7" max="7" width="8.6328125" style="158" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="158" customWidth="1"/>
+    <col min="9" max="9" width="17" style="158" customWidth="1"/>
+    <col min="10" max="16" width="8.7265625" style="158"/>
+    <col min="17" max="17" width="10.81640625" style="158" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="158"/>
+    <col min="19" max="19" width="7.26953125" style="158" customWidth="1"/>
+    <col min="20" max="250" width="8.7265625" style="158"/>
+    <col min="251" max="251" width="14.453125" style="158" customWidth="1"/>
+    <col min="252" max="252" width="11.7265625" style="158" customWidth="1"/>
+    <col min="253" max="506" width="8.7265625" style="158"/>
+    <col min="507" max="507" width="14.453125" style="158" customWidth="1"/>
+    <col min="508" max="508" width="11.7265625" style="158" customWidth="1"/>
+    <col min="509" max="762" width="8.7265625" style="158"/>
+    <col min="763" max="763" width="14.453125" style="158" customWidth="1"/>
+    <col min="764" max="764" width="11.7265625" style="158" customWidth="1"/>
+    <col min="765" max="1018" width="8.7265625" style="158"/>
+    <col min="1019" max="1019" width="14.453125" style="158" customWidth="1"/>
+    <col min="1020" max="1020" width="11.7265625" style="158" customWidth="1"/>
+    <col min="1021" max="1274" width="8.7265625" style="158"/>
+    <col min="1275" max="1275" width="14.453125" style="158" customWidth="1"/>
+    <col min="1276" max="1276" width="11.7265625" style="158" customWidth="1"/>
+    <col min="1277" max="1530" width="8.7265625" style="158"/>
+    <col min="1531" max="1531" width="14.453125" style="158" customWidth="1"/>
+    <col min="1532" max="1532" width="11.7265625" style="158" customWidth="1"/>
+    <col min="1533" max="1786" width="8.7265625" style="158"/>
+    <col min="1787" max="1787" width="14.453125" style="158" customWidth="1"/>
+    <col min="1788" max="1788" width="11.7265625" style="158" customWidth="1"/>
+    <col min="1789" max="2042" width="8.7265625" style="158"/>
+    <col min="2043" max="2043" width="14.453125" style="158" customWidth="1"/>
+    <col min="2044" max="2044" width="11.7265625" style="158" customWidth="1"/>
+    <col min="2045" max="2298" width="8.7265625" style="158"/>
+    <col min="2299" max="2299" width="14.453125" style="158" customWidth="1"/>
+    <col min="2300" max="2300" width="11.7265625" style="158" customWidth="1"/>
+    <col min="2301" max="2554" width="8.7265625" style="158"/>
+    <col min="2555" max="2555" width="14.453125" style="158" customWidth="1"/>
+    <col min="2556" max="2556" width="11.7265625" style="158" customWidth="1"/>
+    <col min="2557" max="2810" width="8.7265625" style="158"/>
+    <col min="2811" max="2811" width="14.453125" style="158" customWidth="1"/>
+    <col min="2812" max="2812" width="11.7265625" style="158" customWidth="1"/>
+    <col min="2813" max="3066" width="8.7265625" style="158"/>
+    <col min="3067" max="3067" width="14.453125" style="158" customWidth="1"/>
+    <col min="3068" max="3068" width="11.7265625" style="158" customWidth="1"/>
+    <col min="3069" max="3322" width="8.7265625" style="158"/>
+    <col min="3323" max="3323" width="14.453125" style="158" customWidth="1"/>
+    <col min="3324" max="3324" width="11.7265625" style="158" customWidth="1"/>
+    <col min="3325" max="3578" width="8.7265625" style="158"/>
+    <col min="3579" max="3579" width="14.453125" style="158" customWidth="1"/>
+    <col min="3580" max="3580" width="11.7265625" style="158" customWidth="1"/>
+    <col min="3581" max="3834" width="8.7265625" style="158"/>
+    <col min="3835" max="3835" width="14.453125" style="158" customWidth="1"/>
+    <col min="3836" max="3836" width="11.7265625" style="158" customWidth="1"/>
+    <col min="3837" max="4090" width="8.7265625" style="158"/>
+    <col min="4091" max="4091" width="14.453125" style="158" customWidth="1"/>
+    <col min="4092" max="4092" width="11.7265625" style="158" customWidth="1"/>
+    <col min="4093" max="4346" width="8.7265625" style="158"/>
+    <col min="4347" max="4347" width="14.453125" style="158" customWidth="1"/>
+    <col min="4348" max="4348" width="11.7265625" style="158" customWidth="1"/>
+    <col min="4349" max="4602" width="8.7265625" style="158"/>
+    <col min="4603" max="4603" width="14.453125" style="158" customWidth="1"/>
+    <col min="4604" max="4604" width="11.7265625" style="158" customWidth="1"/>
+    <col min="4605" max="4858" width="8.7265625" style="158"/>
+    <col min="4859" max="4859" width="14.453125" style="158" customWidth="1"/>
+    <col min="4860" max="4860" width="11.7265625" style="158" customWidth="1"/>
+    <col min="4861" max="5114" width="8.7265625" style="158"/>
+    <col min="5115" max="5115" width="14.453125" style="158" customWidth="1"/>
+    <col min="5116" max="5116" width="11.7265625" style="158" customWidth="1"/>
+    <col min="5117" max="5370" width="8.7265625" style="158"/>
+    <col min="5371" max="5371" width="14.453125" style="158" customWidth="1"/>
+    <col min="5372" max="5372" width="11.7265625" style="158" customWidth="1"/>
+    <col min="5373" max="5626" width="8.7265625" style="158"/>
+    <col min="5627" max="5627" width="14.453125" style="158" customWidth="1"/>
+    <col min="5628" max="5628" width="11.7265625" style="158" customWidth="1"/>
+    <col min="5629" max="5882" width="8.7265625" style="158"/>
+    <col min="5883" max="5883" width="14.453125" style="158" customWidth="1"/>
+    <col min="5884" max="5884" width="11.7265625" style="158" customWidth="1"/>
+    <col min="5885" max="6138" width="8.7265625" style="158"/>
+    <col min="6139" max="6139" width="14.453125" style="158" customWidth="1"/>
+    <col min="6140" max="6140" width="11.7265625" style="158" customWidth="1"/>
+    <col min="6141" max="6394" width="8.7265625" style="158"/>
+    <col min="6395" max="6395" width="14.453125" style="158" customWidth="1"/>
+    <col min="6396" max="6396" width="11.7265625" style="158" customWidth="1"/>
+    <col min="6397" max="6650" width="8.7265625" style="158"/>
+    <col min="6651" max="6651" width="14.453125" style="158" customWidth="1"/>
+    <col min="6652" max="6652" width="11.7265625" style="158" customWidth="1"/>
+    <col min="6653" max="6906" width="8.7265625" style="158"/>
+    <col min="6907" max="6907" width="14.453125" style="158" customWidth="1"/>
+    <col min="6908" max="6908" width="11.7265625" style="158" customWidth="1"/>
+    <col min="6909" max="7162" width="8.7265625" style="158"/>
+    <col min="7163" max="7163" width="14.453125" style="158" customWidth="1"/>
+    <col min="7164" max="7164" width="11.7265625" style="158" customWidth="1"/>
+    <col min="7165" max="7418" width="8.7265625" style="158"/>
+    <col min="7419" max="7419" width="14.453125" style="158" customWidth="1"/>
+    <col min="7420" max="7420" width="11.7265625" style="158" customWidth="1"/>
+    <col min="7421" max="7674" width="8.7265625" style="158"/>
+    <col min="7675" max="7675" width="14.453125" style="158" customWidth="1"/>
+    <col min="7676" max="7676" width="11.7265625" style="158" customWidth="1"/>
+    <col min="7677" max="7930" width="8.7265625" style="158"/>
+    <col min="7931" max="7931" width="14.453125" style="158" customWidth="1"/>
+    <col min="7932" max="7932" width="11.7265625" style="158" customWidth="1"/>
+    <col min="7933" max="8186" width="8.7265625" style="158"/>
+    <col min="8187" max="8187" width="14.453125" style="158" customWidth="1"/>
+    <col min="8188" max="8188" width="11.7265625" style="158" customWidth="1"/>
+    <col min="8189" max="8442" width="8.7265625" style="158"/>
+    <col min="8443" max="8443" width="14.453125" style="158" customWidth="1"/>
+    <col min="8444" max="8444" width="11.7265625" style="158" customWidth="1"/>
+    <col min="8445" max="8698" width="8.7265625" style="158"/>
+    <col min="8699" max="8699" width="14.453125" style="158" customWidth="1"/>
+    <col min="8700" max="8700" width="11.7265625" style="158" customWidth="1"/>
+    <col min="8701" max="8954" width="8.7265625" style="158"/>
+    <col min="8955" max="8955" width="14.453125" style="158" customWidth="1"/>
+    <col min="8956" max="8956" width="11.7265625" style="158" customWidth="1"/>
+    <col min="8957" max="9210" width="8.7265625" style="158"/>
+    <col min="9211" max="9211" width="14.453125" style="158" customWidth="1"/>
+    <col min="9212" max="9212" width="11.7265625" style="158" customWidth="1"/>
+    <col min="9213" max="9466" width="8.7265625" style="158"/>
+    <col min="9467" max="9467" width="14.453125" style="158" customWidth="1"/>
+    <col min="9468" max="9468" width="11.7265625" style="158" customWidth="1"/>
+    <col min="9469" max="9722" width="8.7265625" style="158"/>
+    <col min="9723" max="9723" width="14.453125" style="158" customWidth="1"/>
+    <col min="9724" max="9724" width="11.7265625" style="158" customWidth="1"/>
+    <col min="9725" max="9978" width="8.7265625" style="158"/>
+    <col min="9979" max="9979" width="14.453125" style="158" customWidth="1"/>
+    <col min="9980" max="9980" width="11.7265625" style="158" customWidth="1"/>
+    <col min="9981" max="10234" width="8.7265625" style="158"/>
+    <col min="10235" max="10235" width="14.453125" style="158" customWidth="1"/>
+    <col min="10236" max="10236" width="11.7265625" style="158" customWidth="1"/>
+    <col min="10237" max="10490" width="8.7265625" style="158"/>
+    <col min="10491" max="10491" width="14.453125" style="158" customWidth="1"/>
+    <col min="10492" max="10492" width="11.7265625" style="158" customWidth="1"/>
+    <col min="10493" max="10746" width="8.7265625" style="158"/>
+    <col min="10747" max="10747" width="14.453125" style="158" customWidth="1"/>
+    <col min="10748" max="10748" width="11.7265625" style="158" customWidth="1"/>
+    <col min="10749" max="11002" width="8.7265625" style="158"/>
+    <col min="11003" max="11003" width="14.453125" style="158" customWidth="1"/>
+    <col min="11004" max="11004" width="11.7265625" style="158" customWidth="1"/>
+    <col min="11005" max="11258" width="8.7265625" style="158"/>
+    <col min="11259" max="11259" width="14.453125" style="158" customWidth="1"/>
+    <col min="11260" max="11260" width="11.7265625" style="158" customWidth="1"/>
+    <col min="11261" max="11514" width="8.7265625" style="158"/>
+    <col min="11515" max="11515" width="14.453125" style="158" customWidth="1"/>
+    <col min="11516" max="11516" width="11.7265625" style="158" customWidth="1"/>
+    <col min="11517" max="11770" width="8.7265625" style="158"/>
+    <col min="11771" max="11771" width="14.453125" style="158" customWidth="1"/>
+    <col min="11772" max="11772" width="11.7265625" style="158" customWidth="1"/>
+    <col min="11773" max="12026" width="8.7265625" style="158"/>
+    <col min="12027" max="12027" width="14.453125" style="158" customWidth="1"/>
+    <col min="12028" max="12028" width="11.7265625" style="158" customWidth="1"/>
+    <col min="12029" max="12282" width="8.7265625" style="158"/>
+    <col min="12283" max="12283" width="14.453125" style="158" customWidth="1"/>
+    <col min="12284" max="12284" width="11.7265625" style="158" customWidth="1"/>
+    <col min="12285" max="12538" width="8.7265625" style="158"/>
+    <col min="12539" max="12539" width="14.453125" style="158" customWidth="1"/>
+    <col min="12540" max="12540" width="11.7265625" style="158" customWidth="1"/>
+    <col min="12541" max="12794" width="8.7265625" style="158"/>
+    <col min="12795" max="12795" width="14.453125" style="158" customWidth="1"/>
+    <col min="12796" max="12796" width="11.7265625" style="158" customWidth="1"/>
+    <col min="12797" max="13050" width="8.7265625" style="158"/>
+    <col min="13051" max="13051" width="14.453125" style="158" customWidth="1"/>
+    <col min="13052" max="13052" width="11.7265625" style="158" customWidth="1"/>
+    <col min="13053" max="13306" width="8.7265625" style="158"/>
+    <col min="13307" max="13307" width="14.453125" style="158" customWidth="1"/>
+    <col min="13308" max="13308" width="11.7265625" style="158" customWidth="1"/>
+    <col min="13309" max="13562" width="8.7265625" style="158"/>
+    <col min="13563" max="13563" width="14.453125" style="158" customWidth="1"/>
+    <col min="13564" max="13564" width="11.7265625" style="158" customWidth="1"/>
+    <col min="13565" max="13818" width="8.7265625" style="158"/>
+    <col min="13819" max="13819" width="14.453125" style="158" customWidth="1"/>
+    <col min="13820" max="13820" width="11.7265625" style="158" customWidth="1"/>
+    <col min="13821" max="14074" width="8.7265625" style="158"/>
+    <col min="14075" max="14075" width="14.453125" style="158" customWidth="1"/>
+    <col min="14076" max="14076" width="11.7265625" style="158" customWidth="1"/>
+    <col min="14077" max="14330" width="8.7265625" style="158"/>
+    <col min="14331" max="14331" width="14.453125" style="158" customWidth="1"/>
+    <col min="14332" max="14332" width="11.7265625" style="158" customWidth="1"/>
+    <col min="14333" max="14586" width="8.7265625" style="158"/>
+    <col min="14587" max="14587" width="14.453125" style="158" customWidth="1"/>
+    <col min="14588" max="14588" width="11.7265625" style="158" customWidth="1"/>
+    <col min="14589" max="14842" width="8.7265625" style="158"/>
+    <col min="14843" max="14843" width="14.453125" style="158" customWidth="1"/>
+    <col min="14844" max="14844" width="11.7265625" style="158" customWidth="1"/>
+    <col min="14845" max="15098" width="8.7265625" style="158"/>
+    <col min="15099" max="15099" width="14.453125" style="158" customWidth="1"/>
+    <col min="15100" max="15100" width="11.7265625" style="158" customWidth="1"/>
+    <col min="15101" max="15354" width="8.7265625" style="158"/>
+    <col min="15355" max="15355" width="14.453125" style="158" customWidth="1"/>
+    <col min="15356" max="15356" width="11.7265625" style="158" customWidth="1"/>
+    <col min="15357" max="15610" width="8.7265625" style="158"/>
+    <col min="15611" max="15611" width="14.453125" style="158" customWidth="1"/>
+    <col min="15612" max="15612" width="11.7265625" style="158" customWidth="1"/>
+    <col min="15613" max="15866" width="8.7265625" style="158"/>
+    <col min="15867" max="15867" width="14.453125" style="158" customWidth="1"/>
+    <col min="15868" max="15868" width="11.7265625" style="158" customWidth="1"/>
+    <col min="15869" max="16122" width="8.7265625" style="158"/>
+    <col min="16123" max="16123" width="14.453125" style="158" customWidth="1"/>
+    <col min="16124" max="16124" width="11.7265625" style="158" customWidth="1"/>
+    <col min="16125" max="16384" width="8.7265625" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23">
+      <c r="A1" s="173" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="173"/>
+    </row>
+    <row r="2" spans="1:21" ht="30">
+      <c r="Q2" s="210" t="s">
+        <v>333</v>
+      </c>
+      <c r="R2" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="211" t="s">
+        <v>334</v>
+      </c>
+      <c r="T2" s="211" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="211" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="Q3" s="212">
+        <v>10</v>
+      </c>
+      <c r="R3" s="213">
+        <f>Q3^2</f>
+        <v>100</v>
+      </c>
+      <c r="S3" s="214">
+        <v>-0.16600000000000037</v>
+      </c>
+      <c r="T3" s="213">
+        <f>S3^2</f>
+        <v>2.7556000000000122E-2</v>
+      </c>
+      <c r="U3" s="215">
+        <f>Q3*S3</f>
+        <v>-1.6600000000000037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" s="216" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="216" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="216" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="216" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="216" t="s">
+        <v>337</v>
+      </c>
+      <c r="G4" s="216" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="216" t="s">
+        <v>334</v>
+      </c>
+      <c r="I4" s="217"/>
+      <c r="Q4" s="212">
+        <v>20</v>
+      </c>
+      <c r="R4" s="213">
+        <f t="shared" ref="R4:R12" si="0">Q4^2</f>
+        <v>400</v>
+      </c>
+      <c r="S4" s="214">
+        <v>-5.3999999999998494E-2</v>
+      </c>
+      <c r="T4" s="213">
+        <f t="shared" ref="T4:T12" si="1">S4^2</f>
+        <v>2.9159999999998371E-3</v>
+      </c>
+      <c r="U4" s="215">
+        <f t="shared" ref="U4:U12" si="2">Q4*S4</f>
+        <v>-1.0799999999999699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" s="218">
+        <v>10</v>
+      </c>
+      <c r="C5" s="218">
+        <v>9.91</v>
+      </c>
+      <c r="D5" s="218">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E5" s="218">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F5" s="218">
+        <v>9.69</v>
+      </c>
+      <c r="G5" s="218">
+        <v>9.9</v>
+      </c>
+      <c r="H5" s="230">
+        <f>AVERAGE(C5:G5)-B5</f>
+        <v>-0.16600000000000037</v>
+      </c>
+      <c r="I5" s="219"/>
+      <c r="Q5" s="212">
+        <v>30</v>
+      </c>
+      <c r="R5" s="213">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="S5" s="214">
+        <v>-1.6000000000001791E-2</v>
+      </c>
+      <c r="T5" s="213">
+        <f t="shared" si="1"/>
+        <v>2.5600000000005729E-4</v>
+      </c>
+      <c r="U5" s="215">
+        <f t="shared" si="2"/>
+        <v>-0.48000000000005372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" s="218">
+        <v>20</v>
+      </c>
+      <c r="C6" s="218">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D6" s="218">
+        <v>20.16</v>
+      </c>
+      <c r="E6" s="218">
+        <v>19.88</v>
+      </c>
+      <c r="F6" s="218">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G6" s="218">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="H6" s="230">
+        <f t="shared" ref="H6:H14" si="3">AVERAGE(C6:G6)-B6</f>
+        <v>-5.3999999999998494E-2</v>
+      </c>
+      <c r="I6" s="219"/>
+      <c r="Q6" s="212">
+        <v>40</v>
+      </c>
+      <c r="R6" s="213">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="S6" s="214">
+        <v>-4.7999999999994714E-2</v>
+      </c>
+      <c r="T6" s="213">
+        <f t="shared" si="1"/>
+        <v>2.3039999999994927E-3</v>
+      </c>
+      <c r="U6" s="215">
+        <f t="shared" si="2"/>
+        <v>-1.9199999999997885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="218">
+        <v>30</v>
+      </c>
+      <c r="C7" s="218">
+        <v>29.68</v>
+      </c>
+      <c r="D7" s="218">
+        <v>30.15</v>
+      </c>
+      <c r="E7" s="218">
+        <v>30.46</v>
+      </c>
+      <c r="F7" s="218">
+        <v>29.48</v>
+      </c>
+      <c r="G7" s="218">
+        <v>30.15</v>
+      </c>
+      <c r="H7" s="230">
+        <f t="shared" si="3"/>
+        <v>-1.6000000000001791E-2</v>
+      </c>
+      <c r="I7" s="219"/>
+      <c r="Q7" s="212">
+        <v>50</v>
+      </c>
+      <c r="R7" s="213">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="S7" s="214">
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="T7" s="213">
+        <f t="shared" si="1"/>
+        <v>1.0000000000010231E-4</v>
+      </c>
+      <c r="U7" s="215">
+        <f t="shared" si="2"/>
+        <v>0.5000000000002558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="218">
+        <v>40</v>
+      </c>
+      <c r="C8" s="218">
+        <v>40.03</v>
+      </c>
+      <c r="D8" s="218">
+        <v>39.93</v>
+      </c>
+      <c r="E8" s="218">
+        <v>40.08</v>
+      </c>
+      <c r="F8" s="218">
+        <v>39.69</v>
+      </c>
+      <c r="G8" s="218">
+        <v>40.03</v>
+      </c>
+      <c r="H8" s="230">
+        <f t="shared" si="3"/>
+        <v>-4.7999999999994714E-2</v>
+      </c>
+      <c r="I8" s="219"/>
+      <c r="Q8" s="212">
+        <v>60</v>
+      </c>
+      <c r="R8" s="213">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="S8" s="214">
+        <v>1.3999999999995794E-2</v>
+      </c>
+      <c r="T8" s="213">
+        <f t="shared" si="1"/>
+        <v>1.9599999999988222E-4</v>
+      </c>
+      <c r="U8" s="215">
+        <f t="shared" si="2"/>
+        <v>0.83999999999974762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="218">
+        <v>50</v>
+      </c>
+      <c r="C9" s="218">
+        <v>50.31</v>
+      </c>
+      <c r="D9" s="218">
+        <v>49.78</v>
+      </c>
+      <c r="E9" s="218">
+        <v>50.04</v>
+      </c>
+      <c r="F9" s="218">
+        <v>49.86</v>
+      </c>
+      <c r="G9" s="218">
+        <v>50.06</v>
+      </c>
+      <c r="H9" s="230">
+        <f t="shared" si="3"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="I9" s="219"/>
+      <c r="Q9" s="212">
+        <v>70</v>
+      </c>
+      <c r="R9" s="213">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="S9" s="214">
+        <v>5.9999999999988063E-2</v>
+      </c>
+      <c r="T9" s="213">
+        <f t="shared" si="1"/>
+        <v>3.5999999999985675E-3</v>
+      </c>
+      <c r="U9" s="215">
+        <f t="shared" si="2"/>
+        <v>4.1999999999991644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="218">
+        <v>60</v>
+      </c>
+      <c r="C10" s="218">
+        <v>60.58</v>
+      </c>
+      <c r="D10" s="218">
+        <v>59.34</v>
+      </c>
+      <c r="E10" s="218">
+        <v>59.61</v>
+      </c>
+      <c r="F10" s="218">
+        <v>59.88</v>
+      </c>
+      <c r="G10" s="218">
+        <v>60.66</v>
+      </c>
+      <c r="H10" s="230">
+        <f t="shared" si="3"/>
+        <v>1.3999999999995794E-2</v>
+      </c>
+      <c r="I10" s="219"/>
+      <c r="Q10" s="212">
+        <v>80</v>
+      </c>
+      <c r="R10" s="213">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="S10" s="214">
+        <v>4.8000000000001819E-2</v>
+      </c>
+      <c r="T10" s="213">
+        <f t="shared" si="1"/>
+        <v>2.3040000000001748E-3</v>
+      </c>
+      <c r="U10" s="215">
+        <f t="shared" si="2"/>
+        <v>3.8400000000001455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="218">
+        <v>70</v>
+      </c>
+      <c r="C11" s="218">
+        <v>70.14</v>
+      </c>
+      <c r="D11" s="218">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="E11" s="218">
+        <v>69.52</v>
+      </c>
+      <c r="F11" s="218">
+        <v>69.86</v>
+      </c>
+      <c r="G11" s="218">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="H11" s="230">
+        <f t="shared" si="3"/>
+        <v>5.9999999999988063E-2</v>
+      </c>
+      <c r="I11" s="219"/>
+      <c r="Q11" s="212">
+        <v>90</v>
+      </c>
+      <c r="R11" s="213">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+      <c r="S11" s="214">
+        <v>0.12399999999999523</v>
+      </c>
+      <c r="T11" s="213">
+        <f t="shared" si="1"/>
+        <v>1.5375999999998816E-2</v>
+      </c>
+      <c r="U11" s="215">
+        <f t="shared" si="2"/>
+        <v>11.15999999999957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" s="218">
+        <v>80</v>
+      </c>
+      <c r="C12" s="218">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="D12" s="218">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="E12" s="218">
+        <v>79.83</v>
+      </c>
+      <c r="F12" s="218">
+        <v>80.78</v>
+      </c>
+      <c r="G12" s="218">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H12" s="230">
+        <f t="shared" si="3"/>
+        <v>4.8000000000001819E-2</v>
+      </c>
+      <c r="I12" s="219"/>
+      <c r="Q12" s="212">
+        <v>100</v>
+      </c>
+      <c r="R12" s="213">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="S12" s="214">
+        <v>0.1460000000000008</v>
+      </c>
+      <c r="T12" s="213">
+        <f t="shared" si="1"/>
+        <v>2.1316000000000234E-2</v>
+      </c>
+      <c r="U12" s="215">
+        <f t="shared" si="2"/>
+        <v>14.60000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" s="218">
+        <v>90</v>
+      </c>
+      <c r="C13" s="218">
+        <v>89.4</v>
+      </c>
+      <c r="D13" s="218">
+        <v>89.4</v>
+      </c>
+      <c r="E13" s="218">
+        <v>90.47</v>
+      </c>
+      <c r="F13" s="218">
+        <v>89.96</v>
+      </c>
+      <c r="G13" s="218">
+        <v>91.39</v>
+      </c>
+      <c r="H13" s="230">
+        <f t="shared" si="3"/>
+        <v>0.12399999999999523</v>
+      </c>
+      <c r="I13" s="219"/>
+      <c r="P13" s="220" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q13" s="221">
+        <f>SUM(Q3:Q12)</f>
+        <v>550</v>
+      </c>
+      <c r="R13" s="221">
+        <f t="shared" ref="R13:U13" si="4">SUM(R3:R12)</f>
+        <v>38500</v>
+      </c>
+      <c r="S13" s="221">
+        <f t="shared" si="4"/>
+        <v>0.11799999999999145</v>
+      </c>
+      <c r="T13" s="221">
+        <f t="shared" si="4"/>
+        <v>7.5923999999997285E-2</v>
+      </c>
+      <c r="U13" s="221">
+        <f t="shared" si="4"/>
+        <v>29.999999999999147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" s="218">
+        <v>100</v>
+      </c>
+      <c r="C14" s="218">
+        <v>100.91</v>
+      </c>
+      <c r="D14" s="218">
+        <v>99.49</v>
+      </c>
+      <c r="E14" s="218">
+        <v>100.24</v>
+      </c>
+      <c r="F14" s="218">
+        <v>100.67</v>
+      </c>
+      <c r="G14" s="218">
+        <v>99.42</v>
+      </c>
+      <c r="H14" s="230">
+        <f t="shared" si="3"/>
+        <v>0.1460000000000008</v>
+      </c>
+      <c r="I14" s="219"/>
+    </row>
+    <row r="16" spans="1:21" ht="17.5">
+      <c r="E16" s="222" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.5">
+      <c r="A17" s="156" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="223">
+        <f>SLOPE(H5:H14,B5:B14)</f>
+        <v>2.8496969696969231E-3</v>
+      </c>
+      <c r="C17" s="224">
+        <f>(B21*U13-Q13*S13)/(B21*R13-Q13^2)</f>
+        <v>2.8496969696969235E-3</v>
+      </c>
+      <c r="E17" s="225" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="156" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="223">
+        <f>INTERCEPT(H5:H14,B5:B14)</f>
+        <v>-0.14493333333333164</v>
+      </c>
+      <c r="C18" s="226">
+        <f>(S13-C17*Q13)/B21</f>
+        <v>-0.14493333333333164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="156" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="227">
+        <f>B17</f>
+        <v>2.8496969696969231E-3</v>
+      </c>
+      <c r="C19" s="228">
+        <f>C17</f>
+        <v>2.8496969696969235E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="229">
+        <f>COUNTA(B5:B14)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="158">
+        <f>CORREL(B5:B14,H5:H14)</f>
+        <v>0.94810280749197196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="158" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="158">
+        <f>B23^2</f>
+        <v>0.89889893357415929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -31392,11 +33706,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="14.5">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="231" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="232"/>
       <c r="D2" s="12">
         <v>50</v>
       </c>
@@ -31405,8 +33719,8 @@
         <v>53</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="167"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="234"/>
       <c r="L2" s="12">
         <v>50</v>
       </c>
@@ -32888,10 +35202,10 @@
       <c r="S21" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="T21" s="168" t="s">
+      <c r="T21" s="235" t="s">
         <v>111</v>
       </c>
-      <c r="U21" s="168"/>
+      <c r="U21" s="235"/>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="83">
@@ -34943,10 +37257,10 @@
       <c r="S22" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="T22" s="168" t="s">
+      <c r="T22" s="235" t="s">
         <v>111</v>
       </c>
-      <c r="U22" s="168"/>
+      <c r="U22" s="235"/>
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="83">
@@ -37537,7 +39851,7 @@
       <c r="R19" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="S19" s="169" t="s">
+      <c r="S19" s="236" t="s">
         <v>168</v>
       </c>
     </row>
@@ -37573,7 +39887,7 @@
       <c r="R20" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="S20" s="170"/>
+      <c r="S20" s="237"/>
     </row>
     <row r="21" spans="1:21" ht="15.5">
       <c r="A21">
@@ -37598,16 +39912,16 @@
       <c r="O21" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="P21" s="171" t="s">
+      <c r="P21" s="238" t="s">
         <v>171</v>
       </c>
-      <c r="Q21" s="171" t="s">
+      <c r="Q21" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="R21" s="171" t="s">
+      <c r="R21" s="238" t="s">
         <v>173</v>
       </c>
-      <c r="S21" s="171" t="s">
+      <c r="S21" s="238" t="s">
         <v>174</v>
       </c>
     </row>
@@ -37634,10 +39948,10 @@
       <c r="O22" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="172"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="239"/>
+      <c r="R22" s="239"/>
+      <c r="S22" s="239"/>
     </row>
     <row r="23" spans="1:21" ht="15.5">
       <c r="A23">

--- a/Deloitte ClassWork.xlsx
+++ b/Deloitte ClassWork.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arnab Docs\Six Sigma\SS Study Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCEAFD-D941-4ADF-890C-8A91054327FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BA9646-2A0C-426A-A16B-A3193335A6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="812" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Bias" sheetId="16" r:id="rId15"/>
     <sheet name="Repeatability &amp; Reproducibility" sheetId="17" r:id="rId16"/>
     <sheet name="Linearity-2" sheetId="18" r:id="rId17"/>
+    <sheet name="Histogram" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="__shared_1_0_0" localSheetId="11">#REF!*#REF!^#REF!</definedName>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="358">
   <si>
     <t>Name</t>
   </si>
@@ -1876,6 +1877,42 @@
   <si>
     <t xml:space="preserve">%Linearity = </t>
   </si>
+  <si>
+    <t>Number of Students</t>
+  </si>
+  <si>
+    <t>In Different Class</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Min Count</t>
+  </si>
+  <si>
+    <t>Max Count</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>Cumulative %</t>
+  </si>
 </sst>
 </file>
 
@@ -3289,7 +3326,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3822,15 +3859,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3843,20 +3871,23 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3872,6 +3903,12 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3891,12 +3928,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3915,6 +3946,21 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="73" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
@@ -6437,6 +6483,349 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Histogram!$I$19:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Histogram!$J$19:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EF7-4C15-8309-5D3D0AA0920B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="513033247"/>
+        <c:axId val="513035167"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cumulative %</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Histogram!$I$19:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Histogram!$K$19:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.30434782608695654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60869565217391308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78260869565217395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1EF7-4C15-8309-5D3D0AA0920B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="495309615"/>
+        <c:axId val="495307695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="513033247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513035167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513035167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513033247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495307695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="495309615"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="495309615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="495307695"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="28575">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -22316,6 +22705,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300020DF-8997-EBDF-8B11-BEB0A784A2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -23489,7 +23919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -24289,12 +24719,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="242" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="114" t="s">
@@ -24860,46 +25290,46 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="F22" s="243" t="s">
+      <c r="F22" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="243" t="s">
+      <c r="G22" s="240" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="243" t="s">
+      <c r="H22" s="240" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="243" t="s">
+      <c r="I22" s="240" t="s">
         <v>195</v>
       </c>
-      <c r="J22" s="243" t="s">
+      <c r="J22" s="240" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="244"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
+      <c r="I23" s="243"/>
+      <c r="J23" s="241"/>
     </row>
     <row r="24" spans="1:20" ht="15.5">
       <c r="A24" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="240" t="s">
+      <c r="F24" s="244" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="240" t="s">
+      <c r="G24" s="244" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="240" t="s">
+      <c r="H24" s="244" t="s">
         <v>172</v>
       </c>
-      <c r="I24" s="240" t="s">
+      <c r="I24" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="J24" s="240" t="s">
+      <c r="J24" s="244" t="s">
         <v>174</v>
       </c>
     </row>
@@ -24907,39 +25337,39 @@
       <c r="A25" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="240"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="240"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="240"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="244"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="240" t="s">
+      <c r="F26" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="240" t="s">
+      <c r="G26" s="244" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="240" t="s">
+      <c r="H26" s="244" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="241" t="s">
+      <c r="I26" s="245" t="s">
         <v>177</v>
       </c>
-      <c r="J26" s="240"/>
+      <c r="J26" s="244"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="240"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="244"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="6" t="s">
@@ -25287,22 +25717,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{476D9637-465A-4F27-80F6-399708C45335}"/>
@@ -25318,7 +25748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363FCC69-7A34-4EEF-89B6-8639343D7851}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -25328,12 +25758,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="242" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -26964,28 +27394,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="41" customHeight="1">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="242" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="6" cm="1">
         <f t="array" ref="F1">SUMPRODUCT(1/COUNTIF(B4:B11,B4:B11))</f>
         <v>2</v>
       </c>
-      <c r="I1" s="248" t="s">
+      <c r="I1" s="249" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
       <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:21" ht="13" thickBot="1"/>
@@ -27280,7 +27710,7 @@
         <f t="shared" si="0"/>
         <v>12.96</v>
       </c>
-      <c r="L11" s="249" t="s">
+      <c r="L11" s="248" t="s">
         <v>87</v>
       </c>
       <c r="M11" s="146">
@@ -27326,7 +27756,7 @@
         <f>SUM(J4:J11)</f>
         <v>146.6</v>
       </c>
-      <c r="L12" s="249"/>
+      <c r="L12" s="248"/>
       <c r="M12" s="146">
         <v>600</v>
       </c>
@@ -27358,7 +27788,7 @@
       <c r="I13" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="L13" s="249" t="s">
+      <c r="L13" s="248" t="s">
         <v>235</v>
       </c>
       <c r="M13" s="146">
@@ -27385,37 +27815,37 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.5" customHeight="1">
-      <c r="A14" s="250" t="s">
+      <c r="A14" s="255" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="252" t="s">
+      <c r="B14" s="250" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="252" t="s">
+      <c r="C14" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="254" t="s">
+      <c r="D14" s="252" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="256" t="s">
+      <c r="E14" s="254" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="250" t="s">
+      <c r="G14" s="255" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="252" t="s">
+      <c r="H14" s="250" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="252" t="s">
+      <c r="I14" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="J14" s="254" t="s">
+      <c r="J14" s="252" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="256" t="s">
+      <c r="K14" s="254" t="s">
         <v>246</v>
       </c>
-      <c r="L14" s="249"/>
+      <c r="L14" s="248"/>
       <c r="M14" s="146">
         <v>1500</v>
       </c>
@@ -27436,17 +27866,17 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.5" customHeight="1">
-      <c r="A15" s="251"/>
-      <c r="B15" s="253"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="256"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="249" t="s">
+      <c r="A15" s="256"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="254"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="248" t="s">
         <v>236</v>
       </c>
       <c r="M15" s="146">
@@ -27507,7 +27937,7 @@
         <f>J16/$H$22</f>
         <v>1.4400000000000241</v>
       </c>
-      <c r="L16" s="249"/>
+      <c r="L16" s="248"/>
       <c r="M16" s="146">
         <v>15</v>
       </c>
@@ -27562,7 +27992,7 @@
         <f t="shared" ref="K17:K21" si="6">J17/$H$22</f>
         <v>0.75111111111112328</v>
       </c>
-      <c r="L17" s="249" t="s">
+      <c r="L17" s="248" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="146">
@@ -27623,7 +28053,7 @@
         <f t="shared" si="6"/>
         <v>0.28444444444444922</v>
       </c>
-      <c r="L18" s="249"/>
+      <c r="L18" s="248"/>
       <c r="M18" s="146">
         <v>2.5</v>
       </c>
@@ -27671,7 +28101,7 @@
         <f t="shared" si="6"/>
         <v>0.28444444444444922</v>
       </c>
-      <c r="L19" s="249" t="s">
+      <c r="L19" s="248" t="s">
         <v>237</v>
       </c>
       <c r="M19" s="152">
@@ -27725,7 +28155,7 @@
         <f t="shared" si="6"/>
         <v>1.0000000000000162</v>
       </c>
-      <c r="L20" s="249"/>
+      <c r="L20" s="248"/>
       <c r="M20" s="152">
         <v>0.01</v>
       </c>
@@ -27773,7 +28203,7 @@
         <f t="shared" si="6"/>
         <v>0.11111111111111278</v>
       </c>
-      <c r="L21" s="249" t="s">
+      <c r="L21" s="248" t="s">
         <v>238</v>
       </c>
       <c r="M21" s="152">
@@ -27822,7 +28252,7 @@
         <v>1.1249999999999831</v>
       </c>
       <c r="K22" s="153"/>
-      <c r="L22" s="249"/>
+      <c r="L22" s="248"/>
       <c r="M22" s="152">
         <v>0.05</v>
       </c>
@@ -27870,70 +28300,70 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="12.5" customHeight="1">
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="249" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="248"/>
-      <c r="D26" s="248"/>
-      <c r="E26" s="248"/>
-      <c r="F26" s="248"/>
-      <c r="G26" s="248"/>
-      <c r="H26" s="248"/>
-      <c r="I26" s="248"/>
-      <c r="J26" s="248"/>
-      <c r="K26" s="248"/>
-      <c r="L26" s="248"/>
-      <c r="M26" s="248"/>
-      <c r="N26" s="248"/>
-      <c r="O26" s="248"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="249"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="249"/>
+      <c r="M26" s="249"/>
+      <c r="N26" s="249"/>
+      <c r="O26" s="249"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="248"/>
-      <c r="C27" s="248"/>
-      <c r="D27" s="248"/>
-      <c r="E27" s="248"/>
-      <c r="F27" s="248"/>
-      <c r="G27" s="248"/>
-      <c r="H27" s="248"/>
-      <c r="I27" s="248"/>
-      <c r="J27" s="248"/>
-      <c r="K27" s="248"/>
-      <c r="L27" s="248"/>
-      <c r="M27" s="248"/>
-      <c r="N27" s="248"/>
-      <c r="O27" s="248"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="249"/>
+      <c r="M27" s="249"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="249"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="248"/>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="248"/>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="248"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="248"/>
-      <c r="L28" s="248"/>
-      <c r="M28" s="248"/>
-      <c r="N28" s="248"/>
-      <c r="O28" s="248"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="249"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="249"/>
+      <c r="N28" s="249"/>
+      <c r="O28" s="249"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="248"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="248"/>
-      <c r="E29" s="248"/>
-      <c r="F29" s="248"/>
-      <c r="G29" s="248"/>
-      <c r="H29" s="248"/>
-      <c r="I29" s="248"/>
-      <c r="J29" s="248"/>
-      <c r="K29" s="248"/>
-      <c r="L29" s="248"/>
-      <c r="M29" s="248"/>
-      <c r="N29" s="248"/>
-      <c r="O29" s="248"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="249"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="249"/>
+      <c r="M29" s="249"/>
+      <c r="N29" s="249"/>
+      <c r="O29" s="249"/>
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="154">
@@ -28071,15 +28501,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="B26:O29"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I1:R1"/>
     <mergeCell ref="L11:L12"/>
@@ -28090,6 +28511,15 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="B26:O29"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G25" r:id="rId1" xr:uid="{EFFD46BB-CA0C-4D50-AEC2-1C0728FBEBD1}"/>
@@ -28393,7 +28823,7 @@
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -29070,17 +29500,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="263" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="266" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="270"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="268"/>
       <c r="I2" s="187" t="s">
         <v>156</v>
       </c>
@@ -29098,19 +29528,19 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="266"/>
-      <c r="B3" s="268" t="s">
+      <c r="A3" s="264"/>
+      <c r="B3" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="270"/>
-      <c r="D3" s="268" t="s">
+      <c r="C3" s="268"/>
+      <c r="D3" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="270"/>
-      <c r="F3" s="268" t="s">
+      <c r="E3" s="268"/>
+      <c r="F3" s="266" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="270"/>
+      <c r="G3" s="268"/>
       <c r="I3" s="188" t="s">
         <v>291</v>
       </c>
@@ -29128,7 +29558,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5">
-      <c r="A4" s="267"/>
+      <c r="A4" s="265"/>
       <c r="B4" s="189" t="s">
         <v>296</v>
       </c>
@@ -29185,19 +29615,19 @@
       <c r="G5" s="190">
         <v>60.6</v>
       </c>
-      <c r="I5" s="263" t="s">
+      <c r="I5" s="269" t="s">
         <v>303</v>
       </c>
-      <c r="J5" s="263" t="s">
+      <c r="J5" s="269" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="263" t="s">
+      <c r="K5" s="269" t="s">
         <v>305</v>
       </c>
-      <c r="L5" s="263" t="s">
+      <c r="L5" s="269" t="s">
         <v>306</v>
       </c>
-      <c r="M5" s="263" t="s">
+      <c r="M5" s="269" t="s">
         <v>307</v>
       </c>
       <c r="P5" s="192" t="s">
@@ -29235,11 +29665,11 @@
       <c r="G6" s="190">
         <v>87.4</v>
       </c>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="264"/>
-      <c r="M6" s="264"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="270"/>
+      <c r="L6" s="270"/>
+      <c r="M6" s="270"/>
       <c r="P6" s="193" t="s">
         <v>14</v>
       </c>
@@ -29574,17 +30004,17 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.5">
-      <c r="A17" s="265" t="s">
+      <c r="A17" s="263" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="268" t="s">
+      <c r="B17" s="266" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="270"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="268"/>
       <c r="I17" s="188" t="s">
         <v>298</v>
       </c>
@@ -29621,19 +30051,19 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" customHeight="1">
-      <c r="A18" s="266"/>
-      <c r="B18" s="268" t="s">
+      <c r="A18" s="264"/>
+      <c r="B18" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="270"/>
-      <c r="D18" s="268" t="s">
+      <c r="C18" s="268"/>
+      <c r="D18" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="270"/>
-      <c r="F18" s="268" t="s">
+      <c r="E18" s="268"/>
+      <c r="F18" s="266" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="270"/>
+      <c r="G18" s="268"/>
       <c r="I18" s="191" t="s">
         <v>303</v>
       </c>
@@ -29673,7 +30103,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5">
-      <c r="A19" s="267"/>
+      <c r="A19" s="265"/>
       <c r="B19" s="189" t="s">
         <v>319</v>
       </c>
@@ -30944,11 +31374,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
@@ -30959,6 +31384,11 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31766,6 +32196,416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1B54E4-9203-4844-804D-20B0D62AD17E}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="89" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="A2" s="89" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="274" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="274" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="271">
+        <v>20</v>
+      </c>
+      <c r="G4" s="272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="F5" s="271">
+        <v>25</v>
+      </c>
+      <c r="G5" s="272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="271">
+        <v>30</v>
+      </c>
+      <c r="G6" s="272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="F7" s="271">
+        <v>35</v>
+      </c>
+      <c r="G7" s="272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="271">
+        <v>40</v>
+      </c>
+      <c r="G8" s="272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="F9" s="271">
+        <v>45</v>
+      </c>
+      <c r="G9" s="272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="F10" s="273" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G4:G10)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12">
+        <f>MIN($A$3:$A$25)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13">
+        <f>MAX($A$3:$A$25)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14">
+        <f>COUNT($A$3:$A$25)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIFS(A3:A25,"&lt;=20")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIFS(A3:A25,"&gt;20",A3:A25,"&lt;=25")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="274" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="274" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="274" t="s">
+        <v>357</v>
+      </c>
+      <c r="I18" s="274" t="s">
+        <v>348</v>
+      </c>
+      <c r="J18" s="274" t="s">
+        <v>353</v>
+      </c>
+      <c r="K18" s="274" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="F19" s="271">
+        <v>20</v>
+      </c>
+      <c r="G19" s="272">
+        <v>2</v>
+      </c>
+      <c r="H19" s="275">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="I19" s="271">
+        <v>35</v>
+      </c>
+      <c r="J19" s="272">
+        <v>7</v>
+      </c>
+      <c r="K19" s="275">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="F20" s="271">
+        <v>25</v>
+      </c>
+      <c r="G20" s="272">
+        <v>4</v>
+      </c>
+      <c r="H20" s="275">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="I20" s="271">
+        <v>40</v>
+      </c>
+      <c r="J20" s="272">
+        <v>7</v>
+      </c>
+      <c r="K20" s="275">
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="F21" s="271">
+        <v>30</v>
+      </c>
+      <c r="G21" s="272">
+        <v>3</v>
+      </c>
+      <c r="H21" s="275">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="I21" s="271">
+        <v>25</v>
+      </c>
+      <c r="J21" s="272">
+        <v>4</v>
+      </c>
+      <c r="K21" s="275">
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>28</v>
+      </c>
+      <c r="F22" s="271">
+        <v>35</v>
+      </c>
+      <c r="G22" s="272">
+        <v>7</v>
+      </c>
+      <c r="H22" s="275">
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="I22" s="271">
+        <v>30</v>
+      </c>
+      <c r="J22" s="272">
+        <v>3</v>
+      </c>
+      <c r="K22" s="275">
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="271">
+        <v>40</v>
+      </c>
+      <c r="G23" s="272">
+        <v>7</v>
+      </c>
+      <c r="H23" s="275">
+        <v>1</v>
+      </c>
+      <c r="I23" s="271">
+        <v>20</v>
+      </c>
+      <c r="J23" s="272">
+        <v>2</v>
+      </c>
+      <c r="K23" s="275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="F24" s="271">
+        <v>45</v>
+      </c>
+      <c r="G24" s="272">
+        <v>0</v>
+      </c>
+      <c r="H24" s="275">
+        <v>1</v>
+      </c>
+      <c r="I24" s="271">
+        <v>45</v>
+      </c>
+      <c r="J24" s="272">
+        <v>0</v>
+      </c>
+      <c r="K24" s="275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1">
+      <c r="A25">
+        <v>35</v>
+      </c>
+      <c r="F25" s="273" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" s="273">
+        <v>0</v>
+      </c>
+      <c r="H25" s="276">
+        <v>1</v>
+      </c>
+      <c r="I25" s="277" t="s">
+        <v>352</v>
+      </c>
+      <c r="J25" s="273">
+        <v>0</v>
+      </c>
+      <c r="K25" s="276">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I19:J25">
+    <sortCondition descending="1" ref="J19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F1C9A5-F75B-4B9E-82B2-3C439654534C}">
   <dimension ref="A1:S53"/>
@@ -38014,7 +38854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE88DE-C8B0-46FD-B18D-DF9F1EA23461}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -38590,9 +39430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8195707-E91F-47E1-A910-E2AC1CDC45B7}">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Deloitte ClassWork.xlsx
+++ b/Deloitte ClassWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arnab Docs\Six Sigma\SS Study Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BA9646-2A0C-426A-A16B-A3193335A6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F8C80-AC2F-4198-AA1F-7E1B8B83CC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="812" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="812" firstSheet="17" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,12 @@
     <sheet name="Repeatability &amp; Reproducibility" sheetId="17" r:id="rId16"/>
     <sheet name="Linearity-2" sheetId="18" r:id="rId17"/>
     <sheet name="Histogram" sheetId="19" r:id="rId18"/>
+    <sheet name="Descriptive Statistics" sheetId="20" r:id="rId19"/>
+    <sheet name="Scenario Summary" sheetId="22" r:id="rId20"/>
+    <sheet name="Scenario Manager" sheetId="21" r:id="rId21"/>
+    <sheet name="Goal Seek" sheetId="23" r:id="rId22"/>
+    <sheet name="Data Table" sheetId="24" r:id="rId23"/>
+    <sheet name="Solver" sheetId="25" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="__shared_1_0_0" localSheetId="11">#REF!*#REF!^#REF!</definedName>
@@ -72,6 +78,42 @@
     <definedName name="__shared_9_0_0">SUM(#REF!)</definedName>
     <definedName name="OLE_LINK1" localSheetId="11">'Multi-Factor ANOVA'!#REF!</definedName>
     <definedName name="OLE_LINK1" localSheetId="9">'One-Way ANOVA (Calculations)'!$A$4</definedName>
+    <definedName name="solver_adj" localSheetId="23" hidden="1">Solver!$D$6:$F$6</definedName>
+    <definedName name="solver_cvg" localSheetId="23" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="23" hidden="1">Solver!$D$6:$F$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="23" hidden="1">Solver!$D$6:$F$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="23" hidden="1">Solver!$H$9:$H$13</definedName>
+    <definedName name="solver_mip" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="23" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="23" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="23" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="23" hidden="1">Solver!$D$16</definedName>
+    <definedName name="solver_pre" localSheetId="23" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="23" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="23" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="23" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="23" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="23" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="23" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="23" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="23" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="23" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="23" hidden="1">20000</definedName>
+    <definedName name="solver_ver" localSheetId="23" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="445">
   <si>
     <t>Name</t>
   </si>
@@ -1902,23 +1944,286 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>0-20</t>
-  </si>
-  <si>
-    <t>20-25</t>
-  </si>
-  <si>
-    <t>25-30</t>
-  </si>
-  <si>
     <t>Cumulative %</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>=RANDBETWEEN(20,40)    Ctrl+Enter</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Largest(5)</t>
+  </si>
+  <si>
+    <t>Smallest(5)</t>
+  </si>
+  <si>
+    <t>=STD/SQRT(COUNT)</t>
+  </si>
+  <si>
+    <t>Using Formulas</t>
+  </si>
+  <si>
+    <t>=MIN - MAX</t>
+  </si>
+  <si>
+    <t>Budgets for a Small Business</t>
+  </si>
+  <si>
+    <t>Expenditure Heads</t>
+  </si>
+  <si>
+    <t>Amount (In INR)</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Electricity Bills</t>
+  </si>
+  <si>
+    <t>Mobile &amp; Internet</t>
+  </si>
+  <si>
+    <t>Salary &amp; Wages</t>
+  </si>
+  <si>
+    <t>Stationary Items</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>$A$3</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>$A$4</t>
+  </si>
+  <si>
+    <t>$B$4</t>
+  </si>
+  <si>
+    <t>$A$5</t>
+  </si>
+  <si>
+    <t>$B$5</t>
+  </si>
+  <si>
+    <t>$A$6</t>
+  </si>
+  <si>
+    <t>$B$6</t>
+  </si>
+  <si>
+    <t>$A$7</t>
+  </si>
+  <si>
+    <t>$B$7</t>
+  </si>
+  <si>
+    <t>$A$8</t>
+  </si>
+  <si>
+    <t>$B$8</t>
+  </si>
+  <si>
+    <t>$A$9</t>
+  </si>
+  <si>
+    <t>$B$9</t>
+  </si>
+  <si>
+    <t>$A$10</t>
+  </si>
+  <si>
+    <t>$B$10</t>
+  </si>
+  <si>
+    <t>$B$11</t>
+  </si>
+  <si>
+    <t>Initial Planning</t>
+  </si>
+  <si>
+    <t>Created by Arnab on 20-05-2023</t>
+  </si>
+  <si>
+    <t>No Rent but Bank Loan Installments</t>
+  </si>
+  <si>
+    <t>Created by Arnab on 20-05-2023
+Modified by Arnab on 20-05-2023</t>
+  </si>
+  <si>
+    <t>Monthly Installments</t>
+  </si>
+  <si>
+    <t>More Incentives and Less TA</t>
+  </si>
+  <si>
+    <t>Salary &amp; Wages &amp; Incentives</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>Find the target sales for the 4th Quarter</t>
+  </si>
+  <si>
+    <t>so that the average quartly sales will be INR 4,00,000</t>
+  </si>
+  <si>
+    <t>GOAL SEEK</t>
+  </si>
+  <si>
+    <t>1st Qtr Sales</t>
+  </si>
+  <si>
+    <t>2nd Qtr Sales</t>
+  </si>
+  <si>
+    <t>3rd Qtr Sales</t>
+  </si>
+  <si>
+    <t>4th Qtr Sales</t>
+  </si>
+  <si>
+    <t>Average Qrtly Sales</t>
+  </si>
+  <si>
+    <t>Single Variable Data Table</t>
+  </si>
+  <si>
+    <t>Ticket Price</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Double Variables Data Table</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>TV Sets</t>
+  </si>
+  <si>
+    <t>Stereos</t>
+  </si>
+  <si>
+    <t>Profit / Item</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Parts Names</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Picture Tube</t>
+  </si>
+  <si>
+    <t>Speaker Code</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Electronics PCBs</t>
+  </si>
+  <si>
+    <t>Profit / Product</t>
+  </si>
+  <si>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t>Inventory Used</t>
+  </si>
+  <si>
+    <t>Inventory Left</t>
+  </si>
+  <si>
+    <t>Problem: Find out the quantities of each product to be produced</t>
+  </si>
+  <si>
+    <t>within the inventory constraint to get the maximum profit.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="14">
+    <numFmt numFmtId="7" formatCode="&quot;₹&quot;\ #,##0.00;&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1931,8 +2236,9 @@
     <numFmt numFmtId="172" formatCode="0.0000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000"/>
     <numFmt numFmtId="174" formatCode="0.000%"/>
+    <numFmt numFmtId="175" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2247,8 +2553,70 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2344,8 +2712,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="76">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -3314,6 +3706,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3326,7 +3727,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3955,12 +4356,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
@@ -6539,7 +7000,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Histogram!$I$19:$I$25</c:f>
+              <c:f>Histogram!$J$20:$J$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6568,7 +7029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Histogram!$J$19:$J$25</c:f>
+              <c:f>Histogram!$K$20:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6625,7 +7086,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Histogram!$I$19:$I$25</c:f>
+              <c:f>Histogram!$J$20:$J$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6654,7 +7115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Histogram!$K$19:$K$25</c:f>
+              <c:f>Histogram!$L$20:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -32198,50 +32659,54 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1B54E4-9203-4844-804D-20B0D62AD17E}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>346</v>
       </c>
+      <c r="C2" s="280" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>31</v>
       </c>
       <c r="C3" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="F3" s="274" t="s">
+      <c r="F3" s="275" t="s">
         <v>348</v>
       </c>
-      <c r="G3" s="274" t="s">
+      <c r="G3" s="275" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>22</v>
       </c>
       <c r="C4">
@@ -32255,7 +32720,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>25</v>
       </c>
       <c r="C5">
@@ -32269,7 +32734,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>21</v>
       </c>
       <c r="C6">
@@ -32283,7 +32748,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>30</v>
       </c>
       <c r="C7">
@@ -32297,7 +32762,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>37</v>
       </c>
       <c r="C8">
@@ -32311,7 +32776,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>40</v>
       </c>
       <c r="C9">
@@ -32325,7 +32790,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>34</v>
       </c>
       <c r="F10" s="273" t="s">
@@ -32336,7 +32801,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>38</v>
       </c>
       <c r="G11">
@@ -32345,7 +32810,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>39</v>
       </c>
       <c r="C12" t="s">
@@ -32357,7 +32822,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>40</v>
       </c>
       <c r="C13" t="s">
@@ -32369,7 +32834,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>40</v>
       </c>
       <c r="C14" t="s">
@@ -32381,228 +32846,606 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="279" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" s="279" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="279" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <f>COUNTIFS($A$3:$A$25,"&gt;"&amp;C17,$A$3:$A$25,"&lt;="&amp;D17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1">
+      <c r="A18" s="2">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
+        <f>D17</f>
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E23" si="0">COUNTIFS($A$3:$A$25,"&gt;"&amp;C18,$A$3:$A$25,"&lt;="&amp;D18)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:C23" si="1">D18</f>
+        <v>25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="275" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" s="275" t="s">
+        <v>353</v>
+      </c>
+      <c r="I19" s="275" t="s">
         <v>354</v>
       </c>
-      <c r="D16">
-        <f>COUNTIFS(A3:A25,"&lt;=20")</f>
+      <c r="J19" s="275" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19" s="275" t="s">
+        <v>353</v>
+      </c>
+      <c r="L19" s="275" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G20" s="271">
+        <v>20</v>
+      </c>
+      <c r="H20" s="272">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17">
-        <f>COUNTIFS(A3:A25,"&gt;20",A3:A25,"&lt;=25")</f>
+      <c r="I20" s="276">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="J20" s="271">
+        <v>35</v>
+      </c>
+      <c r="K20" s="272">
+        <v>7</v>
+      </c>
+      <c r="L20" s="276">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G21" s="271">
+        <v>25</v>
+      </c>
+      <c r="H21" s="272">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="274" t="s">
-        <v>348</v>
-      </c>
-      <c r="G18" s="274" t="s">
-        <v>353</v>
-      </c>
-      <c r="H18" s="274" t="s">
-        <v>357</v>
-      </c>
-      <c r="I18" s="274" t="s">
-        <v>348</v>
-      </c>
-      <c r="J18" s="274" t="s">
-        <v>353</v>
-      </c>
-      <c r="K18" s="274" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>27</v>
-      </c>
-      <c r="F19" s="271">
+      <c r="I21" s="276">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="J21" s="271">
+        <v>40</v>
+      </c>
+      <c r="K21" s="272">
+        <v>7</v>
+      </c>
+      <c r="L21" s="276">
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="271">
+        <v>30</v>
+      </c>
+      <c r="H22" s="272">
+        <v>3</v>
+      </c>
+      <c r="I22" s="276">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="J22" s="271">
+        <v>25</v>
+      </c>
+      <c r="K22" s="272">
+        <v>4</v>
+      </c>
+      <c r="L22" s="276">
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D23" s="1">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="271">
+        <v>35</v>
+      </c>
+      <c r="H23" s="272">
+        <v>7</v>
+      </c>
+      <c r="I23" s="276">
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="J23" s="271">
+        <v>30</v>
+      </c>
+      <c r="K23" s="272">
+        <v>3</v>
+      </c>
+      <c r="L23" s="276">
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="G19" s="272">
+      <c r="G24" s="271">
+        <v>40</v>
+      </c>
+      <c r="H24" s="272">
+        <v>7</v>
+      </c>
+      <c r="I24" s="276">
+        <v>1</v>
+      </c>
+      <c r="J24" s="271">
+        <v>20</v>
+      </c>
+      <c r="K24" s="272">
         <v>2</v>
       </c>
-      <c r="H19" s="275">
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="I19" s="271">
+      <c r="L24" s="276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
         <v>35</v>
       </c>
-      <c r="J19" s="272">
-        <v>7</v>
-      </c>
-      <c r="K19" s="275">
-        <v>0.30434782608695654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>35</v>
-      </c>
-      <c r="F20" s="271">
-        <v>25</v>
-      </c>
-      <c r="G20" s="272">
-        <v>4</v>
-      </c>
-      <c r="H20" s="275">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="I20" s="271">
-        <v>40</v>
-      </c>
-      <c r="J20" s="272">
-        <v>7</v>
-      </c>
-      <c r="K20" s="275">
-        <v>0.60869565217391308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>33</v>
-      </c>
-      <c r="F21" s="271">
-        <v>30</v>
-      </c>
-      <c r="G21" s="272">
-        <v>3</v>
-      </c>
-      <c r="H21" s="275">
-        <v>0.39130434782608697</v>
-      </c>
-      <c r="I21" s="271">
-        <v>25</v>
-      </c>
-      <c r="J21" s="272">
-        <v>4</v>
-      </c>
-      <c r="K21" s="275">
-        <v>0.78260869565217395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>28</v>
-      </c>
-      <c r="F22" s="271">
-        <v>35</v>
-      </c>
-      <c r="G22" s="272">
-        <v>7</v>
-      </c>
-      <c r="H22" s="275">
-        <v>0.69565217391304346</v>
-      </c>
-      <c r="I22" s="271">
-        <v>30</v>
-      </c>
-      <c r="J22" s="272">
-        <v>3</v>
-      </c>
-      <c r="K22" s="275">
-        <v>0.91304347826086951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="F23" s="271">
-        <v>40</v>
-      </c>
-      <c r="G23" s="272">
-        <v>7</v>
-      </c>
-      <c r="H23" s="275">
+      <c r="G25" s="271">
+        <v>45</v>
+      </c>
+      <c r="H25" s="272">
+        <v>0</v>
+      </c>
+      <c r="I25" s="276">
         <v>1</v>
       </c>
-      <c r="I23" s="271">
-        <v>20</v>
-      </c>
-      <c r="J23" s="272">
-        <v>2</v>
-      </c>
-      <c r="K23" s="275">
+      <c r="J25" s="271">
+        <v>45</v>
+      </c>
+      <c r="K25" s="272">
+        <v>0</v>
+      </c>
+      <c r="L25" s="276">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="F24" s="271">
-        <v>45</v>
-      </c>
-      <c r="G24" s="272">
+    <row r="26" spans="1:12" ht="15" thickBot="1">
+      <c r="G26" s="273" t="s">
+        <v>352</v>
+      </c>
+      <c r="H26" s="273">
         <v>0</v>
       </c>
-      <c r="H24" s="275">
+      <c r="I26" s="277">
         <v>1</v>
       </c>
-      <c r="I24" s="271">
-        <v>45</v>
-      </c>
-      <c r="J24" s="272">
+      <c r="J26" s="278" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="273">
         <v>0</v>
       </c>
-      <c r="K24" s="275">
+      <c r="L26" s="277">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
-      <c r="A25">
-        <v>35</v>
-      </c>
-      <c r="F25" s="273" t="s">
-        <v>352</v>
-      </c>
-      <c r="G25" s="273">
-        <v>0</v>
-      </c>
-      <c r="H25" s="276">
-        <v>1</v>
-      </c>
-      <c r="I25" s="277" t="s">
-        <v>352</v>
-      </c>
-      <c r="J25" s="273">
-        <v>0</v>
-      </c>
-      <c r="K25" s="276">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I19:J25">
-    <sortCondition descending="1" ref="J19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J20:K26">
+    <sortCondition descending="1" ref="K20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C86D73A-EDB7-47FD-86EE-38F9E5BF278F}">
+  <dimension ref="A2:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="A2" s="90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>31</v>
+      </c>
+      <c r="D3" s="281" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="281"/>
+      <c r="F3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>22</v>
+      </c>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="272" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="272">
+        <v>31.260869565217391</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE($A$3:$A$25)</f>
+        <v>31.260869565217391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>21</v>
+      </c>
+      <c r="D6" s="272" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="272">
+        <v>1.4626001419102899</v>
+      </c>
+      <c r="F6">
+        <f>F9/SQRT(F17)</f>
+        <v>1.4626001419102899</v>
+      </c>
+      <c r="G6" s="280" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="272" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="272">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <f>MEDIAN($A$3:$A$25)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>37</v>
+      </c>
+      <c r="D8" s="272" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="272">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f>MODE($A$3:$A$25)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="272" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="272">
+        <v>7.0143838665750247</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.STDEV.S($A$3:$A$25)</f>
+        <v>7.0143838665750247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>34</v>
+      </c>
+      <c r="D10" s="272" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="272">
+        <v>49.201581027667999</v>
+      </c>
+      <c r="F10">
+        <f>_xlfn.VAR.S($A$3:$A$25)</f>
+        <v>49.201581027667999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>38</v>
+      </c>
+      <c r="D11" s="272" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="272">
+        <v>-1.2247793723100004</v>
+      </c>
+      <c r="F11">
+        <f>KURT($A$3:$A$25)</f>
+        <v>-1.2247793723100004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>39</v>
+      </c>
+      <c r="D12" s="272" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="272">
+        <v>-0.30660889863523982</v>
+      </c>
+      <c r="F12">
+        <f>SKEW($A$3:$A$25)</f>
+        <v>-0.30660889863523982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="272" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="272">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <f>F15-F14</f>
+        <v>20</v>
+      </c>
+      <c r="G13" s="280" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" s="272" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="272">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <f>MIN($A$3:$A$25)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>40</v>
+      </c>
+      <c r="D15" s="272" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="272">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <f>MAX($A$3:$A$25)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>20</v>
+      </c>
+      <c r="D16" s="272" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="272">
+        <v>719</v>
+      </c>
+      <c r="F16">
+        <f>SUM($A$3:$A$25)</f>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>31</v>
+      </c>
+      <c r="D17" s="272" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="272">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <f>COUNT($A$3:$A$25)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>31</v>
+      </c>
+      <c r="D18" s="272" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="272">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <f>LARGE($A$3:$A$25,5)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1">
+      <c r="A19" s="2">
+        <v>27</v>
+      </c>
+      <c r="D19" s="273" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="273">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <f>SMALL($A$3:$A$25,5)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -33446,6 +34289,1306 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FF5F05-0EE9-489C-A49D-35E4AF142BF3}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.54296875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="28.54296875" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1"/>
+    <row r="2" spans="1:7" ht="15.5">
+      <c r="A2" s="296"/>
+      <c r="B2" s="291" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="291"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.5">
+      <c r="A3" s="296"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="299" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="299" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="299" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" outlineLevel="1">
+      <c r="A4" s="296"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="295" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="295" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="295" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="296"/>
+      <c r="B5" s="293" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="293"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="1">
+      <c r="A6" s="296"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="272" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="272" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="272" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6" s="272" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" outlineLevel="1">
+      <c r="A7" s="296"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="292" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="272" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="272" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="272" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="272" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" outlineLevel="1">
+      <c r="A8" s="296"/>
+      <c r="B8" s="292"/>
+      <c r="C8" s="292" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="272" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="272" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="272" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="272" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1">
+      <c r="A9" s="296"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="292" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="289">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="289">
+        <v>15000</v>
+      </c>
+      <c r="F9" s="289">
+        <v>17750</v>
+      </c>
+      <c r="G9" s="289">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="1">
+      <c r="A10" s="296"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="272" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="272" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="272" t="s">
+        <v>377</v>
+      </c>
+      <c r="G10" s="272" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="1">
+      <c r="A11" s="296"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="292" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="289">
+        <v>4500</v>
+      </c>
+      <c r="E11" s="289">
+        <v>4500</v>
+      </c>
+      <c r="F11" s="289">
+        <v>4500</v>
+      </c>
+      <c r="G11" s="289">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" outlineLevel="1">
+      <c r="A12" s="296"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="292" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="272" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="272" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" s="272" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="272" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1">
+      <c r="A13" s="296"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="292" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="289">
+        <v>1800</v>
+      </c>
+      <c r="E13" s="289">
+        <v>1500</v>
+      </c>
+      <c r="F13" s="289">
+        <v>1800</v>
+      </c>
+      <c r="G13" s="289">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" outlineLevel="1">
+      <c r="A14" s="296"/>
+      <c r="B14" s="292"/>
+      <c r="C14" s="292" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="272" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="272" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="272" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="272" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" outlineLevel="1">
+      <c r="A15" s="296"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="292" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="289">
+        <v>150000</v>
+      </c>
+      <c r="E15" s="289">
+        <v>150000</v>
+      </c>
+      <c r="F15" s="289">
+        <v>150000</v>
+      </c>
+      <c r="G15" s="289">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" outlineLevel="1">
+      <c r="A16" s="296"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="272" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="272" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="272" t="s">
+        <v>380</v>
+      </c>
+      <c r="G16" s="272" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" outlineLevel="1">
+      <c r="A17" s="296"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="289">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="289">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="289">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="289">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" outlineLevel="1">
+      <c r="A18" s="296"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" s="272" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="272" t="s">
+        <v>381</v>
+      </c>
+      <c r="F18" s="272" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" s="272" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" outlineLevel="1">
+      <c r="A19" s="296"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="292" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" s="289">
+        <v>25000</v>
+      </c>
+      <c r="E19" s="289">
+        <v>25000</v>
+      </c>
+      <c r="F19" s="289">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="289">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" outlineLevel="1">
+      <c r="A20" s="296"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="292" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="272" t="s">
+        <v>382</v>
+      </c>
+      <c r="E20" s="272" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="272" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" s="272" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" outlineLevel="1">
+      <c r="A21" s="296"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="292" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" s="289">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="289">
+        <v>3500</v>
+      </c>
+      <c r="F21" s="289">
+        <v>3500</v>
+      </c>
+      <c r="G21" s="289">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="296"/>
+      <c r="B22" s="293" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" s="293"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="274"/>
+      <c r="G22" s="274"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" outlineLevel="1" thickBot="1">
+      <c r="A23" s="296"/>
+      <c r="B23" s="294"/>
+      <c r="C23" s="294" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="290">
+        <f>SUM(D8:D21)</f>
+        <v>201300</v>
+      </c>
+      <c r="E23" s="290">
+        <f t="shared" ref="E23:G23" si="0">SUM(E8:E21)</f>
+        <v>201000</v>
+      </c>
+      <c r="F23" s="290">
+        <f t="shared" si="0"/>
+        <v>204050</v>
+      </c>
+      <c r="G23" s="290">
+        <f t="shared" si="0"/>
+        <v>226300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC44C6D-3BC9-4EE6-B830-C92F29858A7B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.5">
+      <c r="A1" s="282" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="282"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.5">
+      <c r="A3" s="283" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="283" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="279" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="284">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="279" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="284">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="279" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="284">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="279" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="284">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="279" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="284">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="279" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="284">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="279" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="284">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="285" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="286">
+        <f>SUM(B4:B10)</f>
+        <v>201300</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="1" sqref="B11">
+    <scenario name="Initial Planning" locked="1" count="16" user="Arnab" comment="Created by Arnab on 20-05-2023">
+      <inputCells r="A3" val="Expenditure Heads"/>
+      <inputCells r="B3" val="Amount (In INR)"/>
+      <inputCells r="A4" val="Rent"/>
+      <inputCells r="B4" val="15000" numFmtId="7"/>
+      <inputCells r="A5" val="Electricity Bills"/>
+      <inputCells r="B5" val="4500" numFmtId="7"/>
+      <inputCells r="A6" val="Mobile &amp; Internet"/>
+      <inputCells r="B6" val="1800" numFmtId="7"/>
+      <inputCells r="A7" val="Salary &amp; Wages"/>
+      <inputCells r="B7" val="150000" numFmtId="7"/>
+      <inputCells r="A8" val="Stationary Items"/>
+      <inputCells r="B8" val="1500" numFmtId="7"/>
+      <inputCells r="A9" val="TA"/>
+      <inputCells r="B9" val="25000" numFmtId="7"/>
+      <inputCells r="A10" val="Misc."/>
+      <inputCells r="B10" val="3500" numFmtId="7"/>
+    </scenario>
+    <scenario name="No Rent but Bank Loan Installments" locked="1" count="16" user="Arnab" comment="Created by Arnab on 20-05-2023_x000a_Modified by Arnab on 20-05-2023">
+      <inputCells r="A3" val="Expenditure Heads"/>
+      <inputCells r="B3" val="Amount (In INR)"/>
+      <inputCells r="A4" val="Monthly Installments"/>
+      <inputCells r="B4" val="17750" numFmtId="7"/>
+      <inputCells r="A5" val="Electricity Bills"/>
+      <inputCells r="B5" val="4500" numFmtId="7"/>
+      <inputCells r="A6" val="Mobile &amp; Internet"/>
+      <inputCells r="B6" val="1800" numFmtId="7"/>
+      <inputCells r="A7" val="Salary &amp; Wages"/>
+      <inputCells r="B7" val="150000" numFmtId="7"/>
+      <inputCells r="A8" val="Stationary Items"/>
+      <inputCells r="B8" val="1500" numFmtId="7"/>
+      <inputCells r="A9" val="TA"/>
+      <inputCells r="B9" val="25000" numFmtId="7"/>
+      <inputCells r="A10" val="Misc."/>
+      <inputCells r="B10" val="3500" numFmtId="7"/>
+    </scenario>
+    <scenario name="More Incentives and Less TA" locked="1" count="16" user="Arnab" comment="Created by Arnab on 20-05-2023">
+      <inputCells r="A3" val="Expenditure Heads"/>
+      <inputCells r="B3" val="Amount (In INR)"/>
+      <inputCells r="A4" val="Rent"/>
+      <inputCells r="B4" val="15000" numFmtId="7"/>
+      <inputCells r="A5" val="Electricity Bills"/>
+      <inputCells r="B5" val="4500" numFmtId="7"/>
+      <inputCells r="A6" val="Mobile &amp; Internet"/>
+      <inputCells r="B6" val="1800" numFmtId="7"/>
+      <inputCells r="A7" val="Salary &amp; Wages &amp; Incentives"/>
+      <inputCells r="B7" val="180000" numFmtId="7"/>
+      <inputCells r="A8" val="Stationary Items"/>
+      <inputCells r="B8" val="1500" numFmtId="7"/>
+      <inputCells r="A9" val="TA"/>
+      <inputCells r="B9" val="20000" numFmtId="7"/>
+      <inputCells r="A10" val="Misc."/>
+      <inputCells r="B10" val="3500" numFmtId="7"/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02B2320-80ED-47EA-9602-8C92EDBE5AA3}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.5">
+      <c r="A1" s="300" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="86" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="86" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="302">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="302">
+        <v>251000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="302">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="302">
+        <v>624000.00000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="301">
+        <f>AVERAGE(B5:B8)</f>
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89BCBB-A43C-4B08-871B-6E94A152E00F}">
+  <dimension ref="A2:M14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="18.5">
+      <c r="A2" s="303" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="86" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="86" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="304">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="304">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="305">
+        <f>B4-B4*B5</f>
+        <v>3500</v>
+      </c>
+      <c r="C6" s="307">
+        <f>B4-B4*B5+100</f>
+        <v>3600</v>
+      </c>
+      <c r="F6" s="305">
+        <f>F4-F4*F5</f>
+        <v>2100</v>
+      </c>
+      <c r="G6" s="310">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="310">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="310">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="310">
+        <v>2500</v>
+      </c>
+      <c r="K6" s="310">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="310">
+        <v>3500</v>
+      </c>
+      <c r="M6" s="310">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="304">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="308">
+        <f t="dataTable" ref="B7:C14" dt2D="0" dtr="0" r1="B5"/>
+        <v>4500</v>
+      </c>
+      <c r="C7" s="309">
+        <v>4600</v>
+      </c>
+      <c r="F7" s="311">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <f t="dataTable" ref="G7:M14" dt2D="1" dtr="1" r1="F4" r2="F5"/>
+        <v>900</v>
+      </c>
+      <c r="H7">
+        <v>1350</v>
+      </c>
+      <c r="I7">
+        <v>4500</v>
+      </c>
+      <c r="J7">
+        <v>2250</v>
+      </c>
+      <c r="K7">
+        <v>2700</v>
+      </c>
+      <c r="L7">
+        <v>3150</v>
+      </c>
+      <c r="M7">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="304">
+        <v>0.2</v>
+      </c>
+      <c r="B8" s="308">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="309">
+        <v>4100</v>
+      </c>
+      <c r="F8" s="311">
+        <v>0.9</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+      <c r="J8">
+        <v>250</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>350</v>
+      </c>
+      <c r="M8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="304">
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="308">
+        <v>3500</v>
+      </c>
+      <c r="C9" s="309">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="311">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
+        <v>1050</v>
+      </c>
+      <c r="I9">
+        <v>3500</v>
+      </c>
+      <c r="J9">
+        <v>1750</v>
+      </c>
+      <c r="K9">
+        <v>2100</v>
+      </c>
+      <c r="L9">
+        <v>2450</v>
+      </c>
+      <c r="M9">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="304">
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="308">
+        <v>3000</v>
+      </c>
+      <c r="C10" s="309">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="311">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <v>900</v>
+      </c>
+      <c r="I10">
+        <v>3000</v>
+      </c>
+      <c r="J10">
+        <v>1500</v>
+      </c>
+      <c r="K10">
+        <v>1800</v>
+      </c>
+      <c r="L10">
+        <v>2100</v>
+      </c>
+      <c r="M10">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="304">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="308">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="309">
+        <v>2600</v>
+      </c>
+      <c r="F11" s="311">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>750</v>
+      </c>
+      <c r="I11">
+        <v>2500</v>
+      </c>
+      <c r="J11">
+        <v>1250</v>
+      </c>
+      <c r="K11">
+        <v>1500</v>
+      </c>
+      <c r="L11">
+        <v>1750</v>
+      </c>
+      <c r="M11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="304">
+        <v>0.6</v>
+      </c>
+      <c r="B12" s="308">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="309">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="311">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>400</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>2000</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12">
+        <v>1200</v>
+      </c>
+      <c r="L12">
+        <v>1400</v>
+      </c>
+      <c r="M12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="304">
+        <v>0.7</v>
+      </c>
+      <c r="B13" s="308">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="309">
+        <v>1600</v>
+      </c>
+      <c r="F13" s="311">
+        <v>0.05</v>
+      </c>
+      <c r="G13">
+        <v>950</v>
+      </c>
+      <c r="H13">
+        <v>1425</v>
+      </c>
+      <c r="I13">
+        <v>4750</v>
+      </c>
+      <c r="J13">
+        <v>2375</v>
+      </c>
+      <c r="K13">
+        <v>2850</v>
+      </c>
+      <c r="L13">
+        <v>3325</v>
+      </c>
+      <c r="M13">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="304">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="308">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="309">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="311">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+      <c r="K14">
+        <v>600</v>
+      </c>
+      <c r="L14">
+        <v>700</v>
+      </c>
+      <c r="M14">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C979CF-8163-401C-B477-FE5BB921AD9A}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="314" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+    </row>
+    <row r="2" spans="1:8" ht="21">
+      <c r="A2" s="314" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.5">
+      <c r="D3" s="287" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="287" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" s="287" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.5">
+      <c r="C4" s="287" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="312">
+        <v>100</v>
+      </c>
+      <c r="E4" s="306">
+        <v>30</v>
+      </c>
+      <c r="F4" s="312">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" s="312"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="312"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.5">
+      <c r="C6" s="287" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="312">
+        <v>20</v>
+      </c>
+      <c r="E6" s="306">
+        <v>10</v>
+      </c>
+      <c r="F6" s="312">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.5">
+      <c r="B8" s="287" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="287" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" s="287" t="s">
+        <v>441</v>
+      </c>
+      <c r="H8" s="287" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.5">
+      <c r="B9" s="288" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="306">
+        <v>450</v>
+      </c>
+      <c r="D9" s="312">
+        <v>1</v>
+      </c>
+      <c r="E9" s="306">
+        <v>1</v>
+      </c>
+      <c r="F9" s="312">
+        <v>0</v>
+      </c>
+      <c r="G9" s="307">
+        <f>SUMPRODUCT($D$6:$F$6,D9:F9)</f>
+        <v>30</v>
+      </c>
+      <c r="H9" s="313">
+        <f>C9-G9</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.5">
+      <c r="B10" s="288" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="306">
+        <v>250</v>
+      </c>
+      <c r="D10" s="312">
+        <v>1</v>
+      </c>
+      <c r="E10" s="306">
+        <v>0</v>
+      </c>
+      <c r="F10" s="312">
+        <v>0</v>
+      </c>
+      <c r="G10" s="307">
+        <f t="shared" ref="G10:G13" si="0">SUMPRODUCT($D$6:$F$6,D10:F10)</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="313">
+        <f t="shared" ref="H10:H13" si="1">C10-G10</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.5">
+      <c r="B11" s="288" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="306">
+        <v>900</v>
+      </c>
+      <c r="D11" s="312">
+        <v>2</v>
+      </c>
+      <c r="E11" s="306">
+        <v>2</v>
+      </c>
+      <c r="F11" s="312">
+        <v>1</v>
+      </c>
+      <c r="G11" s="307">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H11" s="313">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.5">
+      <c r="B12" s="288" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="306">
+        <v>450</v>
+      </c>
+      <c r="D12" s="312">
+        <v>1</v>
+      </c>
+      <c r="E12" s="306">
+        <v>1</v>
+      </c>
+      <c r="F12" s="312">
+        <v>0</v>
+      </c>
+      <c r="G12" s="307">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="313">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.5">
+      <c r="B13" s="288" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="306">
+        <v>600</v>
+      </c>
+      <c r="D13" s="312">
+        <v>2</v>
+      </c>
+      <c r="E13" s="306">
+        <v>1</v>
+      </c>
+      <c r="F13" s="312">
+        <v>1</v>
+      </c>
+      <c r="G13" s="307">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H13" s="313">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.5">
+      <c r="C15" s="287" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="310">
+        <f>D4*D6</f>
+        <v>2000</v>
+      </c>
+      <c r="E15" s="310">
+        <f t="shared" ref="E15:F15" si="2">E4*E6</f>
+        <v>300</v>
+      </c>
+      <c r="F15" s="310">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.5">
+      <c r="C16" s="287" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" s="305">
+        <f>SUM(D15:F15)</f>
+        <v>5300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G9:G13" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
